--- a/PersonalProgress/HaitianJiang/CPU_5_stage_Logisim/CPU设计参数.xlsx
+++ b/PersonalProgress/HaitianJiang/CPU_5_stage_Logisim/CPU设计参数.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="22356" windowHeight="10020" activeTab="2"/>
+    <workbookView windowWidth="22368" windowHeight="10007" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="module" sheetId="7" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="804" uniqueCount="428">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="784" uniqueCount="420">
   <si>
     <t>单周期CPU，初态PC= 0，上升沿0--&gt;1执行Instr[0]，下降沿1--&gt;0读取Instr[1]</t>
   </si>
@@ -930,24 +930,6 @@
     <t>101-011</t>
   </si>
   <si>
-    <t>slti</t>
-  </si>
-  <si>
-    <t>001-010</t>
-  </si>
-  <si>
-    <t>01010</t>
-  </si>
-  <si>
-    <t>sltiu</t>
-  </si>
-  <si>
-    <t>001-011</t>
-  </si>
-  <si>
-    <t>01011</t>
-  </si>
-  <si>
     <t>无符号imm扩展</t>
   </si>
   <si>
@@ -972,18 +954,6 @@
     <t>按模式寻址</t>
   </si>
   <si>
-    <t>lh</t>
-  </si>
-  <si>
-    <t>sh</t>
-  </si>
-  <si>
-    <t>溢出检测</t>
-  </si>
-  <si>
-    <t>addi</t>
-  </si>
-  <si>
     <t>b类跳转</t>
   </si>
   <si>
@@ -993,6 +963,9 @@
     <t>bne</t>
   </si>
   <si>
+    <t>bgtz</t>
+  </si>
+  <si>
     <t>R-Type</t>
   </si>
   <si>
@@ -1008,37 +981,10 @@
     <t>同上</t>
   </si>
   <si>
-    <t>sllv</t>
-  </si>
-  <si>
-    <t>srlv</t>
-  </si>
-  <si>
-    <t>srav</t>
-  </si>
-  <si>
     <t>jr</t>
   </si>
   <si>
     <t>需要设置新的部件</t>
-  </si>
-  <si>
-    <t>add</t>
-  </si>
-  <si>
-    <t>sub</t>
-  </si>
-  <si>
-    <t>subu</t>
-  </si>
-  <si>
-    <t>nor</t>
-  </si>
-  <si>
-    <t>slt</t>
-  </si>
-  <si>
-    <t>sltu</t>
   </si>
   <si>
     <t>J-Type</t>
@@ -1141,6 +1087,9 @@
     <t>$11 = 0xc8</t>
   </si>
   <si>
+    <t>add</t>
+  </si>
+  <si>
     <t>add $12,$11,$10</t>
   </si>
   <si>
@@ -1249,6 +1198,9 @@
     <t>需要$signed(B)</t>
   </si>
   <si>
+    <t>sllv</t>
+  </si>
+  <si>
     <t>li $3,5</t>
   </si>
   <si>
@@ -1261,6 +1213,9 @@
     <t>$17  = 0xffff_ffc0</t>
   </si>
   <si>
+    <t>srlv</t>
+  </si>
+  <si>
     <t>srlv $18,$15,$3</t>
   </si>
   <si>
@@ -1270,6 +1225,9 @@
     <t>$18 = 0x07ff_fffc</t>
   </si>
   <si>
+    <t>srav</t>
+  </si>
+  <si>
     <t>srav $19,$15,$3</t>
   </si>
   <si>
@@ -1294,12 +1252,18 @@
     <t>23-28一次性检验即可</t>
   </si>
   <si>
+    <t>sub</t>
+  </si>
+  <si>
     <t>sub $22,$13,$15</t>
   </si>
   <si>
     <t>0xce4</t>
   </si>
   <si>
+    <t>subu</t>
+  </si>
+  <si>
     <t>subu $23,$13,$15</t>
   </si>
   <si>
@@ -1321,12 +1285,18 @@
     <t>0x62</t>
   </si>
   <si>
+    <t>nor</t>
+  </si>
+  <si>
     <t>nor $27,$13,$2</t>
   </si>
   <si>
     <t>0xfc00_0001</t>
   </si>
   <si>
+    <t>slt</t>
+  </si>
+  <si>
     <t>slt $28,$1,$10</t>
   </si>
   <si>
@@ -1334,6 +1304,9 @@
   </si>
   <si>
     <t>$28 = 0x1</t>
+  </si>
+  <si>
+    <t>sltu</t>
   </si>
   <si>
     <t>sltu $29,$1,$10</t>
@@ -1429,10 +1402,16 @@
     <t>add $3,$3,$3</t>
   </si>
   <si>
+    <t>slti</t>
+  </si>
+  <si>
     <t>slti  $4,$15,100</t>
   </si>
   <si>
     <t>$4 = 1</t>
+  </si>
+  <si>
+    <t>sltiu</t>
   </si>
   <si>
     <t>sltiu $5,$15,100</t>
@@ -1473,6 +1452,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>备注：中心控制器在op = 000000或</t>
     </r>
     <r>
@@ -1525,9 +1511,6 @@
     <t>000101</t>
   </si>
   <si>
-    <t>bgtz</t>
-  </si>
-  <si>
     <t>Branch on greater than zero</t>
   </si>
   <si>
@@ -1564,9 +1547,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="54">
@@ -1825,60 +1808,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1892,40 +1824,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <color theme="0"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1948,6 +1848,43 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF006100"/>
       <name val="等线"/>
       <charset val="0"/>
@@ -1957,6 +1894,52 @@
       <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2117,7 +2100,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2129,7 +2130,97 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2141,31 +2232,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2183,115 +2274,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2528,16 +2511,16 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
+      <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
-      <right style="thin">
+      <right style="double">
         <color rgb="FF3F3F3F"/>
       </right>
-      <top style="thin">
+      <top style="double">
         <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="thin">
+      <bottom style="double">
         <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
@@ -2552,17 +2535,13 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
       </top>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2591,15 +2570,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -2617,11 +2587,24 @@
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2633,149 +2616,149 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="33" fillId="52" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="49" fillId="48" borderId="27" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="33" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="46" fillId="43" borderId="28" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="39" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="36" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="45" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="47" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="49" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="39" borderId="26" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="45" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="43" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="38" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="44" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="40" borderId="26" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="50" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="48" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="46" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="23" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="42" fillId="0" borderId="23" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="23" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="36" fillId="51" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="50" fillId="0" borderId="28" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="43" fillId="0" borderId="27" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="36" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="51" fillId="44" borderId="29" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="36" fillId="30" borderId="22" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="45" fillId="44" borderId="27" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="51" fillId="30" borderId="28" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="34" fillId="25" borderId="22" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="40" fillId="32" borderId="24" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="33" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="36" fillId="53" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="41" fillId="0" borderId="25" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="47" fillId="0" borderId="29" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="24" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="50" fillId="53" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="44" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="35" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="43" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="52" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="33" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="36" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="33" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="50" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="33" fillId="49" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="51" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="48" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="50" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="44" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="47" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="33" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="46" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="36" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="33" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="47" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="46" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="45" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="119">
+  <cellXfs count="110">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2803,19 +2786,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1">
@@ -2824,9 +2798,6 @@
     <xf numFmtId="49" fontId="7" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2842,9 +2813,6 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2860,9 +2828,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -2875,9 +2840,6 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -3004,13 +2966,7 @@
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="16" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -3267,90 +3223,6 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>167640</xdr:colOff>
-      <xdr:row>76</xdr:row>
-      <xdr:rowOff>66675</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>838835</xdr:colOff>
-      <xdr:row>83</xdr:row>
-      <xdr:rowOff>129540</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="10" name="图片 9"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip r:embed="rId2"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="9105900" y="13836015"/>
-          <a:ext cx="1745615" cy="1289685"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln w="9525">
-          <a:noFill/>
-        </a:ln>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>182880</xdr:colOff>
-      <xdr:row>100</xdr:row>
-      <xdr:rowOff>167640</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>1341120</xdr:colOff>
-      <xdr:row>114</xdr:row>
-      <xdr:rowOff>137160</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="图片 1"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip r:embed="rId3"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="9121140" y="18143220"/>
-          <a:ext cx="3139440" cy="2423160"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln w="9525">
-          <a:noFill/>
-        </a:ln>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>6</xdr:col>
       <xdr:colOff>129540</xdr:colOff>
       <xdr:row>45</xdr:row>
       <xdr:rowOff>142875</xdr:rowOff>
@@ -3369,7 +3241,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip r:embed="rId4"/>
+        <a:blip r:embed="rId2"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -3411,7 +3283,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip r:embed="rId5"/>
+        <a:blip r:embed="rId3"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -3453,7 +3325,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip r:embed="rId6"/>
+        <a:blip r:embed="rId4"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -3462,6 +3334,48 @@
         <a:xfrm>
           <a:off x="9250680" y="15293340"/>
           <a:ext cx="1728470" cy="1912620"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>434340</xdr:colOff>
+      <xdr:row>74</xdr:row>
+      <xdr:rowOff>129540</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>22860</xdr:colOff>
+      <xdr:row>83</xdr:row>
+      <xdr:rowOff>83820</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="6" name="图片 5"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId5"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9372600" y="13548360"/>
+          <a:ext cx="1569720" cy="1531620"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3737,111 +3651,111 @@
   <sheetPr/>
   <dimension ref="A1:K109"/>
   <sheetViews>
-    <sheetView topLeftCell="A68" workbookViewId="0">
-      <selection activeCell="J97" sqref="J97"/>
+    <sheetView topLeftCell="A57" workbookViewId="0">
+      <selection activeCell="J72" sqref="J72"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="13.8"/>
   <cols>
-    <col min="1" max="1" width="23.6666666666667" style="20" customWidth="1"/>
-    <col min="2" max="2" width="13.8888888888889" style="20" customWidth="1"/>
-    <col min="3" max="3" width="15.4444444444444" style="20" customWidth="1"/>
-    <col min="4" max="5" width="15.7777777777778" style="20" customWidth="1"/>
-    <col min="6" max="6" width="45.7777777777778" style="20" customWidth="1"/>
-    <col min="7" max="7" width="8.88888888888889" style="20"/>
-    <col min="8" max="8" width="6.77777777777778" style="20" customWidth="1"/>
-    <col min="9" max="9" width="13.2222222222222" style="20" customWidth="1"/>
-    <col min="10" max="10" width="35.5555555555556" style="20" customWidth="1"/>
-    <col min="11" max="16384" width="8.88888888888889" style="20"/>
+    <col min="1" max="1" width="23.6666666666667" style="16" customWidth="1"/>
+    <col min="2" max="2" width="13.8888888888889" style="16" customWidth="1"/>
+    <col min="3" max="3" width="15.4444444444444" style="16" customWidth="1"/>
+    <col min="4" max="5" width="15.7777777777778" style="16" customWidth="1"/>
+    <col min="6" max="6" width="45.7777777777778" style="16" customWidth="1"/>
+    <col min="7" max="7" width="8.88888888888889" style="16"/>
+    <col min="8" max="8" width="6.77777777777778" style="16" customWidth="1"/>
+    <col min="9" max="9" width="13.2222222222222" style="16" customWidth="1"/>
+    <col min="10" max="10" width="35.5555555555556" style="16" customWidth="1"/>
+    <col min="11" max="16384" width="8.88888888888889" style="16"/>
   </cols>
   <sheetData>
     <row r="1" ht="20.4" spans="1:8">
-      <c r="A1" s="79" t="s">
+      <c r="A1" s="70" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="79"/>
-      <c r="C1" s="79"/>
-      <c r="D1" s="79"/>
-      <c r="E1" s="79"/>
-      <c r="F1" s="79"/>
-      <c r="G1" s="80" t="s">
+      <c r="B1" s="70"/>
+      <c r="C1" s="70"/>
+      <c r="D1" s="70"/>
+      <c r="E1" s="70"/>
+      <c r="F1" s="70"/>
+      <c r="G1" s="71" t="s">
         <v>1</v>
       </c>
-      <c r="H1" s="80"/>
+      <c r="H1" s="71"/>
     </row>
     <row r="2" ht="17.4" spans="1:10">
-      <c r="A2" s="79"/>
-      <c r="B2" s="79"/>
-      <c r="C2" s="79"/>
-      <c r="D2" s="79"/>
-      <c r="E2" s="79"/>
-      <c r="F2" s="79"/>
-      <c r="I2" s="110" t="s">
+      <c r="A2" s="70"/>
+      <c r="B2" s="70"/>
+      <c r="C2" s="70"/>
+      <c r="D2" s="70"/>
+      <c r="E2" s="70"/>
+      <c r="F2" s="70"/>
+      <c r="I2" s="101" t="s">
         <v>2</v>
       </c>
-      <c r="J2" s="20" t="s">
+      <c r="J2" s="16" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="3" spans="1:9">
-      <c r="A3" s="79"/>
-      <c r="B3" s="79"/>
-      <c r="C3" s="79"/>
-      <c r="D3" s="79"/>
-      <c r="E3" s="79"/>
-      <c r="F3" s="79"/>
-      <c r="I3" s="20" t="s">
+      <c r="A3" s="70"/>
+      <c r="B3" s="70"/>
+      <c r="C3" s="70"/>
+      <c r="D3" s="70"/>
+      <c r="E3" s="70"/>
+      <c r="F3" s="70"/>
+      <c r="I3" s="16" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="4" spans="1:10">
-      <c r="A4" s="79" t="s">
+      <c r="A4" s="70" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="79"/>
-      <c r="C4" s="79"/>
-      <c r="D4" s="79"/>
-      <c r="E4" s="79"/>
-      <c r="F4" s="79"/>
-      <c r="I4" s="53" t="s">
+      <c r="B4" s="70"/>
+      <c r="C4" s="70"/>
+      <c r="D4" s="70"/>
+      <c r="E4" s="70"/>
+      <c r="F4" s="70"/>
+      <c r="I4" s="46" t="s">
         <v>6</v>
       </c>
-      <c r="J4" s="20" t="s">
+      <c r="J4" s="16" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="5" spans="1:6">
-      <c r="A5" s="79"/>
-      <c r="B5" s="79"/>
-      <c r="C5" s="79"/>
-      <c r="D5" s="79"/>
-      <c r="E5" s="79"/>
-      <c r="F5" s="79"/>
+      <c r="A5" s="70"/>
+      <c r="B5" s="70"/>
+      <c r="C5" s="70"/>
+      <c r="D5" s="70"/>
+      <c r="E5" s="70"/>
+      <c r="F5" s="70"/>
     </row>
     <row r="6" spans="1:10">
-      <c r="A6" s="79" t="s">
+      <c r="A6" s="70" t="s">
         <v>8</v>
       </c>
-      <c r="B6" s="79"/>
-      <c r="C6" s="79"/>
-      <c r="D6" s="79"/>
-      <c r="E6" s="79"/>
-      <c r="F6" s="79"/>
-      <c r="I6" s="20" t="s">
+      <c r="B6" s="70"/>
+      <c r="C6" s="70"/>
+      <c r="D6" s="70"/>
+      <c r="E6" s="70"/>
+      <c r="F6" s="70"/>
+      <c r="I6" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="J6" s="20" t="s">
+      <c r="J6" s="16" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="7" spans="1:9">
-      <c r="A7" s="79"/>
-      <c r="B7" s="79"/>
-      <c r="C7" s="79"/>
-      <c r="D7" s="79"/>
-      <c r="E7" s="79"/>
-      <c r="F7" s="79"/>
-      <c r="I7" s="20" t="s">
+      <c r="A7" s="70"/>
+      <c r="B7" s="70"/>
+      <c r="C7" s="70"/>
+      <c r="D7" s="70"/>
+      <c r="E7" s="70"/>
+      <c r="F7" s="70"/>
+      <c r="I7" s="16" t="s">
         <v>4</v>
       </c>
     </row>
@@ -3864,800 +3778,800 @@
       <c r="F8" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="I8" s="69" t="s">
+      <c r="I8" s="62" t="s">
         <v>17</v>
       </c>
-      <c r="J8" s="20" t="s">
+      <c r="J8" s="16" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="9" spans="1:10">
-      <c r="A9" s="81"/>
-      <c r="B9" s="82"/>
-      <c r="C9" s="82"/>
-      <c r="D9" s="82"/>
-      <c r="E9" s="82"/>
-      <c r="F9" s="82"/>
-      <c r="I9" s="69" t="s">
+      <c r="A9" s="72"/>
+      <c r="B9" s="73"/>
+      <c r="C9" s="73"/>
+      <c r="D9" s="73"/>
+      <c r="E9" s="73"/>
+      <c r="F9" s="73"/>
+      <c r="I9" s="62" t="s">
         <v>19</v>
       </c>
-      <c r="J9" s="20" t="s">
+      <c r="J9" s="16" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="10" spans="1:6">
-      <c r="A10" s="20" t="s">
+      <c r="A10" s="16" t="s">
         <v>21</v>
       </c>
-      <c r="B10" s="20" t="s">
+      <c r="B10" s="16" t="s">
         <v>22</v>
       </c>
-      <c r="C10" s="20">
+      <c r="C10" s="16">
         <v>1</v>
       </c>
-      <c r="D10" s="20" t="s">
+      <c r="D10" s="16" t="s">
         <v>23</v>
       </c>
-      <c r="E10" s="20">
+      <c r="E10" s="16">
         <v>32</v>
       </c>
-      <c r="F10" s="20" t="s">
+      <c r="F10" s="16" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="11" spans="3:10">
-      <c r="C11" s="20">
+      <c r="C11" s="16">
         <v>2</v>
       </c>
-      <c r="D11" s="20" t="s">
+      <c r="D11" s="16" t="s">
         <v>25</v>
       </c>
-      <c r="E11" s="20">
+      <c r="E11" s="16">
         <v>32</v>
       </c>
-      <c r="F11" s="20" t="s">
+      <c r="F11" s="16" t="s">
         <v>26</v>
       </c>
-      <c r="I11" s="84" t="s">
+      <c r="I11" s="75" t="s">
         <v>27</v>
       </c>
-      <c r="J11" s="20" t="s">
+      <c r="J11" s="16" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="12" spans="3:6">
-      <c r="C12" s="20">
+      <c r="C12" s="16">
         <v>3</v>
       </c>
-      <c r="D12" s="83" t="s">
+      <c r="D12" s="74" t="s">
         <v>29</v>
       </c>
-      <c r="E12" s="20">
+      <c r="E12" s="16">
         <v>1</v>
       </c>
-      <c r="F12" s="20" t="s">
+      <c r="F12" s="16" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="13" spans="3:6">
-      <c r="C13" s="20">
+      <c r="C13" s="16">
         <v>4</v>
       </c>
-      <c r="D13" s="55" t="s">
+      <c r="D13" s="48" t="s">
         <v>31</v>
       </c>
-      <c r="E13" s="20">
+      <c r="E13" s="16">
         <v>1</v>
       </c>
-      <c r="F13" s="20" t="s">
+      <c r="F13" s="16" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="14" spans="3:6">
-      <c r="C14" s="20">
+      <c r="C14" s="16">
         <v>5</v>
       </c>
-      <c r="D14" s="84" t="s">
+      <c r="D14" s="75" t="s">
         <v>27</v>
       </c>
-      <c r="E14" s="20">
+      <c r="E14" s="16">
         <v>1</v>
       </c>
-      <c r="F14" s="20" t="s">
+      <c r="F14" s="16" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="15" spans="2:6">
-      <c r="B15" s="85"/>
-      <c r="C15" s="85"/>
-      <c r="D15" s="85"/>
-      <c r="E15" s="85"/>
-      <c r="F15" s="85"/>
+      <c r="B15" s="76"/>
+      <c r="C15" s="76"/>
+      <c r="D15" s="76"/>
+      <c r="E15" s="76"/>
+      <c r="F15" s="76"/>
     </row>
     <row r="16" spans="2:6">
-      <c r="B16" s="20" t="s">
+      <c r="B16" s="16" t="s">
         <v>34</v>
       </c>
-      <c r="C16" s="20">
+      <c r="C16" s="16">
         <v>1</v>
       </c>
-      <c r="D16" s="20" t="s">
+      <c r="D16" s="16" t="s">
         <v>35</v>
       </c>
-      <c r="E16" s="20">
+      <c r="E16" s="16">
         <v>32</v>
       </c>
-      <c r="F16" s="20" t="s">
+      <c r="F16" s="16" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="17" spans="1:6">
-      <c r="A17" s="86"/>
-      <c r="B17" s="87"/>
-      <c r="C17" s="87"/>
-      <c r="D17" s="87"/>
-      <c r="E17" s="87"/>
-      <c r="F17" s="87"/>
+      <c r="A17" s="77"/>
+      <c r="B17" s="78"/>
+      <c r="C17" s="78"/>
+      <c r="D17" s="78"/>
+      <c r="E17" s="78"/>
+      <c r="F17" s="78"/>
     </row>
     <row r="18" spans="1:6">
-      <c r="A18" s="20" t="s">
+      <c r="A18" s="16" t="s">
         <v>37</v>
       </c>
-      <c r="B18" s="20" t="s">
+      <c r="B18" s="16" t="s">
         <v>22</v>
       </c>
-      <c r="C18" s="20">
+      <c r="C18" s="16">
         <v>1</v>
       </c>
-      <c r="D18" s="88" t="s">
+      <c r="D18" s="79" t="s">
         <v>38</v>
       </c>
-      <c r="E18" s="20">
+      <c r="E18" s="16">
         <v>32</v>
       </c>
-      <c r="F18" s="20" t="s">
+      <c r="F18" s="16" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="19" spans="3:6">
-      <c r="C19" s="20">
+      <c r="C19" s="16">
         <v>2</v>
       </c>
-      <c r="D19" s="68" t="s">
+      <c r="D19" s="61" t="s">
         <v>40</v>
       </c>
-      <c r="E19" s="20">
+      <c r="E19" s="16">
         <v>1</v>
       </c>
-      <c r="F19" s="20" t="s">
+      <c r="F19" s="16" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="20" spans="2:6">
-      <c r="B20" s="85"/>
-      <c r="C20" s="85"/>
-      <c r="D20" s="85"/>
-      <c r="E20" s="85"/>
-      <c r="F20" s="85"/>
+      <c r="B20" s="76"/>
+      <c r="C20" s="76"/>
+      <c r="D20" s="76"/>
+      <c r="E20" s="76"/>
+      <c r="F20" s="76"/>
     </row>
     <row r="21" spans="2:6">
-      <c r="B21" s="20" t="s">
+      <c r="B21" s="16" t="s">
         <v>34</v>
       </c>
-      <c r="C21" s="20">
+      <c r="C21" s="16">
         <v>1</v>
       </c>
-      <c r="D21" s="20" t="s">
+      <c r="D21" s="16" t="s">
         <v>42</v>
       </c>
-      <c r="E21" s="20">
+      <c r="E21" s="16">
         <v>32</v>
       </c>
-      <c r="F21" s="20" t="s">
+      <c r="F21" s="16" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="22" spans="1:6">
-      <c r="A22" s="89"/>
-      <c r="B22" s="90"/>
-      <c r="C22" s="90"/>
-      <c r="D22" s="90"/>
-      <c r="E22" s="90"/>
-      <c r="F22" s="91"/>
+      <c r="A22" s="80"/>
+      <c r="B22" s="81"/>
+      <c r="C22" s="81"/>
+      <c r="D22" s="81"/>
+      <c r="E22" s="81"/>
+      <c r="F22" s="82"/>
     </row>
     <row r="23" spans="1:6">
-      <c r="A23" s="92" t="s">
+      <c r="A23" s="83" t="s">
         <v>44</v>
       </c>
-      <c r="B23" s="93" t="s">
+      <c r="B23" s="84" t="s">
         <v>22</v>
       </c>
-      <c r="C23" s="94">
+      <c r="C23" s="85">
         <v>1</v>
       </c>
-      <c r="D23" s="84" t="s">
+      <c r="D23" s="75" t="s">
         <v>27</v>
       </c>
-      <c r="E23" s="94">
+      <c r="E23" s="85">
         <v>1</v>
       </c>
-      <c r="F23" s="94" t="s">
+      <c r="F23" s="85" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="24" spans="1:6">
-      <c r="A24" s="95"/>
-      <c r="B24" s="96"/>
-      <c r="C24" s="94">
+      <c r="A24" s="86"/>
+      <c r="B24" s="87"/>
+      <c r="C24" s="85">
         <v>2</v>
       </c>
-      <c r="D24" s="94" t="s">
+      <c r="D24" s="85" t="s">
         <v>46</v>
       </c>
-      <c r="E24" s="94">
+      <c r="E24" s="85">
         <v>1</v>
       </c>
-      <c r="F24" s="97" t="s">
+      <c r="F24" s="88" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="25" spans="1:6">
-      <c r="A25" s="95"/>
-      <c r="B25" s="96"/>
-      <c r="C25" s="94">
+      <c r="A25" s="86"/>
+      <c r="B25" s="87"/>
+      <c r="C25" s="85">
         <v>3</v>
       </c>
-      <c r="D25" s="94" t="s">
+      <c r="D25" s="85" t="s">
         <v>48</v>
       </c>
-      <c r="E25" s="94">
+      <c r="E25" s="85">
         <v>32</v>
       </c>
-      <c r="F25" s="94" t="s">
+      <c r="F25" s="85" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="26" spans="1:6">
-      <c r="A26" s="95"/>
-      <c r="B26" s="96"/>
-      <c r="C26" s="94">
+      <c r="A26" s="86"/>
+      <c r="B26" s="87"/>
+      <c r="C26" s="85">
         <v>4</v>
       </c>
-      <c r="D26" s="94" t="s">
+      <c r="D26" s="85" t="s">
         <v>25</v>
       </c>
-      <c r="E26" s="94">
+      <c r="E26" s="85">
         <v>32</v>
       </c>
-      <c r="F26" s="94" t="s">
+      <c r="F26" s="85" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="27" spans="1:6">
-      <c r="A27" s="95"/>
-      <c r="B27" s="98"/>
-      <c r="C27" s="99"/>
-      <c r="D27" s="99"/>
-      <c r="E27" s="99"/>
-      <c r="F27" s="99"/>
+      <c r="A27" s="86"/>
+      <c r="B27" s="89"/>
+      <c r="C27" s="90"/>
+      <c r="D27" s="90"/>
+      <c r="E27" s="90"/>
+      <c r="F27" s="90"/>
     </row>
     <row r="28" spans="1:6">
-      <c r="A28" s="95"/>
-      <c r="B28" s="93" t="s">
+      <c r="A28" s="86"/>
+      <c r="B28" s="84" t="s">
         <v>34</v>
       </c>
-      <c r="C28" s="94">
+      <c r="C28" s="85">
         <v>1</v>
       </c>
-      <c r="D28" s="94" t="s">
+      <c r="D28" s="85" t="s">
         <v>38</v>
       </c>
-      <c r="E28" s="94">
+      <c r="E28" s="85">
         <v>32</v>
       </c>
-      <c r="F28" s="94" t="s">
+      <c r="F28" s="85" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="29" spans="1:6">
-      <c r="A29" s="95"/>
-      <c r="B29" s="96"/>
-      <c r="C29" s="94">
+      <c r="A29" s="86"/>
+      <c r="B29" s="87"/>
+      <c r="C29" s="85">
         <v>2</v>
       </c>
-      <c r="D29" s="94" t="s">
+      <c r="D29" s="85" t="s">
         <v>40</v>
       </c>
-      <c r="E29" s="94">
+      <c r="E29" s="85">
         <v>1</v>
       </c>
-      <c r="F29" s="94" t="s">
+      <c r="F29" s="85" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="30" spans="1:6">
-      <c r="A30" s="95"/>
-      <c r="B30" s="96"/>
-      <c r="C30" s="94">
+      <c r="A30" s="86"/>
+      <c r="B30" s="87"/>
+      <c r="C30" s="85">
         <v>3</v>
       </c>
-      <c r="D30" s="94" t="s">
+      <c r="D30" s="85" t="s">
         <v>23</v>
       </c>
-      <c r="E30" s="94">
+      <c r="E30" s="85">
         <v>32</v>
       </c>
-      <c r="F30" s="94" t="s">
+      <c r="F30" s="85" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="31" spans="1:6">
-      <c r="A31" s="95"/>
-      <c r="B31" s="96"/>
-      <c r="C31" s="94">
+      <c r="A31" s="86"/>
+      <c r="B31" s="87"/>
+      <c r="C31" s="85">
         <v>4</v>
       </c>
-      <c r="D31" s="94" t="s">
+      <c r="D31" s="85" t="s">
         <v>35</v>
       </c>
-      <c r="E31" s="94">
+      <c r="E31" s="85">
         <v>32</v>
       </c>
-      <c r="F31" s="94" t="s">
+      <c r="F31" s="85" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="32" spans="1:6">
-      <c r="A32" s="95"/>
-      <c r="B32" s="96"/>
-      <c r="C32" s="94">
+      <c r="A32" s="86"/>
+      <c r="B32" s="87"/>
+      <c r="C32" s="85">
         <v>5</v>
       </c>
-      <c r="D32" s="94" t="s">
+      <c r="D32" s="85" t="s">
         <v>29</v>
       </c>
-      <c r="E32" s="94">
+      <c r="E32" s="85">
         <v>1</v>
       </c>
-      <c r="F32" s="94" t="s">
+      <c r="F32" s="85" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="33" spans="1:6">
-      <c r="A33" s="95"/>
-      <c r="B33" s="96"/>
-      <c r="C33" s="94">
+      <c r="A33" s="86"/>
+      <c r="B33" s="87"/>
+      <c r="C33" s="85">
         <v>6</v>
       </c>
-      <c r="D33" s="94" t="s">
+      <c r="D33" s="85" t="s">
         <v>31</v>
       </c>
-      <c r="E33" s="94">
+      <c r="E33" s="85">
         <v>1</v>
       </c>
-      <c r="F33" s="94" t="s">
+      <c r="F33" s="85" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="34" spans="1:6">
-      <c r="A34" s="100" t="s">
+      <c r="A34" s="91" t="s">
         <v>57</v>
       </c>
-      <c r="B34" s="100"/>
-      <c r="C34" s="100"/>
-      <c r="D34" s="100"/>
-      <c r="E34" s="100"/>
-      <c r="F34" s="100"/>
+      <c r="B34" s="91"/>
+      <c r="C34" s="91"/>
+      <c r="D34" s="91"/>
+      <c r="E34" s="91"/>
+      <c r="F34" s="91"/>
     </row>
     <row r="35" spans="1:6">
-      <c r="A35" s="100"/>
-      <c r="B35" s="100"/>
-      <c r="C35" s="100"/>
-      <c r="D35" s="100"/>
-      <c r="E35" s="100"/>
-      <c r="F35" s="100"/>
+      <c r="A35" s="91"/>
+      <c r="B35" s="91"/>
+      <c r="C35" s="91"/>
+      <c r="D35" s="91"/>
+      <c r="E35" s="91"/>
+      <c r="F35" s="91"/>
     </row>
     <row r="36" spans="1:6">
-      <c r="A36" s="100"/>
-      <c r="B36" s="100"/>
-      <c r="C36" s="100"/>
-      <c r="D36" s="100"/>
-      <c r="E36" s="100"/>
-      <c r="F36" s="100"/>
+      <c r="A36" s="91"/>
+      <c r="B36" s="91"/>
+      <c r="C36" s="91"/>
+      <c r="D36" s="91"/>
+      <c r="E36" s="91"/>
+      <c r="F36" s="91"/>
     </row>
     <row r="37" spans="1:6">
-      <c r="A37" s="100"/>
-      <c r="B37" s="100"/>
-      <c r="C37" s="100"/>
-      <c r="D37" s="100"/>
-      <c r="E37" s="100"/>
-      <c r="F37" s="100"/>
+      <c r="A37" s="91"/>
+      <c r="B37" s="91"/>
+      <c r="C37" s="91"/>
+      <c r="D37" s="91"/>
+      <c r="E37" s="91"/>
+      <c r="F37" s="91"/>
     </row>
     <row r="38" spans="1:6">
-      <c r="A38" s="20" t="s">
+      <c r="A38" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="B38" s="20" t="s">
+      <c r="B38" s="16" t="s">
         <v>22</v>
       </c>
-      <c r="C38" s="20">
+      <c r="C38" s="16">
         <v>1</v>
       </c>
-      <c r="D38" s="84" t="s">
+      <c r="D38" s="75" t="s">
         <v>27</v>
       </c>
-      <c r="E38" s="20">
+      <c r="E38" s="16">
         <v>1</v>
       </c>
-      <c r="F38" s="20" t="s">
+      <c r="F38" s="16" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="39" spans="3:6">
-      <c r="C39" s="20">
+      <c r="C39" s="16">
         <v>2</v>
       </c>
-      <c r="D39" s="20" t="s">
+      <c r="D39" s="16" t="s">
         <v>46</v>
       </c>
-      <c r="E39" s="20">
+      <c r="E39" s="16">
         <v>1</v>
       </c>
-      <c r="F39" s="21" t="s">
+      <c r="F39" s="17" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="40" spans="3:6">
-      <c r="C40" s="20">
+      <c r="C40" s="16">
         <v>3</v>
       </c>
-      <c r="D40" s="20" t="s">
+      <c r="D40" s="16" t="s">
         <v>61</v>
       </c>
-      <c r="E40" s="20">
+      <c r="E40" s="16">
         <v>32</v>
       </c>
-      <c r="F40" s="20" t="s">
+      <c r="F40" s="16" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="41" spans="2:6">
-      <c r="B41" s="101"/>
-      <c r="C41" s="101"/>
-      <c r="D41" s="101"/>
-      <c r="E41" s="101"/>
-      <c r="F41" s="101"/>
+      <c r="B41" s="92"/>
+      <c r="C41" s="92"/>
+      <c r="D41" s="92"/>
+      <c r="E41" s="92"/>
+      <c r="F41" s="92"/>
     </row>
     <row r="42" spans="2:6">
-      <c r="B42" s="20" t="s">
+      <c r="B42" s="16" t="s">
         <v>34</v>
       </c>
-      <c r="C42" s="20">
+      <c r="C42" s="16">
         <v>1</v>
       </c>
-      <c r="D42" s="88" t="s">
+      <c r="D42" s="79" t="s">
         <v>63</v>
       </c>
-      <c r="E42" s="20">
+      <c r="E42" s="16">
         <v>32</v>
       </c>
-      <c r="F42" s="20" t="s">
+      <c r="F42" s="16" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="43" spans="1:6">
-      <c r="A43" s="102"/>
-      <c r="B43" s="102"/>
-      <c r="C43" s="102"/>
-      <c r="D43" s="102"/>
-      <c r="E43" s="102"/>
-      <c r="F43" s="102"/>
+      <c r="A43" s="93"/>
+      <c r="B43" s="93"/>
+      <c r="C43" s="93"/>
+      <c r="D43" s="93"/>
+      <c r="E43" s="93"/>
+      <c r="F43" s="93"/>
     </row>
     <row r="44" spans="1:6">
-      <c r="A44" s="102"/>
-      <c r="B44" s="102"/>
-      <c r="C44" s="102"/>
-      <c r="D44" s="102"/>
-      <c r="E44" s="102"/>
-      <c r="F44" s="102"/>
+      <c r="A44" s="93"/>
+      <c r="B44" s="93"/>
+      <c r="C44" s="93"/>
+      <c r="D44" s="93"/>
+      <c r="E44" s="93"/>
+      <c r="F44" s="93"/>
     </row>
     <row r="45" spans="1:6">
-      <c r="A45" s="102"/>
-      <c r="B45" s="102"/>
-      <c r="C45" s="102"/>
-      <c r="D45" s="102"/>
-      <c r="E45" s="102"/>
-      <c r="F45" s="102"/>
+      <c r="A45" s="93"/>
+      <c r="B45" s="93"/>
+      <c r="C45" s="93"/>
+      <c r="D45" s="93"/>
+      <c r="E45" s="93"/>
+      <c r="F45" s="93"/>
     </row>
     <row r="46" spans="1:6">
-      <c r="A46" s="102"/>
-      <c r="B46" s="102"/>
-      <c r="C46" s="102"/>
-      <c r="D46" s="102"/>
-      <c r="E46" s="102"/>
-      <c r="F46" s="102"/>
+      <c r="A46" s="93"/>
+      <c r="B46" s="93"/>
+      <c r="C46" s="93"/>
+      <c r="D46" s="93"/>
+      <c r="E46" s="93"/>
+      <c r="F46" s="93"/>
     </row>
     <row r="47" spans="1:6">
-      <c r="A47" s="20" t="s">
+      <c r="A47" s="16" t="s">
         <v>65</v>
       </c>
-      <c r="B47" s="20" t="s">
+      <c r="B47" s="16" t="s">
         <v>22</v>
       </c>
-      <c r="C47" s="20">
+      <c r="C47" s="16">
         <v>1</v>
       </c>
-      <c r="D47" s="84" t="s">
+      <c r="D47" s="75" t="s">
         <v>27</v>
       </c>
-      <c r="E47" s="20">
+      <c r="E47" s="16">
         <v>1</v>
       </c>
-      <c r="F47" s="20" t="s">
+      <c r="F47" s="16" t="s">
         <v>66</v>
       </c>
     </row>
     <row r="48" ht="15.6" spans="3:6">
-      <c r="C48" s="20">
+      <c r="C48" s="16">
         <v>2</v>
       </c>
-      <c r="D48" s="103" t="s">
+      <c r="D48" s="94" t="s">
         <v>67</v>
       </c>
-      <c r="E48" s="20">
+      <c r="E48" s="16">
         <v>1</v>
       </c>
-      <c r="F48" s="9" t="s">
+      <c r="F48" s="8" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="49" spans="3:6">
-      <c r="C49" s="12">
+      <c r="C49" s="10">
         <v>3</v>
       </c>
-      <c r="D49" s="12" t="s">
+      <c r="D49" s="10" t="s">
         <v>46</v>
       </c>
-      <c r="E49" s="12">
+      <c r="E49" s="10">
         <v>1</v>
       </c>
-      <c r="F49" s="12" t="s">
+      <c r="F49" s="10" t="s">
         <v>69</v>
       </c>
     </row>
     <row r="50" spans="3:6">
-      <c r="C50" s="20">
+      <c r="C50" s="16">
         <v>4</v>
       </c>
-      <c r="D50" s="20" t="s">
+      <c r="D50" s="16" t="s">
         <v>70</v>
       </c>
-      <c r="E50" s="20">
+      <c r="E50" s="16">
         <v>32</v>
       </c>
-      <c r="F50" s="20" t="s">
+      <c r="F50" s="16" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="51" spans="3:6">
-      <c r="C51" s="20">
+      <c r="C51" s="16">
         <v>5</v>
       </c>
-      <c r="D51" s="104" t="s">
+      <c r="D51" s="95" t="s">
         <v>72</v>
       </c>
-      <c r="E51" s="20">
+      <c r="E51" s="16">
         <v>5</v>
       </c>
-      <c r="F51" s="20" t="s">
+      <c r="F51" s="16" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="52" spans="3:6">
-      <c r="C52" s="20">
+      <c r="C52" s="16">
         <v>6</v>
       </c>
-      <c r="D52" s="105" t="s">
+      <c r="D52" s="96" t="s">
         <v>74</v>
       </c>
-      <c r="E52" s="20">
+      <c r="E52" s="16">
         <v>5</v>
       </c>
-      <c r="F52" s="20" t="s">
+      <c r="F52" s="16" t="s">
         <v>75</v>
       </c>
     </row>
     <row r="53" spans="3:6">
-      <c r="C53" s="20">
+      <c r="C53" s="16">
         <v>7</v>
       </c>
-      <c r="D53" s="106" t="s">
+      <c r="D53" s="97" t="s">
         <v>76</v>
       </c>
-      <c r="E53" s="20">
+      <c r="E53" s="16">
         <v>5</v>
       </c>
-      <c r="F53" s="20" t="s">
+      <c r="F53" s="16" t="s">
         <v>77</v>
       </c>
     </row>
     <row r="54" ht="15" customHeight="1" spans="2:6">
-      <c r="B54" s="107"/>
-      <c r="C54" s="107"/>
-      <c r="D54" s="107"/>
-      <c r="E54" s="107"/>
-      <c r="F54" s="107"/>
+      <c r="B54" s="98"/>
+      <c r="C54" s="98"/>
+      <c r="D54" s="98"/>
+      <c r="E54" s="98"/>
+      <c r="F54" s="98"/>
     </row>
     <row r="55" spans="2:6">
-      <c r="B55" s="20" t="s">
+      <c r="B55" s="16" t="s">
         <v>34</v>
       </c>
-      <c r="C55" s="20">
+      <c r="C55" s="16">
         <v>1</v>
       </c>
-      <c r="D55" s="108" t="s">
+      <c r="D55" s="99" t="s">
         <v>78</v>
       </c>
-      <c r="E55" s="20">
+      <c r="E55" s="16">
         <v>32</v>
       </c>
-      <c r="F55" s="20" t="s">
+      <c r="F55" s="16" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="56" spans="3:6">
-      <c r="C56" s="20">
+      <c r="C56" s="16">
         <v>2</v>
       </c>
-      <c r="D56" s="109" t="s">
+      <c r="D56" s="100" t="s">
         <v>80</v>
       </c>
-      <c r="E56" s="20">
+      <c r="E56" s="16">
         <v>32</v>
       </c>
-      <c r="F56" s="20" t="s">
+      <c r="F56" s="16" t="s">
         <v>81</v>
       </c>
     </row>
     <row r="57" ht="15.6" spans="2:6">
-      <c r="B57" s="107"/>
-      <c r="C57" s="107"/>
-      <c r="D57" s="107"/>
-      <c r="E57" s="107"/>
-      <c r="F57" s="107"/>
+      <c r="B57" s="98"/>
+      <c r="C57" s="98"/>
+      <c r="D57" s="98"/>
+      <c r="E57" s="98"/>
+      <c r="F57" s="98"/>
     </row>
     <row r="58" spans="2:6">
-      <c r="B58" s="12" t="s">
+      <c r="B58" s="10" t="s">
         <v>82</v>
       </c>
-      <c r="C58" s="12">
+      <c r="C58" s="10">
         <v>1</v>
       </c>
-      <c r="D58" s="12" t="s">
+      <c r="D58" s="10" t="s">
         <v>83</v>
       </c>
-      <c r="E58" s="12">
+      <c r="E58" s="10">
         <v>32</v>
       </c>
-      <c r="F58" s="12" t="s">
+      <c r="F58" s="10" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="59" spans="1:6">
-      <c r="A59" s="102"/>
-      <c r="B59" s="102"/>
-      <c r="C59" s="102"/>
-      <c r="D59" s="102"/>
-      <c r="E59" s="102"/>
-      <c r="F59" s="102"/>
+      <c r="A59" s="93"/>
+      <c r="B59" s="93"/>
+      <c r="C59" s="93"/>
+      <c r="D59" s="93"/>
+      <c r="E59" s="93"/>
+      <c r="F59" s="93"/>
     </row>
     <row r="60" spans="1:6">
-      <c r="A60" s="102"/>
-      <c r="B60" s="102"/>
-      <c r="C60" s="102"/>
-      <c r="D60" s="102"/>
-      <c r="E60" s="102"/>
-      <c r="F60" s="102"/>
+      <c r="A60" s="93"/>
+      <c r="B60" s="93"/>
+      <c r="C60" s="93"/>
+      <c r="D60" s="93"/>
+      <c r="E60" s="93"/>
+      <c r="F60" s="93"/>
     </row>
     <row r="61" spans="1:6">
-      <c r="A61" s="102"/>
-      <c r="B61" s="102"/>
-      <c r="C61" s="102"/>
-      <c r="D61" s="102"/>
-      <c r="E61" s="102"/>
-      <c r="F61" s="102"/>
+      <c r="A61" s="93"/>
+      <c r="B61" s="93"/>
+      <c r="C61" s="93"/>
+      <c r="D61" s="93"/>
+      <c r="E61" s="93"/>
+      <c r="F61" s="93"/>
     </row>
     <row r="62" spans="1:6">
-      <c r="A62" s="102"/>
-      <c r="B62" s="102"/>
-      <c r="C62" s="102"/>
-      <c r="D62" s="102"/>
-      <c r="E62" s="102"/>
-      <c r="F62" s="102"/>
+      <c r="A62" s="93"/>
+      <c r="B62" s="93"/>
+      <c r="C62" s="93"/>
+      <c r="D62" s="93"/>
+      <c r="E62" s="93"/>
+      <c r="F62" s="93"/>
     </row>
     <row r="63" spans="1:6">
-      <c r="A63" s="20" t="s">
+      <c r="A63" s="16" t="s">
         <v>85</v>
       </c>
-      <c r="B63" s="20" t="s">
+      <c r="B63" s="16" t="s">
         <v>22</v>
       </c>
-      <c r="C63" s="20">
+      <c r="C63" s="16">
         <v>1</v>
       </c>
-      <c r="D63" s="53" t="s">
+      <c r="D63" s="46" t="s">
         <v>6</v>
       </c>
-      <c r="E63" s="20">
+      <c r="E63" s="16">
         <v>6</v>
       </c>
-      <c r="F63" s="20" t="s">
+      <c r="F63" s="16" t="s">
         <v>86</v>
       </c>
     </row>
     <row r="64" spans="2:6">
-      <c r="B64" s="101"/>
-      <c r="C64" s="101"/>
-      <c r="D64" s="101"/>
-      <c r="E64" s="101"/>
-      <c r="F64" s="101"/>
+      <c r="B64" s="92"/>
+      <c r="C64" s="92"/>
+      <c r="D64" s="92"/>
+      <c r="E64" s="92"/>
+      <c r="F64" s="92"/>
     </row>
     <row r="65" spans="2:6">
-      <c r="B65" s="20" t="s">
+      <c r="B65" s="16" t="s">
         <v>34</v>
       </c>
-      <c r="C65" s="20">
+      <c r="C65" s="16">
         <v>1</v>
       </c>
-      <c r="D65" s="54" t="s">
+      <c r="D65" s="47" t="s">
         <v>87</v>
       </c>
-      <c r="E65" s="20">
+      <c r="E65" s="16">
         <v>5</v>
       </c>
-      <c r="F65" s="20" t="s">
+      <c r="F65" s="16" t="s">
         <v>88</v>
       </c>
     </row>
     <row r="66" spans="3:6">
-      <c r="C66" s="20">
+      <c r="C66" s="16">
         <v>2</v>
       </c>
-      <c r="D66" s="20" t="s">
+      <c r="D66" s="16" t="s">
         <v>89</v>
       </c>
-      <c r="E66" s="20">
+      <c r="E66" s="16">
         <v>1</v>
       </c>
-      <c r="F66" s="20" t="s">
+      <c r="F66" s="16" t="s">
         <v>90</v>
       </c>
     </row>
     <row r="67" ht="22.8" spans="3:9">
-      <c r="C67" s="20">
+      <c r="C67" s="16">
         <v>3</v>
       </c>
-      <c r="D67" s="111" t="s">
+      <c r="D67" s="102" t="s">
         <v>91</v>
       </c>
-      <c r="E67" s="20">
+      <c r="E67" s="16">
         <v>1</v>
       </c>
-      <c r="F67" s="20" t="s">
+      <c r="F67" s="16" t="s">
         <v>92</v>
       </c>
-      <c r="G67" s="112"/>
-      <c r="H67" s="112"/>
-      <c r="I67" s="112"/>
+      <c r="G67" s="103"/>
+      <c r="H67" s="103"/>
+      <c r="I67" s="103"/>
     </row>
     <row r="68" spans="3:6">
-      <c r="C68" s="20">
+      <c r="C68" s="16">
         <v>4</v>
       </c>
-      <c r="D68" s="20" t="s">
+      <c r="D68" s="16" t="s">
         <v>93</v>
       </c>
-      <c r="E68" s="20">
+      <c r="E68" s="16">
         <v>1</v>
       </c>
       <c r="F68" s="4" t="s">
@@ -4665,452 +4579,452 @@
       </c>
     </row>
     <row r="69" spans="3:6">
-      <c r="C69" s="20">
+      <c r="C69" s="16">
         <v>5</v>
       </c>
-      <c r="D69" s="55" t="s">
+      <c r="D69" s="48" t="s">
         <v>95</v>
       </c>
-      <c r="E69" s="20">
+      <c r="E69" s="16">
         <v>1</v>
       </c>
-      <c r="F69" s="20" t="s">
+      <c r="F69" s="16" t="s">
         <v>96</v>
       </c>
     </row>
     <row r="70" spans="3:7">
-      <c r="C70" s="20">
+      <c r="C70" s="16">
         <v>6</v>
       </c>
-      <c r="D70" s="20" t="s">
+      <c r="D70" s="16" t="s">
         <v>97</v>
       </c>
-      <c r="E70" s="20">
+      <c r="E70" s="16">
         <v>1</v>
       </c>
-      <c r="F70" s="20" t="s">
+      <c r="F70" s="16" t="s">
         <v>98</v>
       </c>
-      <c r="G70" s="20" t="s">
+      <c r="G70" s="16" t="s">
         <v>99</v>
       </c>
     </row>
     <row r="71" spans="3:6">
-      <c r="C71" s="20">
+      <c r="C71" s="16">
         <v>7</v>
       </c>
-      <c r="D71" s="55" t="s">
+      <c r="D71" s="48" t="s">
         <v>100</v>
       </c>
-      <c r="E71" s="20">
+      <c r="E71" s="16">
         <v>1</v>
       </c>
-      <c r="F71" s="20" t="s">
+      <c r="F71" s="16" t="s">
         <v>101</v>
       </c>
     </row>
     <row r="72" ht="25.2" spans="3:9">
-      <c r="C72" s="20">
+      <c r="C72" s="16">
         <v>8</v>
       </c>
-      <c r="D72" s="113" t="s">
+      <c r="D72" s="104" t="s">
         <v>102</v>
       </c>
-      <c r="E72" s="114">
+      <c r="E72" s="105">
         <v>2</v>
       </c>
-      <c r="F72" s="9" t="s">
+      <c r="F72" s="8" t="s">
         <v>103</v>
       </c>
-      <c r="G72" s="112"/>
-      <c r="H72" s="112"/>
-      <c r="I72" s="112"/>
+      <c r="G72" s="103"/>
+      <c r="H72" s="103"/>
+      <c r="I72" s="103"/>
     </row>
     <row r="73" spans="3:6">
-      <c r="C73" s="20">
+      <c r="C73" s="16">
         <v>9</v>
       </c>
-      <c r="D73" s="68" t="s">
+      <c r="D73" s="61" t="s">
         <v>104</v>
       </c>
-      <c r="E73" s="20">
+      <c r="E73" s="16">
         <v>1</v>
       </c>
-      <c r="F73" s="20" t="s">
+      <c r="F73" s="16" t="s">
         <v>105</v>
       </c>
     </row>
     <row r="74" spans="3:6">
-      <c r="C74" s="20">
+      <c r="C74" s="16">
         <v>10</v>
       </c>
-      <c r="D74" s="69" t="s">
+      <c r="D74" s="62" t="s">
         <v>19</v>
       </c>
-      <c r="E74" s="20">
+      <c r="E74" s="16">
         <v>1</v>
       </c>
-      <c r="F74" s="20" t="s">
+      <c r="F74" s="16" t="s">
         <v>106</v>
       </c>
     </row>
     <row r="75" spans="1:6">
-      <c r="A75" s="102"/>
-      <c r="B75" s="102"/>
-      <c r="C75" s="102"/>
-      <c r="D75" s="102"/>
-      <c r="E75" s="102"/>
-      <c r="F75" s="102"/>
+      <c r="A75" s="93"/>
+      <c r="B75" s="93"/>
+      <c r="C75" s="93"/>
+      <c r="D75" s="93"/>
+      <c r="E75" s="93"/>
+      <c r="F75" s="93"/>
     </row>
     <row r="76" spans="1:6">
-      <c r="A76" s="102"/>
-      <c r="B76" s="102"/>
-      <c r="C76" s="102"/>
-      <c r="D76" s="102"/>
-      <c r="E76" s="102"/>
-      <c r="F76" s="102"/>
+      <c r="A76" s="93"/>
+      <c r="B76" s="93"/>
+      <c r="C76" s="93"/>
+      <c r="D76" s="93"/>
+      <c r="E76" s="93"/>
+      <c r="F76" s="93"/>
     </row>
     <row r="77" spans="1:6">
-      <c r="A77" s="102"/>
-      <c r="B77" s="102"/>
-      <c r="C77" s="102"/>
-      <c r="D77" s="102"/>
-      <c r="E77" s="102"/>
-      <c r="F77" s="102"/>
+      <c r="A77" s="93"/>
+      <c r="B77" s="93"/>
+      <c r="C77" s="93"/>
+      <c r="D77" s="93"/>
+      <c r="E77" s="93"/>
+      <c r="F77" s="93"/>
     </row>
     <row r="78" spans="1:6">
-      <c r="A78" s="102"/>
-      <c r="B78" s="102"/>
-      <c r="C78" s="102"/>
-      <c r="D78" s="102"/>
-      <c r="E78" s="102"/>
-      <c r="F78" s="102"/>
+      <c r="A78" s="93"/>
+      <c r="B78" s="93"/>
+      <c r="C78" s="93"/>
+      <c r="D78" s="93"/>
+      <c r="E78" s="93"/>
+      <c r="F78" s="93"/>
     </row>
     <row r="79" spans="1:6">
-      <c r="A79" s="20" t="s">
+      <c r="A79" s="16" t="s">
         <v>107</v>
       </c>
-      <c r="B79" s="20" t="s">
+      <c r="B79" s="16" t="s">
         <v>22</v>
       </c>
-      <c r="C79" s="20">
+      <c r="C79" s="16">
         <v>1</v>
       </c>
-      <c r="D79" s="54" t="s">
+      <c r="D79" s="47" t="s">
         <v>87</v>
       </c>
-      <c r="E79" s="20">
+      <c r="E79" s="16">
         <v>4</v>
       </c>
-      <c r="F79" s="20" t="s">
+      <c r="F79" s="16" t="s">
         <v>108</v>
       </c>
     </row>
     <row r="80" spans="3:6">
-      <c r="C80" s="20">
+      <c r="C80" s="16">
         <v>2</v>
       </c>
-      <c r="D80" s="53" t="s">
+      <c r="D80" s="46" t="s">
         <v>109</v>
       </c>
-      <c r="E80" s="20">
+      <c r="E80" s="16">
         <v>6</v>
       </c>
-      <c r="F80" s="20" t="s">
+      <c r="F80" s="16" t="s">
         <v>110</v>
       </c>
     </row>
     <row r="81" spans="2:6">
-      <c r="B81" s="101"/>
-      <c r="C81" s="101"/>
-      <c r="D81" s="101"/>
-      <c r="E81" s="101"/>
-      <c r="F81" s="101"/>
+      <c r="B81" s="92"/>
+      <c r="C81" s="92"/>
+      <c r="D81" s="92"/>
+      <c r="E81" s="92"/>
+      <c r="F81" s="92"/>
     </row>
     <row r="82" spans="2:6">
-      <c r="B82" s="20" t="s">
+      <c r="B82" s="16" t="s">
         <v>34</v>
       </c>
-      <c r="C82" s="20">
+      <c r="C82" s="16">
         <v>1</v>
       </c>
-      <c r="D82" s="47" t="s">
+      <c r="D82" s="40" t="s">
         <v>111</v>
       </c>
-      <c r="E82" s="20">
+      <c r="E82" s="16">
         <v>4</v>
       </c>
-      <c r="F82" s="20" t="s">
+      <c r="F82" s="16" t="s">
         <v>112</v>
       </c>
     </row>
     <row r="83" spans="1:6">
-      <c r="A83" s="102"/>
-      <c r="B83" s="102"/>
-      <c r="C83" s="102"/>
-      <c r="D83" s="102"/>
-      <c r="E83" s="102"/>
-      <c r="F83" s="102"/>
+      <c r="A83" s="93"/>
+      <c r="B83" s="93"/>
+      <c r="C83" s="93"/>
+      <c r="D83" s="93"/>
+      <c r="E83" s="93"/>
+      <c r="F83" s="93"/>
     </row>
     <row r="84" spans="1:6">
-      <c r="A84" s="102"/>
-      <c r="B84" s="102"/>
-      <c r="C84" s="102"/>
-      <c r="D84" s="102"/>
-      <c r="E84" s="102"/>
-      <c r="F84" s="102"/>
+      <c r="A84" s="93"/>
+      <c r="B84" s="93"/>
+      <c r="C84" s="93"/>
+      <c r="D84" s="93"/>
+      <c r="E84" s="93"/>
+      <c r="F84" s="93"/>
     </row>
     <row r="85" spans="1:6">
-      <c r="A85" s="102"/>
-      <c r="B85" s="102"/>
-      <c r="C85" s="102"/>
-      <c r="D85" s="102"/>
-      <c r="E85" s="102"/>
-      <c r="F85" s="102"/>
+      <c r="A85" s="93"/>
+      <c r="B85" s="93"/>
+      <c r="C85" s="93"/>
+      <c r="D85" s="93"/>
+      <c r="E85" s="93"/>
+      <c r="F85" s="93"/>
     </row>
     <row r="86" spans="1:10">
-      <c r="A86" s="20" t="s">
+      <c r="A86" s="16" t="s">
         <v>113</v>
       </c>
-      <c r="B86" s="20" t="s">
+      <c r="B86" s="16" t="s">
         <v>22</v>
       </c>
-      <c r="C86" s="20">
+      <c r="C86" s="16">
         <v>1</v>
       </c>
-      <c r="D86" s="108" t="s">
+      <c r="D86" s="99" t="s">
         <v>78</v>
       </c>
-      <c r="E86" s="20">
+      <c r="E86" s="16">
         <v>32</v>
       </c>
-      <c r="F86" s="20" t="s">
+      <c r="F86" s="16" t="s">
         <v>114</v>
       </c>
-      <c r="J86" s="118" t="s">
+      <c r="J86" s="109" t="s">
         <v>115</v>
       </c>
     </row>
     <row r="87" spans="3:10">
-      <c r="C87" s="20">
+      <c r="C87" s="16">
         <v>2</v>
       </c>
-      <c r="D87" s="109" t="s">
+      <c r="D87" s="100" t="s">
         <v>80</v>
       </c>
-      <c r="E87" s="20">
+      <c r="E87" s="16">
         <v>32</v>
       </c>
-      <c r="F87" s="20" t="s">
+      <c r="F87" s="16" t="s">
         <v>116</v>
       </c>
-      <c r="J87" s="118"/>
+      <c r="J87" s="109"/>
     </row>
     <row r="88" spans="3:10">
-      <c r="C88" s="20">
+      <c r="C88" s="16">
         <v>3</v>
       </c>
-      <c r="D88" s="53" t="s">
+      <c r="D88" s="46" t="s">
         <v>117</v>
       </c>
-      <c r="E88" s="20">
+      <c r="E88" s="16">
         <v>16</v>
       </c>
-      <c r="F88" s="20" t="s">
+      <c r="F88" s="16" t="s">
         <v>118</v>
       </c>
-      <c r="J88" s="118"/>
+      <c r="J88" s="109"/>
     </row>
     <row r="89" spans="3:10">
-      <c r="C89" s="9">
+      <c r="C89" s="8">
         <v>4</v>
       </c>
-      <c r="D89" s="115" t="s">
+      <c r="D89" s="106" t="s">
         <v>102</v>
       </c>
-      <c r="E89" s="9">
+      <c r="E89" s="8">
         <v>2</v>
       </c>
-      <c r="F89" s="9" t="s">
+      <c r="F89" s="8" t="s">
         <v>119</v>
       </c>
-      <c r="J89" s="118"/>
+      <c r="J89" s="109"/>
     </row>
     <row r="90" spans="3:10">
-      <c r="C90" s="20">
+      <c r="C90" s="16">
         <v>5</v>
       </c>
-      <c r="D90" s="47" t="s">
+      <c r="D90" s="40" t="s">
         <v>111</v>
       </c>
-      <c r="E90" s="20">
+      <c r="E90" s="16">
         <v>4</v>
       </c>
-      <c r="F90" s="20" t="s">
+      <c r="F90" s="16" t="s">
         <v>120</v>
       </c>
-      <c r="J90" s="118"/>
+      <c r="J90" s="109"/>
     </row>
     <row r="91" spans="3:10">
-      <c r="C91" s="20">
+      <c r="C91" s="16">
         <v>6</v>
       </c>
-      <c r="D91" s="53" t="s">
+      <c r="D91" s="46" t="s">
         <v>121</v>
       </c>
-      <c r="E91" s="20">
+      <c r="E91" s="16">
         <v>5</v>
       </c>
-      <c r="F91" s="20" t="s">
+      <c r="F91" s="16" t="s">
         <v>122</v>
       </c>
-      <c r="J91" s="118"/>
+      <c r="J91" s="109"/>
     </row>
     <row r="92" spans="2:10">
-      <c r="B92" s="101"/>
-      <c r="C92" s="101"/>
-      <c r="D92" s="101"/>
-      <c r="E92" s="101"/>
-      <c r="F92" s="101"/>
-      <c r="J92" s="118"/>
+      <c r="B92" s="92"/>
+      <c r="C92" s="92"/>
+      <c r="D92" s="92"/>
+      <c r="E92" s="92"/>
+      <c r="F92" s="92"/>
+      <c r="J92" s="109"/>
     </row>
     <row r="93" spans="2:10">
-      <c r="B93" s="20" t="s">
+      <c r="B93" s="16" t="s">
         <v>34</v>
       </c>
-      <c r="C93" s="20">
+      <c r="C93" s="16">
         <v>1</v>
       </c>
-      <c r="D93" s="20" t="s">
+      <c r="D93" s="16" t="s">
         <v>123</v>
       </c>
-      <c r="E93" s="20">
+      <c r="E93" s="16">
         <v>32</v>
       </c>
-      <c r="F93" s="20" t="s">
+      <c r="F93" s="16" t="s">
         <v>124</v>
       </c>
-      <c r="J93" s="118"/>
+      <c r="J93" s="109"/>
     </row>
     <row r="94" spans="3:10">
-      <c r="C94" s="12">
+      <c r="C94" s="10">
         <v>2</v>
       </c>
-      <c r="D94" s="12" t="s">
+      <c r="D94" s="10" t="s">
         <v>125</v>
       </c>
-      <c r="E94" s="12">
+      <c r="E94" s="10">
         <v>1</v>
       </c>
-      <c r="F94" s="12" t="s">
+      <c r="F94" s="10" t="s">
         <v>126</v>
       </c>
-      <c r="J94" s="118"/>
+      <c r="J94" s="109"/>
     </row>
     <row r="95" spans="1:6">
-      <c r="A95" s="102"/>
-      <c r="B95" s="102"/>
-      <c r="C95" s="102"/>
-      <c r="D95" s="102"/>
-      <c r="E95" s="102"/>
-      <c r="F95" s="102"/>
+      <c r="A95" s="93"/>
+      <c r="B95" s="93"/>
+      <c r="C95" s="93"/>
+      <c r="D95" s="93"/>
+      <c r="E95" s="93"/>
+      <c r="F95" s="93"/>
     </row>
     <row r="96" spans="1:6">
-      <c r="A96" s="116" t="s">
+      <c r="A96" s="107" t="s">
         <v>127</v>
       </c>
-      <c r="B96" s="116"/>
-      <c r="C96" s="116"/>
-      <c r="D96" s="116"/>
-      <c r="E96" s="116"/>
-      <c r="F96" s="116"/>
+      <c r="B96" s="107"/>
+      <c r="C96" s="107"/>
+      <c r="D96" s="107"/>
+      <c r="E96" s="107"/>
+      <c r="F96" s="107"/>
     </row>
     <row r="97" spans="1:6">
-      <c r="A97" s="116"/>
-      <c r="B97" s="116"/>
-      <c r="C97" s="116"/>
-      <c r="D97" s="116"/>
-      <c r="E97" s="116"/>
-      <c r="F97" s="116"/>
+      <c r="A97" s="107"/>
+      <c r="B97" s="107"/>
+      <c r="C97" s="107"/>
+      <c r="D97" s="107"/>
+      <c r="E97" s="107"/>
+      <c r="F97" s="107"/>
     </row>
     <row r="98" spans="1:6">
-      <c r="A98" s="116"/>
-      <c r="B98" s="116"/>
-      <c r="C98" s="116"/>
-      <c r="D98" s="116"/>
-      <c r="E98" s="116"/>
-      <c r="F98" s="116"/>
+      <c r="A98" s="107"/>
+      <c r="B98" s="107"/>
+      <c r="C98" s="107"/>
+      <c r="D98" s="107"/>
+      <c r="E98" s="107"/>
+      <c r="F98" s="107"/>
     </row>
     <row r="99" spans="1:6">
-      <c r="A99" s="117" t="s">
+      <c r="A99" s="108" t="s">
         <v>128</v>
       </c>
-      <c r="B99" s="17"/>
-      <c r="C99" s="17"/>
-      <c r="D99" s="17"/>
-      <c r="E99" s="17"/>
-      <c r="F99" s="17"/>
+      <c r="B99" s="13"/>
+      <c r="C99" s="13"/>
+      <c r="D99" s="13"/>
+      <c r="E99" s="13"/>
+      <c r="F99" s="13"/>
     </row>
     <row r="100" spans="1:6">
-      <c r="A100" s="17"/>
-      <c r="B100" s="17"/>
-      <c r="C100" s="17"/>
-      <c r="D100" s="17"/>
-      <c r="E100" s="17"/>
-      <c r="F100" s="17"/>
+      <c r="A100" s="13"/>
+      <c r="B100" s="13"/>
+      <c r="C100" s="13"/>
+      <c r="D100" s="13"/>
+      <c r="E100" s="13"/>
+      <c r="F100" s="13"/>
     </row>
     <row r="101" spans="1:6">
-      <c r="A101" s="17"/>
-      <c r="B101" s="17"/>
-      <c r="C101" s="17"/>
-      <c r="D101" s="17"/>
-      <c r="E101" s="17"/>
-      <c r="F101" s="17"/>
+      <c r="A101" s="13"/>
+      <c r="B101" s="13"/>
+      <c r="C101" s="13"/>
+      <c r="D101" s="13"/>
+      <c r="E101" s="13"/>
+      <c r="F101" s="13"/>
     </row>
     <row r="102" spans="1:6">
-      <c r="A102" s="17"/>
-      <c r="B102" s="17"/>
-      <c r="C102" s="17"/>
-      <c r="D102" s="17"/>
-      <c r="E102" s="17"/>
-      <c r="F102" s="17"/>
+      <c r="A102" s="13"/>
+      <c r="B102" s="13"/>
+      <c r="C102" s="13"/>
+      <c r="D102" s="13"/>
+      <c r="E102" s="13"/>
+      <c r="F102" s="13"/>
     </row>
     <row r="103" spans="1:6">
-      <c r="A103" s="50" t="s">
+      <c r="A103" s="43" t="s">
         <v>129</v>
       </c>
-      <c r="B103" s="50"/>
-      <c r="C103" s="50"/>
-      <c r="D103" s="50"/>
-      <c r="E103" s="50"/>
-      <c r="F103" s="50"/>
+      <c r="B103" s="43"/>
+      <c r="C103" s="43"/>
+      <c r="D103" s="43"/>
+      <c r="E103" s="43"/>
+      <c r="F103" s="43"/>
     </row>
     <row r="104" spans="1:6">
-      <c r="A104" s="50"/>
-      <c r="B104" s="50"/>
-      <c r="C104" s="50"/>
-      <c r="D104" s="50"/>
-      <c r="E104" s="50"/>
-      <c r="F104" s="50"/>
+      <c r="A104" s="43"/>
+      <c r="B104" s="43"/>
+      <c r="C104" s="43"/>
+      <c r="D104" s="43"/>
+      <c r="E104" s="43"/>
+      <c r="F104" s="43"/>
     </row>
     <row r="105" spans="1:6">
-      <c r="A105" s="50"/>
-      <c r="B105" s="50"/>
-      <c r="C105" s="50"/>
-      <c r="D105" s="50"/>
-      <c r="E105" s="50"/>
-      <c r="F105" s="50"/>
+      <c r="A105" s="43"/>
+      <c r="B105" s="43"/>
+      <c r="C105" s="43"/>
+      <c r="D105" s="43"/>
+      <c r="E105" s="43"/>
+      <c r="F105" s="43"/>
     </row>
     <row r="106" spans="1:6">
-      <c r="A106" s="50"/>
-      <c r="B106" s="50"/>
-      <c r="C106" s="50"/>
-      <c r="D106" s="50"/>
-      <c r="E106" s="50"/>
-      <c r="F106" s="50"/>
+      <c r="A106" s="43"/>
+      <c r="B106" s="43"/>
+      <c r="C106" s="43"/>
+      <c r="D106" s="43"/>
+      <c r="E106" s="43"/>
+      <c r="F106" s="43"/>
     </row>
     <row r="107" spans="1:1">
-      <c r="A107" s="20" t="s">
+      <c r="A107" s="16" t="s">
         <v>130</v>
       </c>
     </row>
@@ -5164,7 +5078,7 @@
   <dimension ref="A1:R22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D25" sqref="D25"/>
+      <selection activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="13.8"/>
@@ -5180,24 +5094,24 @@
   </cols>
   <sheetData>
     <row r="1" ht="17.4" spans="1:6">
-      <c r="A1" s="77" t="s">
+      <c r="A1" s="69" t="s">
         <v>131</v>
       </c>
-      <c r="B1" s="77"/>
-      <c r="C1" s="77"/>
-      <c r="D1" s="77"/>
-      <c r="E1" s="77"/>
-      <c r="F1" s="77"/>
+      <c r="B1" s="69"/>
+      <c r="C1" s="69"/>
+      <c r="D1" s="69"/>
+      <c r="E1" s="69"/>
+      <c r="F1" s="69"/>
     </row>
     <row r="2" ht="17.4" spans="1:6">
-      <c r="A2" s="77" t="s">
+      <c r="A2" s="69" t="s">
         <v>132</v>
       </c>
-      <c r="B2" s="77"/>
-      <c r="C2" s="77"/>
-      <c r="D2" s="77"/>
-      <c r="E2" s="77"/>
-      <c r="F2" s="77"/>
+      <c r="B2" s="69"/>
+      <c r="C2" s="69"/>
+      <c r="D2" s="69"/>
+      <c r="E2" s="69"/>
+      <c r="F2" s="69"/>
     </row>
     <row r="3" spans="1:16">
       <c r="A3" s="4" t="s">
@@ -5219,510 +5133,510 @@
         <v>123</v>
       </c>
       <c r="G3" s="4"/>
-      <c r="H3" s="20"/>
-      <c r="I3" s="20"/>
-      <c r="J3" s="20"/>
-      <c r="K3" s="20"/>
-      <c r="L3" s="20"/>
-      <c r="M3" s="20"/>
-      <c r="N3" s="20"/>
-      <c r="O3" s="20"/>
-      <c r="P3" s="20"/>
-    </row>
-    <row r="4" s="76" customFormat="1" spans="1:16">
-      <c r="A4" s="9">
+      <c r="H3" s="16"/>
+      <c r="I3" s="16"/>
+      <c r="J3" s="16"/>
+      <c r="K3" s="16"/>
+      <c r="L3" s="16"/>
+      <c r="M3" s="16"/>
+      <c r="N3" s="16"/>
+      <c r="O3" s="16"/>
+      <c r="P3" s="16"/>
+    </row>
+    <row r="4" s="11" customFormat="1" spans="1:16">
+      <c r="A4" s="8">
         <v>0</v>
       </c>
-      <c r="B4" s="26" t="s">
+      <c r="B4" s="21" t="s">
         <v>136</v>
       </c>
-      <c r="C4" s="26" t="s">
+      <c r="C4" s="21" t="s">
         <v>137</v>
       </c>
-      <c r="D4" s="9" t="s">
+      <c r="D4" s="8" t="s">
         <v>138</v>
       </c>
       <c r="E4" s="4" t="s">
         <v>139</v>
       </c>
-      <c r="F4" s="9" t="s">
+      <c r="F4" s="8" t="s">
         <v>140</v>
       </c>
-      <c r="G4" s="9"/>
-      <c r="I4" s="9"/>
-      <c r="J4" s="9"/>
-      <c r="K4" s="9"/>
-      <c r="L4" s="9"/>
-      <c r="M4" s="9"/>
-      <c r="N4" s="9"/>
-      <c r="O4" s="9"/>
-      <c r="P4" s="9"/>
-    </row>
-    <row r="5" s="76" customFormat="1" spans="1:16">
-      <c r="A5" s="9">
+      <c r="G4" s="8"/>
+      <c r="I4" s="8"/>
+      <c r="J4" s="8"/>
+      <c r="K4" s="8"/>
+      <c r="L4" s="8"/>
+      <c r="M4" s="8"/>
+      <c r="N4" s="8"/>
+      <c r="O4" s="8"/>
+      <c r="P4" s="8"/>
+    </row>
+    <row r="5" s="11" customFormat="1" spans="1:16">
+      <c r="A5" s="8">
         <v>1</v>
       </c>
-      <c r="B5" s="26" t="s">
+      <c r="B5" s="21" t="s">
         <v>136</v>
       </c>
-      <c r="C5" s="26" t="s">
+      <c r="C5" s="21" t="s">
         <v>141</v>
       </c>
-      <c r="D5" s="9" t="s">
+      <c r="D5" s="8" t="s">
         <v>142</v>
       </c>
       <c r="E5" s="4" t="s">
         <v>143</v>
       </c>
-      <c r="F5" s="9" t="s">
+      <c r="F5" s="8" t="s">
         <v>144</v>
       </c>
-      <c r="G5" s="9"/>
-      <c r="I5" s="9"/>
-      <c r="J5" s="9"/>
-      <c r="K5" s="9"/>
-      <c r="L5" s="9"/>
-      <c r="M5" s="9"/>
-      <c r="N5" s="9"/>
-      <c r="O5" s="9"/>
-      <c r="P5" s="9"/>
-    </row>
-    <row r="6" s="76" customFormat="1" spans="1:16">
-      <c r="A6" s="9">
+      <c r="G5" s="8"/>
+      <c r="I5" s="8"/>
+      <c r="J5" s="8"/>
+      <c r="K5" s="8"/>
+      <c r="L5" s="8"/>
+      <c r="M5" s="8"/>
+      <c r="N5" s="8"/>
+      <c r="O5" s="8"/>
+      <c r="P5" s="8"/>
+    </row>
+    <row r="6" s="11" customFormat="1" spans="1:16">
+      <c r="A6" s="8">
         <v>2</v>
       </c>
-      <c r="B6" s="26" t="s">
+      <c r="B6" s="21" t="s">
         <v>136</v>
       </c>
-      <c r="C6" s="26" t="s">
+      <c r="C6" s="21" t="s">
         <v>145</v>
       </c>
-      <c r="D6" s="9" t="s">
+      <c r="D6" s="8" t="s">
         <v>146</v>
       </c>
       <c r="E6" s="4" t="s">
         <v>147</v>
       </c>
-      <c r="F6" s="9" t="s">
+      <c r="F6" s="8" t="s">
         <v>148</v>
       </c>
-      <c r="G6" s="9"/>
-      <c r="I6" s="9"/>
-      <c r="J6" s="9"/>
-      <c r="K6" s="9"/>
-      <c r="L6" s="9"/>
-      <c r="M6" s="9"/>
-      <c r="N6" s="9"/>
-      <c r="O6" s="9"/>
-      <c r="P6" s="9"/>
-    </row>
-    <row r="7" s="76" customFormat="1" spans="1:16">
-      <c r="A7" s="9">
+      <c r="G6" s="8"/>
+      <c r="I6" s="8"/>
+      <c r="J6" s="8"/>
+      <c r="K6" s="8"/>
+      <c r="L6" s="8"/>
+      <c r="M6" s="8"/>
+      <c r="N6" s="8"/>
+      <c r="O6" s="8"/>
+      <c r="P6" s="8"/>
+    </row>
+    <row r="7" s="11" customFormat="1" spans="1:16">
+      <c r="A7" s="8">
         <v>3</v>
       </c>
-      <c r="B7" s="26" t="s">
+      <c r="B7" s="21" t="s">
         <v>136</v>
       </c>
-      <c r="C7" s="26" t="s">
+      <c r="C7" s="21" t="s">
         <v>149</v>
       </c>
-      <c r="D7" s="9" t="s">
+      <c r="D7" s="8" t="s">
         <v>150</v>
       </c>
       <c r="E7" s="4" t="s">
         <v>151</v>
       </c>
-      <c r="F7" s="9" t="s">
+      <c r="F7" s="8" t="s">
         <v>152</v>
       </c>
-      <c r="G7" s="9" t="s">
+      <c r="G7" s="8" t="s">
         <v>153</v>
       </c>
-      <c r="I7" s="9"/>
-      <c r="J7" s="9"/>
-      <c r="K7" s="9"/>
-      <c r="L7" s="9"/>
-      <c r="M7" s="9"/>
-      <c r="N7" s="9"/>
-      <c r="O7" s="9"/>
-      <c r="P7" s="9"/>
-    </row>
-    <row r="8" s="76" customFormat="1" spans="1:16">
-      <c r="A8" s="9">
+      <c r="I7" s="8"/>
+      <c r="J7" s="8"/>
+      <c r="K7" s="8"/>
+      <c r="L7" s="8"/>
+      <c r="M7" s="8"/>
+      <c r="N7" s="8"/>
+      <c r="O7" s="8"/>
+      <c r="P7" s="8"/>
+    </row>
+    <row r="8" s="11" customFormat="1" spans="1:16">
+      <c r="A8" s="8">
         <v>4</v>
       </c>
-      <c r="B8" s="26" t="s">
+      <c r="B8" s="21" t="s">
         <v>136</v>
       </c>
-      <c r="C8" s="26" t="s">
+      <c r="C8" s="21" t="s">
         <v>154</v>
       </c>
-      <c r="D8" s="9" t="s">
+      <c r="D8" s="8" t="s">
         <v>155</v>
       </c>
-      <c r="E8" s="9" t="s">
+      <c r="E8" s="8" t="s">
         <v>156</v>
       </c>
-      <c r="F8" s="9" t="s">
+      <c r="F8" s="8" t="s">
         <v>157</v>
       </c>
-      <c r="G8" s="9"/>
-      <c r="H8" s="9"/>
-      <c r="I8" s="9"/>
-      <c r="J8" s="9"/>
-      <c r="K8" s="9"/>
-      <c r="L8" s="9"/>
-      <c r="M8" s="9"/>
-      <c r="N8" s="9"/>
-      <c r="O8" s="9"/>
-      <c r="P8" s="9"/>
-    </row>
-    <row r="9" s="76" customFormat="1" spans="1:16">
-      <c r="A9" s="9">
+      <c r="G8" s="8"/>
+      <c r="H8" s="8"/>
+      <c r="I8" s="8"/>
+      <c r="J8" s="8"/>
+      <c r="K8" s="8"/>
+      <c r="L8" s="8"/>
+      <c r="M8" s="8"/>
+      <c r="N8" s="8"/>
+      <c r="O8" s="8"/>
+      <c r="P8" s="8"/>
+    </row>
+    <row r="9" s="11" customFormat="1" spans="1:16">
+      <c r="A9" s="8">
         <v>5</v>
       </c>
-      <c r="B9" s="26" t="s">
+      <c r="B9" s="21" t="s">
         <v>136</v>
       </c>
-      <c r="C9" s="26" t="s">
+      <c r="C9" s="21" t="s">
         <v>158</v>
       </c>
-      <c r="D9" s="9" t="s">
+      <c r="D9" s="8" t="s">
         <v>159</v>
       </c>
-      <c r="E9" s="9" t="s">
+      <c r="E9" s="8" t="s">
         <v>160</v>
       </c>
-      <c r="F9" s="9" t="s">
+      <c r="F9" s="8" t="s">
         <v>161</v>
       </c>
-      <c r="G9" s="9"/>
-      <c r="H9" s="9"/>
-      <c r="I9" s="9"/>
-      <c r="J9" s="9"/>
-      <c r="K9" s="9"/>
-      <c r="L9" s="9"/>
-      <c r="M9" s="9"/>
-      <c r="N9" s="9"/>
-      <c r="O9" s="9"/>
-      <c r="P9" s="9"/>
-    </row>
-    <row r="10" s="76" customFormat="1" spans="1:16">
-      <c r="A10" s="9">
+      <c r="G9" s="8"/>
+      <c r="H9" s="8"/>
+      <c r="I9" s="8"/>
+      <c r="J9" s="8"/>
+      <c r="K9" s="8"/>
+      <c r="L9" s="8"/>
+      <c r="M9" s="8"/>
+      <c r="N9" s="8"/>
+      <c r="O9" s="8"/>
+      <c r="P9" s="8"/>
+    </row>
+    <row r="10" s="11" customFormat="1" spans="1:16">
+      <c r="A10" s="8">
         <v>6</v>
       </c>
-      <c r="B10" s="78" t="s">
+      <c r="B10" s="24" t="s">
         <v>162</v>
       </c>
-      <c r="C10" s="26" t="s">
+      <c r="C10" s="21" t="s">
         <v>163</v>
       </c>
-      <c r="D10" s="9" t="s">
+      <c r="D10" s="8" t="s">
         <v>164</v>
       </c>
-      <c r="E10" s="9" t="s">
+      <c r="E10" s="8" t="s">
         <v>165</v>
       </c>
-      <c r="F10" s="9" t="s">
+      <c r="F10" s="8" t="s">
         <v>166</v>
       </c>
       <c r="G10" s="4"/>
-      <c r="I10" s="9"/>
-      <c r="J10" s="9"/>
-      <c r="K10" s="9"/>
-      <c r="L10" s="9"/>
-      <c r="M10" s="9"/>
-      <c r="N10" s="9"/>
-      <c r="O10" s="9"/>
-      <c r="P10" s="9"/>
-    </row>
-    <row r="11" s="76" customFormat="1" spans="1:16">
-      <c r="A11" s="9">
+      <c r="I10" s="8"/>
+      <c r="J10" s="8"/>
+      <c r="K10" s="8"/>
+      <c r="L10" s="8"/>
+      <c r="M10" s="8"/>
+      <c r="N10" s="8"/>
+      <c r="O10" s="8"/>
+      <c r="P10" s="8"/>
+    </row>
+    <row r="11" s="11" customFormat="1" spans="1:16">
+      <c r="A11" s="8">
         <v>7</v>
       </c>
-      <c r="B11" s="26" t="s">
+      <c r="B11" s="21" t="s">
         <v>136</v>
       </c>
-      <c r="C11" s="26" t="s">
+      <c r="C11" s="21" t="s">
         <v>167</v>
       </c>
-      <c r="D11" s="9" t="s">
+      <c r="D11" s="8" t="s">
         <v>168</v>
       </c>
-      <c r="E11" s="9" t="s">
+      <c r="E11" s="8" t="s">
         <v>169</v>
       </c>
-      <c r="F11" s="9" t="s">
+      <c r="F11" s="8" t="s">
         <v>170</v>
       </c>
-      <c r="G11" s="9"/>
-      <c r="H11" s="9" t="s">
+      <c r="G11" s="8"/>
+      <c r="H11" s="8" t="s">
         <v>171</v>
       </c>
-      <c r="I11" s="9"/>
-      <c r="J11" s="9"/>
-      <c r="K11" s="9"/>
-      <c r="L11" s="9"/>
-      <c r="M11" s="9"/>
-      <c r="N11" s="9"/>
-      <c r="O11" s="9"/>
-      <c r="P11" s="9"/>
-    </row>
-    <row r="12" s="76" customFormat="1" spans="1:16">
-      <c r="A12" s="9"/>
-      <c r="B12" s="26"/>
-      <c r="C12" s="26"/>
-      <c r="D12" s="9"/>
-      <c r="E12" s="9"/>
-      <c r="F12" s="9"/>
-      <c r="G12" s="9"/>
-      <c r="H12" s="9"/>
-      <c r="I12" s="9"/>
-      <c r="J12" s="9"/>
-      <c r="K12" s="9"/>
-      <c r="L12" s="9"/>
-      <c r="M12" s="9"/>
-      <c r="N12" s="9"/>
-      <c r="O12" s="9"/>
-      <c r="P12" s="9"/>
+      <c r="I11" s="8"/>
+      <c r="J11" s="8"/>
+      <c r="K11" s="8"/>
+      <c r="L11" s="8"/>
+      <c r="M11" s="8"/>
+      <c r="N11" s="8"/>
+      <c r="O11" s="8"/>
+      <c r="P11" s="8"/>
+    </row>
+    <row r="12" s="11" customFormat="1" spans="1:16">
+      <c r="A12" s="8"/>
+      <c r="B12" s="21"/>
+      <c r="C12" s="21"/>
+      <c r="D12" s="8"/>
+      <c r="E12" s="8"/>
+      <c r="F12" s="8"/>
+      <c r="G12" s="8"/>
+      <c r="H12" s="8"/>
+      <c r="I12" s="8"/>
+      <c r="J12" s="8"/>
+      <c r="K12" s="8"/>
+      <c r="L12" s="8"/>
+      <c r="M12" s="8"/>
+      <c r="N12" s="8"/>
+      <c r="O12" s="8"/>
+      <c r="P12" s="8"/>
     </row>
     <row r="13" spans="1:16">
-      <c r="A13" s="9">
+      <c r="A13" s="8">
         <v>8</v>
       </c>
-      <c r="B13" s="26" t="s">
+      <c r="B13" s="21" t="s">
         <v>162</v>
       </c>
-      <c r="C13" s="35" t="s">
+      <c r="C13" s="28" t="s">
         <v>137</v>
       </c>
-      <c r="D13" s="9" t="s">
+      <c r="D13" s="8" t="s">
         <v>172</v>
       </c>
       <c r="E13" s="4" t="s">
         <v>173</v>
       </c>
-      <c r="F13" s="20" t="s">
+      <c r="F13" s="16" t="s">
         <v>174</v>
       </c>
-      <c r="G13" s="9" t="s">
+      <c r="G13" s="8" t="s">
         <v>175</v>
       </c>
-      <c r="H13" s="9" t="s">
+      <c r="H13" s="8" t="s">
         <v>176</v>
       </c>
-      <c r="I13" s="20"/>
-      <c r="J13" s="20"/>
-      <c r="K13" s="20"/>
-      <c r="L13" s="20"/>
-      <c r="M13" s="20"/>
-      <c r="N13" s="20"/>
-      <c r="O13" s="20"/>
-      <c r="P13" s="20"/>
+      <c r="I13" s="16"/>
+      <c r="J13" s="16"/>
+      <c r="K13" s="16"/>
+      <c r="L13" s="16"/>
+      <c r="M13" s="16"/>
+      <c r="N13" s="16"/>
+      <c r="O13" s="16"/>
+      <c r="P13" s="16"/>
     </row>
     <row r="14" spans="1:16">
-      <c r="A14" s="9">
+      <c r="A14" s="8">
         <v>9</v>
       </c>
-      <c r="B14" s="9">
+      <c r="B14" s="8">
         <v>10</v>
       </c>
-      <c r="C14" s="35" t="s">
+      <c r="C14" s="28" t="s">
         <v>141</v>
       </c>
-      <c r="D14" s="9" t="s">
+      <c r="D14" s="8" t="s">
         <v>177</v>
       </c>
       <c r="E14" s="4" t="s">
         <v>178</v>
       </c>
-      <c r="F14" s="20" t="s">
+      <c r="F14" s="16" t="s">
         <v>179</v>
       </c>
-      <c r="G14" s="9" t="s">
+      <c r="G14" s="8" t="s">
         <v>175</v>
       </c>
-      <c r="H14" s="20"/>
-      <c r="I14" s="20"/>
-      <c r="J14" s="20"/>
-      <c r="K14" s="20"/>
-      <c r="L14" s="20"/>
-      <c r="M14" s="20"/>
-      <c r="N14" s="20"/>
-      <c r="O14" s="20"/>
-      <c r="P14" s="20"/>
+      <c r="H14" s="16"/>
+      <c r="I14" s="16"/>
+      <c r="J14" s="16"/>
+      <c r="K14" s="16"/>
+      <c r="L14" s="16"/>
+      <c r="M14" s="16"/>
+      <c r="N14" s="16"/>
+      <c r="O14" s="16"/>
+      <c r="P14" s="16"/>
     </row>
     <row r="15" spans="1:16">
-      <c r="A15" s="9">
+      <c r="A15" s="8">
         <v>10</v>
       </c>
-      <c r="B15" s="9">
+      <c r="B15" s="8">
         <v>10</v>
       </c>
-      <c r="C15" s="35" t="s">
+      <c r="C15" s="28" t="s">
         <v>145</v>
       </c>
-      <c r="D15" s="9" t="s">
+      <c r="D15" s="8" t="s">
         <v>180</v>
       </c>
       <c r="E15" s="4" t="s">
         <v>181</v>
       </c>
-      <c r="F15" s="20" t="s">
+      <c r="F15" s="16" t="s">
         <v>182</v>
       </c>
-      <c r="G15" s="9" t="s">
+      <c r="G15" s="8" t="s">
         <v>175</v>
       </c>
-      <c r="H15" s="20"/>
-      <c r="I15" s="20"/>
-      <c r="J15" s="20"/>
-      <c r="K15" s="20"/>
-      <c r="L15" s="20"/>
-      <c r="M15" s="20"/>
-      <c r="N15" s="20"/>
-      <c r="O15" s="20"/>
-      <c r="P15" s="20"/>
+      <c r="H15" s="16"/>
+      <c r="I15" s="16"/>
+      <c r="J15" s="16"/>
+      <c r="K15" s="16"/>
+      <c r="L15" s="16"/>
+      <c r="M15" s="16"/>
+      <c r="N15" s="16"/>
+      <c r="O15" s="16"/>
+      <c r="P15" s="16"/>
     </row>
     <row r="16" spans="1:16">
-      <c r="A16" s="9">
+      <c r="A16" s="8">
         <v>11</v>
       </c>
-      <c r="B16" s="26" t="s">
+      <c r="B16" s="21" t="s">
         <v>183</v>
       </c>
-      <c r="C16" s="35" t="s">
+      <c r="C16" s="28" t="s">
         <v>149</v>
       </c>
-      <c r="D16" s="9" t="s">
+      <c r="D16" s="8" t="s">
         <v>184</v>
       </c>
       <c r="E16" s="4" t="s">
         <v>185</v>
       </c>
-      <c r="F16" s="20" t="s">
+      <c r="F16" s="16" t="s">
         <v>186</v>
       </c>
-      <c r="G16" s="9" t="s">
+      <c r="G16" s="8" t="s">
         <v>187</v>
       </c>
-      <c r="H16" s="20"/>
-      <c r="I16" s="20"/>
-      <c r="J16" s="20"/>
-      <c r="K16" s="20"/>
-      <c r="L16" s="20"/>
-      <c r="M16" s="20"/>
-      <c r="N16" s="20"/>
-      <c r="O16" s="20"/>
-      <c r="P16" s="20"/>
+      <c r="H16" s="16"/>
+      <c r="I16" s="16"/>
+      <c r="J16" s="16"/>
+      <c r="K16" s="16"/>
+      <c r="L16" s="16"/>
+      <c r="M16" s="16"/>
+      <c r="N16" s="16"/>
+      <c r="O16" s="16"/>
+      <c r="P16" s="16"/>
     </row>
     <row r="17" spans="3:18">
-      <c r="C17" s="20"/>
-      <c r="D17" s="20"/>
-      <c r="E17" s="20"/>
-      <c r="F17" s="20"/>
-      <c r="G17" s="20"/>
-      <c r="H17" s="20"/>
-      <c r="I17" s="20"/>
-      <c r="J17" s="20"/>
-      <c r="K17" s="20"/>
-      <c r="L17" s="20"/>
-      <c r="M17" s="20"/>
-      <c r="N17" s="20"/>
-      <c r="O17" s="20"/>
-      <c r="P17" s="20"/>
-      <c r="Q17" s="20"/>
-      <c r="R17" s="20"/>
+      <c r="C17" s="16"/>
+      <c r="D17" s="16"/>
+      <c r="E17" s="16"/>
+      <c r="F17" s="16"/>
+      <c r="G17" s="16"/>
+      <c r="H17" s="16"/>
+      <c r="I17" s="16"/>
+      <c r="J17" s="16"/>
+      <c r="K17" s="16"/>
+      <c r="L17" s="16"/>
+      <c r="M17" s="16"/>
+      <c r="N17" s="16"/>
+      <c r="O17" s="16"/>
+      <c r="P17" s="16"/>
+      <c r="Q17" s="16"/>
+      <c r="R17" s="16"/>
     </row>
     <row r="18" spans="3:18">
-      <c r="C18" s="20"/>
-      <c r="D18" s="20"/>
-      <c r="E18" s="20"/>
-      <c r="F18" s="20"/>
-      <c r="G18" s="20"/>
-      <c r="H18" s="20"/>
-      <c r="I18" s="20"/>
-      <c r="J18" s="20"/>
-      <c r="K18" s="20"/>
-      <c r="L18" s="20"/>
-      <c r="M18" s="20"/>
-      <c r="N18" s="20"/>
-      <c r="O18" s="20"/>
-      <c r="P18" s="20"/>
-      <c r="Q18" s="20"/>
-      <c r="R18" s="20"/>
+      <c r="C18" s="16"/>
+      <c r="D18" s="16"/>
+      <c r="E18" s="16"/>
+      <c r="F18" s="16"/>
+      <c r="G18" s="16"/>
+      <c r="H18" s="16"/>
+      <c r="I18" s="16"/>
+      <c r="J18" s="16"/>
+      <c r="K18" s="16"/>
+      <c r="L18" s="16"/>
+      <c r="M18" s="16"/>
+      <c r="N18" s="16"/>
+      <c r="O18" s="16"/>
+      <c r="P18" s="16"/>
+      <c r="Q18" s="16"/>
+      <c r="R18" s="16"/>
     </row>
     <row r="19" spans="3:18">
-      <c r="C19" s="20"/>
-      <c r="D19" s="20"/>
-      <c r="E19" s="20"/>
-      <c r="F19" s="20"/>
-      <c r="G19" s="20"/>
-      <c r="H19" s="20"/>
-      <c r="I19" s="20"/>
-      <c r="J19" s="20"/>
-      <c r="K19" s="20"/>
-      <c r="L19" s="20"/>
-      <c r="M19" s="20"/>
-      <c r="N19" s="20"/>
-      <c r="O19" s="20"/>
-      <c r="P19" s="20"/>
-      <c r="Q19" s="20"/>
-      <c r="R19" s="20"/>
+      <c r="C19" s="16"/>
+      <c r="D19" s="16"/>
+      <c r="E19" s="16"/>
+      <c r="F19" s="16"/>
+      <c r="G19" s="16"/>
+      <c r="H19" s="16"/>
+      <c r="I19" s="16"/>
+      <c r="J19" s="16"/>
+      <c r="K19" s="16"/>
+      <c r="L19" s="16"/>
+      <c r="M19" s="16"/>
+      <c r="N19" s="16"/>
+      <c r="O19" s="16"/>
+      <c r="P19" s="16"/>
+      <c r="Q19" s="16"/>
+      <c r="R19" s="16"/>
     </row>
     <row r="20" spans="3:18">
-      <c r="C20" s="20"/>
-      <c r="D20" s="20"/>
-      <c r="E20" s="20"/>
-      <c r="F20" s="20"/>
-      <c r="G20" s="20"/>
-      <c r="H20" s="20"/>
-      <c r="I20" s="20"/>
-      <c r="J20" s="20"/>
-      <c r="K20" s="20"/>
-      <c r="L20" s="20"/>
-      <c r="M20" s="20"/>
-      <c r="N20" s="20"/>
-      <c r="O20" s="20"/>
-      <c r="P20" s="20"/>
-      <c r="Q20" s="20"/>
-      <c r="R20" s="20"/>
+      <c r="C20" s="16"/>
+      <c r="D20" s="16"/>
+      <c r="E20" s="16"/>
+      <c r="F20" s="16"/>
+      <c r="G20" s="16"/>
+      <c r="H20" s="16"/>
+      <c r="I20" s="16"/>
+      <c r="J20" s="16"/>
+      <c r="K20" s="16"/>
+      <c r="L20" s="16"/>
+      <c r="M20" s="16"/>
+      <c r="N20" s="16"/>
+      <c r="O20" s="16"/>
+      <c r="P20" s="16"/>
+      <c r="Q20" s="16"/>
+      <c r="R20" s="16"/>
     </row>
     <row r="21" spans="3:18">
-      <c r="C21" s="20"/>
-      <c r="D21" s="20"/>
-      <c r="E21" s="20"/>
-      <c r="F21" s="20"/>
-      <c r="G21" s="20"/>
-      <c r="H21" s="20"/>
-      <c r="I21" s="20"/>
-      <c r="J21" s="20"/>
-      <c r="K21" s="20"/>
-      <c r="L21" s="20"/>
-      <c r="M21" s="20"/>
-      <c r="N21" s="20"/>
-      <c r="O21" s="20"/>
-      <c r="P21" s="20"/>
-      <c r="Q21" s="20"/>
-      <c r="R21" s="20"/>
+      <c r="C21" s="16"/>
+      <c r="D21" s="16"/>
+      <c r="E21" s="16"/>
+      <c r="F21" s="16"/>
+      <c r="G21" s="16"/>
+      <c r="H21" s="16"/>
+      <c r="I21" s="16"/>
+      <c r="J21" s="16"/>
+      <c r="K21" s="16"/>
+      <c r="L21" s="16"/>
+      <c r="M21" s="16"/>
+      <c r="N21" s="16"/>
+      <c r="O21" s="16"/>
+      <c r="P21" s="16"/>
+      <c r="Q21" s="16"/>
+      <c r="R21" s="16"/>
     </row>
     <row r="22" spans="3:18">
-      <c r="C22" s="20"/>
-      <c r="D22" s="20"/>
-      <c r="E22" s="20"/>
-      <c r="F22" s="20"/>
-      <c r="G22" s="20"/>
-      <c r="H22" s="20"/>
-      <c r="I22" s="20"/>
-      <c r="J22" s="20"/>
-      <c r="K22" s="20"/>
-      <c r="L22" s="20"/>
-      <c r="M22" s="20"/>
-      <c r="N22" s="20"/>
-      <c r="O22" s="20"/>
-      <c r="P22" s="20"/>
-      <c r="Q22" s="20"/>
-      <c r="R22" s="20"/>
+      <c r="C22" s="16"/>
+      <c r="D22" s="16"/>
+      <c r="E22" s="16"/>
+      <c r="F22" s="16"/>
+      <c r="G22" s="16"/>
+      <c r="H22" s="16"/>
+      <c r="I22" s="16"/>
+      <c r="J22" s="16"/>
+      <c r="K22" s="16"/>
+      <c r="L22" s="16"/>
+      <c r="M22" s="16"/>
+      <c r="N22" s="16"/>
+      <c r="O22" s="16"/>
+      <c r="P22" s="16"/>
+      <c r="Q22" s="16"/>
+      <c r="R22" s="16"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -5739,12 +5653,12 @@
   <sheetPr/>
   <dimension ref="A1:O29"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="9" ySplit="6" topLeftCell="J7" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="K14" sqref="K14"/>
+      <selection pane="bottomRight" activeCell="L9" sqref="L9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="13.8"/>
@@ -5848,7 +5762,7 @@
       <c r="I6" s="4" t="s">
         <v>111</v>
       </c>
-      <c r="J6" s="20"/>
+      <c r="J6" s="16"/>
       <c r="K6" s="4"/>
       <c r="L6" s="4"/>
       <c r="M6" s="4"/>
@@ -5869,11 +5783,11 @@
       <c r="G7" s="7"/>
       <c r="H7" s="7"/>
       <c r="I7" s="7"/>
-      <c r="J7" s="20"/>
+      <c r="J7" s="16"/>
       <c r="K7" s="4"/>
       <c r="L7" s="4"/>
       <c r="M7" s="4"/>
-      <c r="N7" s="20"/>
+      <c r="N7" s="16"/>
     </row>
     <row r="8" spans="1:14">
       <c r="A8" s="7"/>
@@ -5885,44 +5799,44 @@
       <c r="G8" s="7"/>
       <c r="H8" s="7"/>
       <c r="I8" s="7"/>
-      <c r="J8" s="20"/>
-      <c r="K8" s="26"/>
-      <c r="L8" s="9"/>
-      <c r="M8" s="9"/>
-      <c r="N8" s="20"/>
+      <c r="J8" s="16"/>
+      <c r="K8" s="21"/>
+      <c r="L8" s="8"/>
+      <c r="M8" s="8"/>
+      <c r="N8" s="16"/>
     </row>
     <row r="9" s="1" customFormat="1" spans="1:15">
       <c r="A9" s="8">
         <v>1</v>
       </c>
-      <c r="B9" s="9" t="s">
+      <c r="B9" s="8" t="s">
         <v>156</v>
       </c>
-      <c r="C9" s="9" t="s">
+      <c r="C9" s="8" t="s">
         <v>155</v>
       </c>
-      <c r="D9" s="9" t="s">
+      <c r="D9" s="8" t="s">
         <v>198</v>
       </c>
-      <c r="E9" s="73" t="s">
+      <c r="E9" s="66" t="s">
         <v>199</v>
       </c>
-      <c r="F9" s="10" t="s">
+      <c r="F9" s="9" t="s">
         <v>137</v>
       </c>
-      <c r="G9" s="119" t="s">
+      <c r="G9" s="110" t="s">
         <v>199</v>
       </c>
-      <c r="H9" s="9" t="s">
+      <c r="H9" s="8" t="s">
         <v>155</v>
       </c>
-      <c r="I9" s="26" t="s">
+      <c r="I9" s="21" t="s">
         <v>154</v>
       </c>
-      <c r="J9" s="26"/>
-      <c r="K9" s="26"/>
-      <c r="L9" s="29"/>
-      <c r="M9" s="29"/>
+      <c r="J9" s="21"/>
+      <c r="K9" s="21"/>
+      <c r="L9" s="23"/>
+      <c r="M9" s="23"/>
       <c r="N9" s="4"/>
       <c r="O9" s="4" t="s">
         <v>140</v>
@@ -5932,30 +5846,30 @@
       <c r="A10" s="8">
         <v>2</v>
       </c>
-      <c r="B10" s="9" t="s">
+      <c r="B10" s="8" t="s">
         <v>160</v>
       </c>
-      <c r="C10" s="9" t="s">
+      <c r="C10" s="8" t="s">
         <v>159</v>
       </c>
-      <c r="D10" s="9" t="s">
+      <c r="D10" s="8" t="s">
         <v>200</v>
       </c>
-      <c r="E10" s="73"/>
-      <c r="F10" s="10"/>
-      <c r="G10" s="120" t="s">
+      <c r="E10" s="66"/>
+      <c r="F10" s="9"/>
+      <c r="G10" s="111" t="s">
         <v>201</v>
       </c>
-      <c r="H10" s="9" t="s">
+      <c r="H10" s="8" t="s">
         <v>159</v>
       </c>
-      <c r="I10" s="26" t="s">
+      <c r="I10" s="21" t="s">
         <v>158</v>
       </c>
-      <c r="J10" s="26"/>
-      <c r="K10" s="26"/>
-      <c r="L10" s="29"/>
-      <c r="M10" s="29"/>
+      <c r="J10" s="21"/>
+      <c r="K10" s="21"/>
+      <c r="L10" s="23"/>
+      <c r="M10" s="23"/>
       <c r="N10" s="4"/>
       <c r="O10" s="4" t="s">
         <v>144</v>
@@ -5965,31 +5879,31 @@
       <c r="A11" s="8">
         <v>3</v>
       </c>
-      <c r="B11" s="9" t="s">
+      <c r="B11" s="8" t="s">
         <v>151</v>
       </c>
-      <c r="C11" s="9" t="s">
+      <c r="C11" s="8" t="s">
         <v>202</v>
       </c>
-      <c r="D11" s="9" t="s">
+      <c r="D11" s="8" t="s">
         <v>203</v>
       </c>
-      <c r="E11" s="73"/>
-      <c r="F11" s="10"/>
-      <c r="G11" s="9">
+      <c r="E11" s="66"/>
+      <c r="F11" s="9"/>
+      <c r="G11" s="8">
         <v>100001</v>
       </c>
-      <c r="H11" s="9" t="s">
+      <c r="H11" s="8" t="s">
         <v>150</v>
       </c>
-      <c r="I11" s="26" t="s">
+      <c r="I11" s="21" t="s">
         <v>149</v>
       </c>
-      <c r="J11" s="26"/>
-      <c r="K11" s="26"/>
-      <c r="L11" s="29"/>
-      <c r="M11" s="29"/>
-      <c r="N11" s="22"/>
+      <c r="J11" s="21"/>
+      <c r="K11" s="21"/>
+      <c r="L11" s="23"/>
+      <c r="M11" s="23"/>
+      <c r="N11" s="4"/>
       <c r="O11" s="4" t="s">
         <v>204</v>
       </c>
@@ -5998,30 +5912,30 @@
       <c r="A12" s="8">
         <v>4</v>
       </c>
-      <c r="B12" s="9" t="s">
+      <c r="B12" s="8" t="s">
         <v>139</v>
       </c>
-      <c r="C12" s="9" t="s">
+      <c r="C12" s="8" t="s">
         <v>138</v>
       </c>
-      <c r="D12" s="9" t="s">
+      <c r="D12" s="8" t="s">
         <v>205</v>
       </c>
-      <c r="E12" s="73"/>
-      <c r="F12" s="10"/>
-      <c r="G12" s="9">
+      <c r="E12" s="66"/>
+      <c r="F12" s="9"/>
+      <c r="G12" s="8">
         <v>100100</v>
       </c>
-      <c r="H12" s="9" t="s">
+      <c r="H12" s="8" t="s">
         <v>138</v>
       </c>
-      <c r="I12" s="26" t="s">
+      <c r="I12" s="21" t="s">
         <v>137</v>
       </c>
-      <c r="J12" s="26"/>
-      <c r="K12" s="26"/>
-      <c r="L12" s="29"/>
-      <c r="M12" s="29"/>
+      <c r="J12" s="21"/>
+      <c r="K12" s="21"/>
+      <c r="L12" s="23"/>
+      <c r="M12" s="23"/>
       <c r="N12" s="4" t="s">
         <v>156</v>
       </c>
@@ -6033,30 +5947,30 @@
       <c r="A13" s="8">
         <v>5</v>
       </c>
-      <c r="B13" s="9" t="s">
+      <c r="B13" s="8" t="s">
         <v>143</v>
       </c>
-      <c r="C13" s="9" t="s">
+      <c r="C13" s="8" t="s">
         <v>142</v>
       </c>
-      <c r="D13" s="9" t="s">
+      <c r="D13" s="8" t="s">
         <v>206</v>
       </c>
-      <c r="E13" s="73"/>
-      <c r="F13" s="10"/>
-      <c r="G13" s="9">
+      <c r="E13" s="66"/>
+      <c r="F13" s="9"/>
+      <c r="G13" s="8">
         <v>100101</v>
       </c>
-      <c r="H13" s="9" t="s">
+      <c r="H13" s="8" t="s">
         <v>142</v>
       </c>
-      <c r="I13" s="26" t="s">
+      <c r="I13" s="21" t="s">
         <v>141</v>
       </c>
-      <c r="J13" s="22"/>
-      <c r="K13" s="22"/>
-      <c r="L13" s="30"/>
-      <c r="M13" s="22"/>
+      <c r="J13" s="4"/>
+      <c r="K13" s="4"/>
+      <c r="L13" s="24"/>
+      <c r="M13" s="4"/>
       <c r="N13" s="4" t="s">
         <v>160</v>
       </c>
@@ -6068,30 +5982,30 @@
       <c r="A14" s="8">
         <v>6</v>
       </c>
-      <c r="B14" s="9" t="s">
+      <c r="B14" s="8" t="s">
         <v>147</v>
       </c>
-      <c r="C14" s="9" t="s">
+      <c r="C14" s="8" t="s">
         <v>146</v>
       </c>
-      <c r="D14" s="9" t="s">
+      <c r="D14" s="8" t="s">
         <v>207</v>
       </c>
-      <c r="E14" s="73"/>
-      <c r="F14" s="10"/>
-      <c r="G14" s="9">
+      <c r="E14" s="66"/>
+      <c r="F14" s="9"/>
+      <c r="G14" s="8">
         <v>100110</v>
       </c>
-      <c r="H14" s="9" t="s">
+      <c r="H14" s="8" t="s">
         <v>146</v>
       </c>
-      <c r="I14" s="26" t="s">
+      <c r="I14" s="21" t="s">
         <v>145</v>
       </c>
-      <c r="J14" s="22"/>
-      <c r="K14" s="22"/>
-      <c r="L14" s="30"/>
-      <c r="M14" s="22"/>
+      <c r="J14" s="4"/>
+      <c r="K14" s="4"/>
+      <c r="L14" s="24"/>
+      <c r="M14" s="4"/>
       <c r="N14" s="4"/>
       <c r="O14" s="4"/>
     </row>
@@ -6099,32 +6013,32 @@
       <c r="A15" s="8">
         <v>7</v>
       </c>
-      <c r="B15" s="9" t="s">
+      <c r="B15" s="8" t="s">
         <v>169</v>
       </c>
-      <c r="C15" s="13" t="s">
+      <c r="C15" s="8" t="s">
         <v>168</v>
       </c>
-      <c r="D15" s="14"/>
-      <c r="E15" s="15" t="s">
+      <c r="D15" s="11"/>
+      <c r="E15" s="12" t="s">
         <v>208</v>
       </c>
-      <c r="F15" s="74" t="s">
+      <c r="F15" s="67" t="s">
         <v>167</v>
       </c>
-      <c r="G15" s="120" t="s">
+      <c r="G15" s="111" t="s">
         <v>201</v>
       </c>
-      <c r="H15" s="13" t="s">
+      <c r="H15" s="8" t="s">
         <v>209</v>
       </c>
-      <c r="I15" s="26" t="s">
+      <c r="I15" s="21" t="s">
         <v>167</v>
       </c>
-      <c r="J15" s="22"/>
-      <c r="K15" s="22"/>
-      <c r="L15" s="30"/>
-      <c r="M15" s="22"/>
+      <c r="J15" s="4"/>
+      <c r="K15" s="4"/>
+      <c r="L15" s="24"/>
+      <c r="M15" s="4"/>
       <c r="N15" s="4" t="s">
         <v>210</v>
       </c>
@@ -6164,10 +6078,10 @@
       <c r="G17" s="7"/>
       <c r="H17" s="7"/>
       <c r="I17" s="7"/>
-      <c r="K17" s="26" t="s">
+      <c r="K17" s="21" t="s">
         <v>137</v>
       </c>
-      <c r="L17" s="9" t="s">
+      <c r="L17" s="8" t="s">
         <v>138</v>
       </c>
       <c r="M17" s="4" t="s">
@@ -6178,35 +6092,35 @@
       <c r="A18" s="8">
         <v>8</v>
       </c>
-      <c r="B18" s="20" t="s">
+      <c r="B18" s="16" t="s">
         <v>173</v>
       </c>
-      <c r="C18" s="20" t="s">
+      <c r="C18" s="16" t="s">
         <v>172</v>
       </c>
-      <c r="D18" s="20" t="s">
+      <c r="D18" s="16" t="s">
         <v>213</v>
       </c>
-      <c r="E18" s="121" t="s">
+      <c r="E18" s="112" t="s">
         <v>214</v>
       </c>
-      <c r="F18" s="26" t="s">
+      <c r="F18" s="21" t="s">
         <v>141</v>
       </c>
-      <c r="G18" s="17" t="s">
+      <c r="G18" s="13" t="s">
         <v>215</v>
       </c>
-      <c r="H18" s="9" t="s">
+      <c r="H18" s="8" t="s">
         <v>139</v>
       </c>
-      <c r="I18" s="26" t="s">
+      <c r="I18" s="21" t="s">
         <v>137</v>
       </c>
-      <c r="J18" s="20"/>
-      <c r="K18" s="26" t="s">
+      <c r="J18" s="16"/>
+      <c r="K18" s="21" t="s">
         <v>141</v>
       </c>
-      <c r="L18" s="9" t="s">
+      <c r="L18" s="8" t="s">
         <v>142</v>
       </c>
       <c r="M18" s="4" t="s">
@@ -6217,30 +6131,30 @@
       <c r="A19" s="8">
         <v>9</v>
       </c>
-      <c r="B19" s="20" t="s">
+      <c r="B19" s="16" t="s">
         <v>178</v>
       </c>
-      <c r="C19" s="20" t="s">
+      <c r="C19" s="16" t="s">
         <v>177</v>
       </c>
-      <c r="D19" s="20"/>
-      <c r="E19" s="121" t="s">
+      <c r="D19" s="16"/>
+      <c r="E19" s="112" t="s">
         <v>216</v>
       </c>
-      <c r="F19" s="26" t="s">
+      <c r="F19" s="21" t="s">
         <v>145</v>
       </c>
-      <c r="G19" s="17"/>
-      <c r="H19" s="9" t="s">
+      <c r="G19" s="13"/>
+      <c r="H19" s="8" t="s">
         <v>143</v>
       </c>
-      <c r="I19" s="26" t="s">
+      <c r="I19" s="21" t="s">
         <v>141</v>
       </c>
-      <c r="K19" s="26" t="s">
+      <c r="K19" s="21" t="s">
         <v>145</v>
       </c>
-      <c r="L19" s="9" t="s">
+      <c r="L19" s="8" t="s">
         <v>146</v>
       </c>
       <c r="M19" s="4" t="s">
@@ -6251,30 +6165,30 @@
       <c r="A20" s="8">
         <v>10</v>
       </c>
-      <c r="B20" s="20" t="s">
+      <c r="B20" s="16" t="s">
         <v>181</v>
       </c>
-      <c r="C20" s="20" t="s">
+      <c r="C20" s="16" t="s">
         <v>180</v>
       </c>
-      <c r="D20" s="20"/>
-      <c r="E20" s="121" t="s">
+      <c r="D20" s="16"/>
+      <c r="E20" s="112" t="s">
         <v>217</v>
       </c>
-      <c r="F20" s="26" t="s">
+      <c r="F20" s="21" t="s">
         <v>149</v>
       </c>
-      <c r="G20" s="17"/>
-      <c r="H20" s="9" t="s">
+      <c r="G20" s="13"/>
+      <c r="H20" s="8" t="s">
         <v>147</v>
       </c>
-      <c r="I20" s="26" t="s">
+      <c r="I20" s="21" t="s">
         <v>145</v>
       </c>
-      <c r="K20" s="26" t="s">
+      <c r="K20" s="21" t="s">
         <v>149</v>
       </c>
-      <c r="L20" s="9" t="s">
+      <c r="L20" s="8" t="s">
         <v>150</v>
       </c>
       <c r="M20" s="4" t="s">
@@ -6285,34 +6199,34 @@
       <c r="A21" s="8">
         <v>11</v>
       </c>
-      <c r="B21" s="20" t="s">
+      <c r="B21" s="16" t="s">
         <v>165</v>
       </c>
-      <c r="C21" s="20" t="s">
+      <c r="C21" s="16" t="s">
         <v>218</v>
       </c>
-      <c r="D21" s="20"/>
-      <c r="E21" s="121" t="s">
+      <c r="D21" s="16"/>
+      <c r="E21" s="112" t="s">
         <v>219</v>
       </c>
-      <c r="F21" s="26" t="s">
+      <c r="F21" s="21" t="s">
         <v>154</v>
       </c>
-      <c r="G21" s="17"/>
-      <c r="H21" s="9" t="s">
+      <c r="G21" s="13"/>
+      <c r="H21" s="8" t="s">
         <v>165</v>
       </c>
-      <c r="I21" s="26" t="s">
+      <c r="I21" s="21" t="s">
         <v>163</v>
       </c>
-      <c r="J21" s="32"/>
-      <c r="K21" s="26" t="s">
+      <c r="J21" s="26"/>
+      <c r="K21" s="21" t="s">
         <v>154</v>
       </c>
-      <c r="L21" s="9" t="s">
+      <c r="L21" s="8" t="s">
         <v>155</v>
       </c>
-      <c r="M21" s="9" t="s">
+      <c r="M21" s="8" t="s">
         <v>156</v>
       </c>
     </row>
@@ -6320,35 +6234,35 @@
       <c r="A22" s="8">
         <v>12</v>
       </c>
-      <c r="B22" s="20" t="s">
+      <c r="B22" s="16" t="s">
         <v>185</v>
       </c>
-      <c r="C22" s="20" t="s">
+      <c r="C22" s="16" t="s">
         <v>220</v>
       </c>
-      <c r="D22" s="20" t="s">
+      <c r="D22" s="16" t="s">
         <v>221</v>
       </c>
-      <c r="E22" s="121" t="s">
+      <c r="E22" s="112" t="s">
         <v>222</v>
       </c>
-      <c r="F22" s="26" t="s">
+      <c r="F22" s="21" t="s">
         <v>158</v>
       </c>
-      <c r="G22" s="17"/>
-      <c r="H22" s="26" t="s">
+      <c r="G22" s="13"/>
+      <c r="H22" s="21" t="s">
         <v>151</v>
       </c>
-      <c r="I22" s="26" t="s">
+      <c r="I22" s="21" t="s">
         <v>149</v>
       </c>
-      <c r="K22" s="26" t="s">
+      <c r="K22" s="21" t="s">
         <v>158</v>
       </c>
-      <c r="L22" s="9" t="s">
+      <c r="L22" s="8" t="s">
         <v>159</v>
       </c>
-      <c r="M22" s="9" t="s">
+      <c r="M22" s="8" t="s">
         <v>160</v>
       </c>
     </row>
@@ -6356,35 +6270,35 @@
       <c r="A23" s="8">
         <v>13</v>
       </c>
-      <c r="B23" s="20" t="s">
+      <c r="B23" s="16" t="s">
         <v>223</v>
       </c>
-      <c r="C23" s="20" t="s">
+      <c r="C23" s="16" t="s">
         <v>224</v>
       </c>
-      <c r="D23" s="20" t="s">
+      <c r="D23" s="16" t="s">
         <v>225</v>
       </c>
-      <c r="E23" s="75">
+      <c r="E23" s="68">
         <v>100000</v>
       </c>
-      <c r="F23" s="26" t="s">
+      <c r="F23" s="21" t="s">
         <v>163</v>
       </c>
-      <c r="G23" s="17"/>
-      <c r="H23" s="26" t="s">
+      <c r="G23" s="13"/>
+      <c r="H23" s="21" t="s">
         <v>151</v>
       </c>
-      <c r="I23" s="26" t="s">
+      <c r="I23" s="21" t="s">
         <v>149</v>
       </c>
-      <c r="K23" s="26" t="s">
+      <c r="K23" s="21" t="s">
         <v>163</v>
       </c>
-      <c r="L23" s="9" t="s">
+      <c r="L23" s="8" t="s">
         <v>164</v>
       </c>
-      <c r="M23" s="9" t="s">
+      <c r="M23" s="8" t="s">
         <v>165</v>
       </c>
     </row>
@@ -6392,27 +6306,27 @@
       <c r="A24" s="8">
         <v>14</v>
       </c>
-      <c r="B24" s="20" t="s">
+      <c r="B24" s="16" t="s">
         <v>226</v>
       </c>
-      <c r="C24" s="20" t="s">
+      <c r="C24" s="16" t="s">
         <v>227</v>
       </c>
-      <c r="D24" s="20"/>
-      <c r="E24" s="75">
+      <c r="D24" s="16"/>
+      <c r="E24" s="68">
         <v>100011</v>
       </c>
-      <c r="F24" s="26"/>
-      <c r="G24" s="17"/>
-      <c r="H24" s="26"/>
-      <c r="I24" s="26"/>
-      <c r="K24" s="26" t="s">
+      <c r="F24" s="21"/>
+      <c r="G24" s="13"/>
+      <c r="H24" s="21"/>
+      <c r="I24" s="21"/>
+      <c r="K24" s="21" t="s">
         <v>167</v>
       </c>
-      <c r="L24" s="9" t="s">
+      <c r="L24" s="8" t="s">
         <v>168</v>
       </c>
-      <c r="M24" s="9" t="s">
+      <c r="M24" s="8" t="s">
         <v>169</v>
       </c>
     </row>
@@ -6420,78 +6334,78 @@
       <c r="A25" s="8">
         <v>15</v>
       </c>
-      <c r="B25" s="20" t="s">
+      <c r="B25" s="16" t="s">
         <v>228</v>
       </c>
-      <c r="C25" s="20" t="s">
+      <c r="C25" s="16" t="s">
         <v>229</v>
       </c>
-      <c r="D25" s="20" t="s">
+      <c r="D25" s="16" t="s">
         <v>230</v>
       </c>
-      <c r="E25" s="75">
+      <c r="E25" s="68">
         <v>101000</v>
       </c>
-      <c r="F25" s="26"/>
-      <c r="G25" s="17"/>
-      <c r="H25" s="26"/>
-      <c r="I25" s="26"/>
-      <c r="K25" s="36"/>
-      <c r="L25" s="37"/>
+      <c r="F25" s="21"/>
+      <c r="G25" s="13"/>
+      <c r="H25" s="21"/>
+      <c r="I25" s="21"/>
+      <c r="K25" s="29"/>
+      <c r="L25" s="30"/>
     </row>
     <row r="26" spans="1:9">
       <c r="A26" s="8">
         <v>16</v>
       </c>
-      <c r="B26" s="20" t="s">
+      <c r="B26" s="16" t="s">
         <v>231</v>
       </c>
-      <c r="C26" s="20" t="s">
+      <c r="C26" s="16" t="s">
         <v>232</v>
       </c>
-      <c r="D26" s="20"/>
-      <c r="E26" s="75">
+      <c r="D26" s="16"/>
+      <c r="E26" s="68">
         <v>101011</v>
       </c>
-      <c r="F26" s="26"/>
-      <c r="G26" s="17"/>
-      <c r="H26" s="26"/>
-      <c r="I26" s="26"/>
+      <c r="F26" s="21"/>
+      <c r="G26" s="13"/>
+      <c r="H26" s="21"/>
+      <c r="I26" s="21"/>
     </row>
     <row r="27" spans="1:9">
-      <c r="A27" s="23" t="s">
+      <c r="A27" s="18" t="s">
         <v>233</v>
       </c>
-      <c r="B27" s="23"/>
-      <c r="C27" s="23"/>
-      <c r="D27" s="23"/>
-      <c r="E27" s="23"/>
-      <c r="F27" s="23"/>
-      <c r="G27" s="23"/>
-      <c r="H27" s="23"/>
-      <c r="I27" s="23"/>
+      <c r="B27" s="18"/>
+      <c r="C27" s="18"/>
+      <c r="D27" s="18"/>
+      <c r="E27" s="18"/>
+      <c r="F27" s="18"/>
+      <c r="G27" s="18"/>
+      <c r="H27" s="18"/>
+      <c r="I27" s="18"/>
     </row>
     <row r="28" spans="1:9">
-      <c r="A28" s="23"/>
-      <c r="B28" s="23"/>
-      <c r="C28" s="23"/>
-      <c r="D28" s="23"/>
-      <c r="E28" s="23"/>
-      <c r="F28" s="23"/>
-      <c r="G28" s="23"/>
-      <c r="H28" s="23"/>
-      <c r="I28" s="23"/>
+      <c r="A28" s="18"/>
+      <c r="B28" s="18"/>
+      <c r="C28" s="18"/>
+      <c r="D28" s="18"/>
+      <c r="E28" s="18"/>
+      <c r="F28" s="18"/>
+      <c r="G28" s="18"/>
+      <c r="H28" s="18"/>
+      <c r="I28" s="18"/>
     </row>
     <row r="29" spans="1:9">
-      <c r="A29" s="23"/>
-      <c r="B29" s="23"/>
-      <c r="C29" s="23"/>
-      <c r="D29" s="23"/>
-      <c r="E29" s="23"/>
-      <c r="F29" s="23"/>
-      <c r="G29" s="23"/>
-      <c r="H29" s="23"/>
-      <c r="I29" s="23"/>
+      <c r="A29" s="18"/>
+      <c r="B29" s="18"/>
+      <c r="C29" s="18"/>
+      <c r="D29" s="18"/>
+      <c r="E29" s="18"/>
+      <c r="F29" s="18"/>
+      <c r="G29" s="18"/>
+      <c r="H29" s="18"/>
+      <c r="I29" s="18"/>
     </row>
   </sheetData>
   <mergeCells count="11">
@@ -6515,60 +6429,60 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:M63"/>
+  <dimension ref="A1:M44"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="4" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="B68" sqref="B68"/>
+      <selection pane="bottomLeft" activeCell="B31" sqref="B31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="13.8"/>
   <cols>
-    <col min="1" max="1" width="25" style="20" customWidth="1"/>
-    <col min="2" max="2" width="24.4444444444444" style="20" customWidth="1"/>
-    <col min="3" max="3" width="12" style="20" customWidth="1"/>
-    <col min="4" max="4" width="8.88888888888889" style="20"/>
-    <col min="5" max="5" width="10.4444444444444" style="20" customWidth="1"/>
-    <col min="6" max="6" width="9" style="20" customWidth="1"/>
-    <col min="7" max="7" width="10.2222222222222" style="20" customWidth="1"/>
-    <col min="8" max="8" width="18.1111111111111" style="20" customWidth="1"/>
-    <col min="9" max="9" width="22.2222222222222" style="20" customWidth="1"/>
-    <col min="10" max="10" width="15" style="20" customWidth="1"/>
-    <col min="11" max="11" width="13.4444444444444" style="20" customWidth="1"/>
-    <col min="12" max="12" width="13.3333333333333" style="20" customWidth="1"/>
-    <col min="13" max="13" width="16.3333333333333" style="20" customWidth="1"/>
-    <col min="14" max="16384" width="8.88888888888889" style="20"/>
+    <col min="1" max="1" width="25" style="16" customWidth="1"/>
+    <col min="2" max="2" width="24.4444444444444" style="16" customWidth="1"/>
+    <col min="3" max="3" width="12" style="16" customWidth="1"/>
+    <col min="4" max="4" width="8.88888888888889" style="16"/>
+    <col min="5" max="5" width="10.4444444444444" style="16" customWidth="1"/>
+    <col min="6" max="6" width="9" style="16" customWidth="1"/>
+    <col min="7" max="7" width="10.2222222222222" style="16" customWidth="1"/>
+    <col min="8" max="8" width="18.1111111111111" style="16" customWidth="1"/>
+    <col min="9" max="9" width="22.2222222222222" style="16" customWidth="1"/>
+    <col min="10" max="10" width="15" style="16" customWidth="1"/>
+    <col min="11" max="11" width="13.4444444444444" style="16" customWidth="1"/>
+    <col min="12" max="12" width="13.3333333333333" style="16" customWidth="1"/>
+    <col min="13" max="13" width="16.3333333333333" style="16" customWidth="1"/>
+    <col min="14" max="16384" width="8.88888888888889" style="16"/>
   </cols>
   <sheetData>
     <row r="1" ht="13" customHeight="1" spans="1:11">
-      <c r="A1" s="52"/>
-      <c r="B1" s="52"/>
-      <c r="C1" s="52"/>
-      <c r="D1" s="52"/>
-      <c r="F1" s="20" t="s">
+      <c r="A1" s="45"/>
+      <c r="B1" s="45"/>
+      <c r="C1" s="45"/>
+      <c r="D1" s="45"/>
+      <c r="F1" s="16" t="s">
         <v>234</v>
       </c>
-      <c r="I1" s="20" t="s">
+      <c r="I1" s="16" t="s">
         <v>235</v>
       </c>
-      <c r="K1" s="20" t="s">
+      <c r="K1" s="16" t="s">
         <v>236</v>
       </c>
     </row>
     <row r="2" spans="6:11">
-      <c r="F2" s="20" t="s">
+      <c r="F2" s="16" t="s">
         <v>237</v>
       </c>
-      <c r="I2" s="20" t="s">
+      <c r="I2" s="16" t="s">
         <v>238</v>
       </c>
-      <c r="K2" s="20" t="s">
+      <c r="K2" s="16" t="s">
         <v>239</v>
       </c>
     </row>
     <row r="3" spans="11:11">
-      <c r="K3" s="20" t="s">
+      <c r="K3" s="16" t="s">
         <v>240</v>
       </c>
     </row>
@@ -6579,112 +6493,112 @@
       <c r="B4" s="4" t="s">
         <v>193</v>
       </c>
-      <c r="C4" s="53" t="s">
+      <c r="C4" s="46" t="s">
         <v>6</v>
       </c>
-      <c r="D4" s="54" t="s">
+      <c r="D4" s="47" t="s">
         <v>87</v>
       </c>
-      <c r="E4" s="20" t="s">
+      <c r="E4" s="16" t="s">
         <v>89</v>
       </c>
-      <c r="F4" s="20" t="s">
+      <c r="F4" s="16" t="s">
         <v>91</v>
       </c>
-      <c r="G4" s="20" t="s">
+      <c r="G4" s="16" t="s">
         <v>93</v>
       </c>
-      <c r="H4" s="55" t="s">
+      <c r="H4" s="48" t="s">
         <v>95</v>
       </c>
-      <c r="I4" s="20" t="s">
+      <c r="I4" s="16" t="s">
         <v>97</v>
       </c>
-      <c r="J4" s="55" t="s">
+      <c r="J4" s="48" t="s">
         <v>100</v>
       </c>
-      <c r="K4" s="67" t="s">
+      <c r="K4" s="60" t="s">
         <v>102</v>
       </c>
-      <c r="L4" s="68" t="s">
+      <c r="L4" s="61" t="s">
         <v>104</v>
       </c>
-      <c r="M4" s="69" t="s">
+      <c r="M4" s="62" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="5" ht="20.4" spans="1:13">
-      <c r="A5" s="56" t="s">
+      <c r="A5" s="49" t="s">
         <v>241</v>
       </c>
-      <c r="B5" s="57"/>
-      <c r="C5" s="57"/>
-      <c r="D5" s="57"/>
-      <c r="E5" s="57"/>
-      <c r="F5" s="57"/>
-      <c r="G5" s="57"/>
-      <c r="H5" s="57"/>
-      <c r="I5" s="57"/>
-      <c r="J5" s="57"/>
-      <c r="K5" s="57"/>
-      <c r="L5" s="57"/>
-      <c r="M5" s="57"/>
+      <c r="B5" s="50"/>
+      <c r="C5" s="50"/>
+      <c r="D5" s="50"/>
+      <c r="E5" s="50"/>
+      <c r="F5" s="50"/>
+      <c r="G5" s="50"/>
+      <c r="H5" s="50"/>
+      <c r="I5" s="50"/>
+      <c r="J5" s="50"/>
+      <c r="K5" s="50"/>
+      <c r="L5" s="50"/>
+      <c r="M5" s="50"/>
     </row>
     <row r="6" ht="14" customHeight="1" spans="1:13">
-      <c r="A6" s="58" t="s">
+      <c r="A6" s="51" t="s">
         <v>242</v>
       </c>
-      <c r="B6" s="58"/>
-      <c r="C6" s="58"/>
-      <c r="D6" s="58"/>
-      <c r="E6" s="58"/>
-      <c r="F6" s="58"/>
-      <c r="G6" s="58"/>
-      <c r="H6" s="58"/>
-      <c r="I6" s="58"/>
-      <c r="J6" s="58"/>
-      <c r="K6" s="58"/>
-      <c r="L6" s="58"/>
-      <c r="M6" s="58"/>
+      <c r="B6" s="51"/>
+      <c r="C6" s="51"/>
+      <c r="D6" s="51"/>
+      <c r="E6" s="51"/>
+      <c r="F6" s="51"/>
+      <c r="G6" s="51"/>
+      <c r="H6" s="51"/>
+      <c r="I6" s="51"/>
+      <c r="J6" s="51"/>
+      <c r="K6" s="51"/>
+      <c r="L6" s="51"/>
+      <c r="M6" s="51"/>
     </row>
     <row r="7" spans="1:13">
-      <c r="A7" s="20" t="s">
+      <c r="A7" s="16" t="s">
         <v>226</v>
       </c>
-      <c r="B7" s="20" t="s">
+      <c r="B7" s="16" t="s">
         <v>243</v>
       </c>
-      <c r="C7" s="20" t="s">
+      <c r="C7" s="16" t="s">
         <v>244</v>
       </c>
-      <c r="D7" s="35" t="s">
+      <c r="D7" s="28" t="s">
         <v>245</v>
       </c>
-      <c r="E7" s="20">
+      <c r="E7" s="16">
         <v>0</v>
       </c>
-      <c r="F7" s="20">
+      <c r="F7" s="16">
         <v>0</v>
       </c>
-      <c r="G7" s="20">
+      <c r="G7" s="16">
         <v>0</v>
       </c>
-      <c r="H7" s="20">
+      <c r="H7" s="16">
         <v>1</v>
       </c>
-      <c r="I7" s="20">
+      <c r="I7" s="16">
         <v>1</v>
       </c>
-      <c r="J7" s="20">
+      <c r="J7" s="16">
         <v>0</v>
       </c>
-      <c r="K7" s="35" t="s">
+      <c r="K7" s="28" t="s">
         <v>183</v>
       </c>
-      <c r="L7" s="70">
+      <c r="L7" s="63">
         <v>1</v>
       </c>
-      <c r="M7" s="20">
+      <c r="M7" s="16">
         <v>1</v>
       </c>
     </row>
@@ -6692,891 +6606,631 @@
       <c r="A8" s="4" t="s">
         <v>165</v>
       </c>
-      <c r="C8" s="20" t="s">
+      <c r="C8" s="16" t="s">
         <v>246</v>
       </c>
-      <c r="D8" s="35" t="s">
+      <c r="D8" s="28" t="s">
         <v>247</v>
       </c>
-      <c r="E8" s="20">
+      <c r="E8" s="16">
         <v>0</v>
       </c>
-      <c r="F8" s="20">
+      <c r="F8" s="16">
         <v>0</v>
       </c>
-      <c r="G8" s="20">
+      <c r="G8" s="16">
         <v>0</v>
       </c>
-      <c r="H8" s="20">
+      <c r="H8" s="16">
         <v>0</v>
       </c>
-      <c r="I8" s="32" t="s">
+      <c r="I8" s="26" t="s">
         <v>248</v>
       </c>
-      <c r="J8" s="20">
+      <c r="J8" s="16">
         <v>0</v>
       </c>
-      <c r="K8" s="35" t="s">
+      <c r="K8" s="28" t="s">
         <v>183</v>
       </c>
-      <c r="L8" s="70"/>
-      <c r="M8" s="20">
+      <c r="L8" s="63"/>
+      <c r="M8" s="16">
         <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:13">
-      <c r="A9" s="20" t="s">
+      <c r="A9" s="16" t="s">
         <v>185</v>
       </c>
-      <c r="B9" s="20" t="s">
+      <c r="B9" s="16" t="s">
         <v>249</v>
       </c>
-      <c r="C9" s="20" t="s">
+      <c r="C9" s="16" t="s">
         <v>250</v>
       </c>
-      <c r="D9" s="35" t="s">
+      <c r="D9" s="28" t="s">
         <v>245</v>
       </c>
-      <c r="E9" s="20">
+      <c r="E9" s="16">
         <v>0</v>
       </c>
-      <c r="F9" s="20">
+      <c r="F9" s="16">
         <v>0</v>
       </c>
-      <c r="G9" s="20">
+      <c r="G9" s="16">
         <v>0</v>
       </c>
-      <c r="H9" s="20">
+      <c r="H9" s="16">
         <v>0</v>
       </c>
-      <c r="I9" s="20">
+      <c r="I9" s="16">
         <v>0</v>
       </c>
-      <c r="J9" s="20">
+      <c r="J9" s="16">
         <v>0</v>
       </c>
-      <c r="K9" s="35" t="s">
+      <c r="K9" s="28" t="s">
         <v>183</v>
       </c>
-      <c r="L9" s="70"/>
-      <c r="M9" s="20">
+      <c r="L9" s="63"/>
+      <c r="M9" s="16">
         <v>1</v>
       </c>
     </row>
     <row r="10" spans="2:12">
-      <c r="B10" s="20" t="s">
+      <c r="B10" s="16" t="s">
         <v>251</v>
       </c>
-      <c r="L10" s="70"/>
+      <c r="L10" s="63"/>
     </row>
     <row r="11" spans="1:13">
-      <c r="A11" s="20" t="s">
+      <c r="A11" s="16" t="s">
         <v>231</v>
       </c>
-      <c r="C11" s="20" t="s">
+      <c r="C11" s="16" t="s">
         <v>252</v>
       </c>
-      <c r="D11" s="35" t="s">
+      <c r="D11" s="28" t="s">
         <v>245</v>
       </c>
-      <c r="E11" s="20">
+      <c r="E11" s="16">
         <v>0</v>
       </c>
-      <c r="F11" s="20">
+      <c r="F11" s="16">
         <v>0</v>
       </c>
-      <c r="G11" s="20">
+      <c r="G11" s="16">
         <v>0</v>
       </c>
-      <c r="H11" s="20">
+      <c r="H11" s="16">
         <v>0</v>
       </c>
-      <c r="I11" s="20">
+      <c r="I11" s="16">
         <v>0</v>
       </c>
-      <c r="J11" s="20">
+      <c r="J11" s="16">
         <v>1</v>
       </c>
-      <c r="K11" s="35" t="s">
+      <c r="K11" s="28" t="s">
         <v>183</v>
       </c>
-      <c r="L11" s="70"/>
-      <c r="M11" s="20">
+      <c r="L11" s="63"/>
+      <c r="M11" s="16">
         <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:13">
-      <c r="A12" s="20" t="s">
+      <c r="A12" s="51" t="s">
         <v>253</v>
       </c>
-      <c r="C12" s="20" t="s">
+      <c r="B12" s="51"/>
+      <c r="C12" s="51"/>
+      <c r="D12" s="51"/>
+      <c r="E12" s="51"/>
+      <c r="F12" s="51"/>
+      <c r="G12" s="51"/>
+      <c r="H12" s="51"/>
+      <c r="I12" s="51"/>
+      <c r="J12" s="51"/>
+      <c r="K12" s="51"/>
+      <c r="L12" s="63"/>
+      <c r="M12" s="51"/>
+    </row>
+    <row r="13" spans="1:13">
+      <c r="A13" s="16" t="s">
+        <v>173</v>
+      </c>
+      <c r="C13" s="113" t="s">
         <v>254</v>
       </c>
-      <c r="D12" s="35" t="s">
+      <c r="D13" s="113" t="s">
         <v>255</v>
       </c>
-      <c r="E12" s="20">
+      <c r="E13" s="16">
         <v>0</v>
       </c>
-      <c r="F12" s="20">
+      <c r="F13" s="16">
         <v>0</v>
       </c>
-      <c r="G12" s="20">
+      <c r="G13" s="16">
         <v>0</v>
       </c>
-      <c r="H12" s="20">
+      <c r="H13" s="16">
         <v>0</v>
       </c>
-      <c r="I12" s="20">
+      <c r="I13" s="16">
         <v>0</v>
       </c>
-      <c r="J12" s="20">
+      <c r="J13" s="16">
         <v>0</v>
       </c>
-      <c r="K12" s="35" t="s">
-        <v>183</v>
-      </c>
-      <c r="L12" s="70"/>
-      <c r="M12" s="20">
+      <c r="K13" s="16">
+        <v>10</v>
+      </c>
+      <c r="L13" s="63"/>
+      <c r="M13" s="16">
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:13">
-      <c r="A13" s="20" t="s">
+    <row r="14" spans="1:13">
+      <c r="A14" s="16" t="s">
+        <v>178</v>
+      </c>
+      <c r="C14" s="113" t="s">
         <v>256</v>
       </c>
-      <c r="C13" s="20" t="s">
+      <c r="D14" s="113" t="s">
         <v>257</v>
       </c>
-      <c r="D13" s="35" t="s">
+      <c r="E14" s="16">
+        <v>0</v>
+      </c>
+      <c r="F14" s="16">
+        <v>0</v>
+      </c>
+      <c r="G14" s="16">
+        <v>0</v>
+      </c>
+      <c r="H14" s="16">
+        <v>0</v>
+      </c>
+      <c r="I14" s="16">
+        <v>0</v>
+      </c>
+      <c r="J14" s="16">
+        <v>0</v>
+      </c>
+      <c r="K14" s="16">
+        <v>10</v>
+      </c>
+      <c r="L14" s="63"/>
+      <c r="M14" s="16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13">
+      <c r="A15" s="16" t="s">
+        <v>181</v>
+      </c>
+      <c r="C15" s="113" t="s">
         <v>258</v>
       </c>
-      <c r="E13" s="20">
+      <c r="D15" s="113" t="s">
+        <v>259</v>
+      </c>
+      <c r="E15" s="16">
         <v>0</v>
       </c>
-      <c r="F13" s="20">
+      <c r="F15" s="16">
         <v>0</v>
       </c>
-      <c r="G13" s="20">
+      <c r="G15" s="16">
         <v>0</v>
       </c>
-      <c r="H13" s="20">
+      <c r="H15" s="16">
         <v>0</v>
       </c>
-      <c r="I13" s="20">
+      <c r="I15" s="16">
         <v>0</v>
       </c>
-      <c r="J13" s="20">
+      <c r="J15" s="16">
         <v>0</v>
       </c>
-      <c r="K13" s="35" t="s">
-        <v>183</v>
-      </c>
-      <c r="L13" s="70"/>
-      <c r="M13" s="20">
+      <c r="K15" s="16">
+        <v>10</v>
+      </c>
+      <c r="L15" s="63"/>
+      <c r="M15" s="16">
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:13">
-      <c r="A14" s="58" t="s">
-        <v>259</v>
-      </c>
-      <c r="B14" s="58"/>
-      <c r="C14" s="58"/>
-      <c r="D14" s="58"/>
-      <c r="E14" s="58"/>
-      <c r="F14" s="58"/>
-      <c r="G14" s="58"/>
-      <c r="H14" s="58"/>
-      <c r="I14" s="58"/>
-      <c r="J14" s="58"/>
-      <c r="K14" s="58"/>
-      <c r="L14" s="70"/>
-      <c r="M14" s="58"/>
-    </row>
-    <row r="15" spans="1:13">
-      <c r="A15" s="20" t="s">
-        <v>173</v>
-      </c>
-      <c r="C15" s="122" t="s">
+    <row r="16" spans="1:13">
+      <c r="A16" s="51" t="s">
         <v>260</v>
       </c>
-      <c r="D15" s="122" t="s">
+      <c r="B16" s="51"/>
+      <c r="C16" s="51"/>
+      <c r="D16" s="51"/>
+      <c r="E16" s="51"/>
+      <c r="F16" s="51"/>
+      <c r="G16" s="51"/>
+      <c r="H16" s="51"/>
+      <c r="I16" s="51"/>
+      <c r="J16" s="51"/>
+      <c r="K16" s="51"/>
+      <c r="L16" s="63"/>
+      <c r="M16" s="51"/>
+    </row>
+    <row r="17" spans="1:12">
+      <c r="A17" s="16" t="s">
+        <v>223</v>
+      </c>
+      <c r="L17" s="63"/>
+    </row>
+    <row r="18" spans="1:12">
+      <c r="A18" s="16" t="s">
+        <v>228</v>
+      </c>
+      <c r="L18" s="63"/>
+    </row>
+    <row r="19" spans="1:13">
+      <c r="A19" s="51" t="s">
         <v>261</v>
       </c>
-      <c r="E15" s="20">
+      <c r="B19" s="51"/>
+      <c r="C19" s="51"/>
+      <c r="D19" s="51"/>
+      <c r="E19" s="51"/>
+      <c r="F19" s="51"/>
+      <c r="G19" s="51"/>
+      <c r="H19" s="51"/>
+      <c r="I19" s="51"/>
+      <c r="J19" s="51"/>
+      <c r="K19" s="51"/>
+      <c r="L19" s="63"/>
+      <c r="M19" s="51"/>
+    </row>
+    <row r="20" spans="1:12">
+      <c r="A20" s="16" t="s">
+        <v>262</v>
+      </c>
+      <c r="L20" s="63"/>
+    </row>
+    <row r="21" spans="1:12">
+      <c r="A21" s="16" t="s">
+        <v>263</v>
+      </c>
+      <c r="L21" s="63"/>
+    </row>
+    <row r="22" spans="1:12">
+      <c r="A22" s="16" t="s">
+        <v>264</v>
+      </c>
+      <c r="L22" s="63"/>
+    </row>
+    <row r="23" ht="20.4" spans="1:13">
+      <c r="A23" s="49" t="s">
+        <v>265</v>
+      </c>
+      <c r="B23" s="50"/>
+      <c r="C23" s="50"/>
+      <c r="D23" s="50"/>
+      <c r="E23" s="50"/>
+      <c r="F23" s="50"/>
+      <c r="G23" s="50"/>
+      <c r="H23" s="50"/>
+      <c r="I23" s="50"/>
+      <c r="J23" s="50"/>
+      <c r="K23" s="50"/>
+      <c r="L23" s="63"/>
+      <c r="M23" s="50"/>
+    </row>
+    <row r="24" spans="1:13">
+      <c r="A24" s="52" t="s">
+        <v>266</v>
+      </c>
+      <c r="B24" s="53"/>
+      <c r="C24" s="114" t="s">
+        <v>267</v>
+      </c>
+      <c r="D24" s="54" t="s">
+        <v>268</v>
+      </c>
+      <c r="E24" s="53">
         <v>0</v>
       </c>
-      <c r="F15" s="20">
+      <c r="F24" s="53">
+        <v>1</v>
+      </c>
+      <c r="G24" s="53">
         <v>0</v>
       </c>
-      <c r="G15" s="20">
+      <c r="H24" s="53">
         <v>0</v>
       </c>
-      <c r="H15" s="20">
+      <c r="I24" s="53">
         <v>0</v>
       </c>
-      <c r="I15" s="20">
+      <c r="J24" s="53">
+        <v>1</v>
+      </c>
+      <c r="K24" s="64" t="s">
+        <v>136</v>
+      </c>
+      <c r="L24" s="63"/>
+      <c r="M24" s="65">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13">
+      <c r="A25" s="16" t="s">
+        <v>156</v>
+      </c>
+      <c r="C25" s="55" t="s">
+        <v>269</v>
+      </c>
+      <c r="D25" s="55"/>
+      <c r="E25" s="55"/>
+      <c r="F25" s="55"/>
+      <c r="G25" s="55"/>
+      <c r="H25" s="55"/>
+      <c r="I25" s="55"/>
+      <c r="J25" s="55"/>
+      <c r="K25" s="55"/>
+      <c r="L25" s="55"/>
+      <c r="M25" s="55"/>
+    </row>
+    <row r="26" spans="1:13">
+      <c r="A26" s="16" t="s">
+        <v>160</v>
+      </c>
+      <c r="C26" s="55"/>
+      <c r="D26" s="55"/>
+      <c r="E26" s="55"/>
+      <c r="F26" s="55"/>
+      <c r="G26" s="55"/>
+      <c r="H26" s="55"/>
+      <c r="I26" s="55"/>
+      <c r="J26" s="55"/>
+      <c r="K26" s="55"/>
+      <c r="L26" s="55"/>
+      <c r="M26" s="55"/>
+    </row>
+    <row r="27" spans="1:13">
+      <c r="A27" s="37" t="s">
+        <v>270</v>
+      </c>
+      <c r="B27" s="16" t="s">
+        <v>271</v>
+      </c>
+      <c r="C27" s="55"/>
+      <c r="D27" s="55"/>
+      <c r="E27" s="55"/>
+      <c r="F27" s="55"/>
+      <c r="G27" s="55"/>
+      <c r="H27" s="55"/>
+      <c r="I27" s="55"/>
+      <c r="J27" s="55"/>
+      <c r="K27" s="55"/>
+      <c r="L27" s="55"/>
+      <c r="M27" s="55"/>
+    </row>
+    <row r="28" spans="1:13">
+      <c r="A28" s="16" t="s">
+        <v>151</v>
+      </c>
+      <c r="C28" s="55"/>
+      <c r="D28" s="55"/>
+      <c r="E28" s="55"/>
+      <c r="F28" s="55"/>
+      <c r="G28" s="55"/>
+      <c r="H28" s="55"/>
+      <c r="I28" s="55"/>
+      <c r="J28" s="55"/>
+      <c r="K28" s="55"/>
+      <c r="L28" s="55"/>
+      <c r="M28" s="55"/>
+    </row>
+    <row r="29" spans="1:13">
+      <c r="A29" s="16" t="s">
+        <v>139</v>
+      </c>
+      <c r="C29" s="55"/>
+      <c r="D29" s="55"/>
+      <c r="E29" s="55"/>
+      <c r="F29" s="55"/>
+      <c r="G29" s="55"/>
+      <c r="H29" s="55"/>
+      <c r="I29" s="55"/>
+      <c r="J29" s="55"/>
+      <c r="K29" s="55"/>
+      <c r="L29" s="55"/>
+      <c r="M29" s="55"/>
+    </row>
+    <row r="30" spans="1:13">
+      <c r="A30" s="16" t="s">
+        <v>143</v>
+      </c>
+      <c r="C30" s="55"/>
+      <c r="D30" s="55"/>
+      <c r="E30" s="55"/>
+      <c r="F30" s="55"/>
+      <c r="G30" s="55"/>
+      <c r="H30" s="55"/>
+      <c r="I30" s="55"/>
+      <c r="J30" s="55"/>
+      <c r="K30" s="55"/>
+      <c r="L30" s="55"/>
+      <c r="M30" s="55"/>
+    </row>
+    <row r="31" spans="1:13">
+      <c r="A31" s="16" t="s">
+        <v>147</v>
+      </c>
+      <c r="C31" s="55"/>
+      <c r="D31" s="55"/>
+      <c r="E31" s="55"/>
+      <c r="F31" s="55"/>
+      <c r="G31" s="55"/>
+      <c r="H31" s="55"/>
+      <c r="I31" s="55"/>
+      <c r="J31" s="55"/>
+      <c r="K31" s="55"/>
+      <c r="L31" s="55"/>
+      <c r="M31" s="55"/>
+    </row>
+    <row r="32" spans="1:13">
+      <c r="A32" s="16" t="s">
+        <v>169</v>
+      </c>
+      <c r="C32" s="55"/>
+      <c r="D32" s="55"/>
+      <c r="E32" s="55"/>
+      <c r="F32" s="55"/>
+      <c r="G32" s="55"/>
+      <c r="H32" s="55"/>
+      <c r="I32" s="55"/>
+      <c r="J32" s="55"/>
+      <c r="K32" s="55"/>
+      <c r="L32" s="55"/>
+      <c r="M32" s="55"/>
+    </row>
+    <row r="33" ht="20.4" spans="1:13">
+      <c r="A33" s="49" t="s">
+        <v>272</v>
+      </c>
+      <c r="B33" s="50"/>
+      <c r="C33" s="50"/>
+      <c r="D33" s="50"/>
+      <c r="E33" s="50"/>
+      <c r="F33" s="50"/>
+      <c r="G33" s="50"/>
+      <c r="H33" s="50"/>
+      <c r="I33" s="50"/>
+      <c r="J33" s="50"/>
+      <c r="K33" s="50"/>
+      <c r="L33" s="50"/>
+      <c r="M33" s="50"/>
+    </row>
+    <row r="34" ht="55.2" spans="1:13">
+      <c r="A34" s="56" t="s">
+        <v>273</v>
+      </c>
+      <c r="B34" s="57" t="s">
+        <v>274</v>
+      </c>
+      <c r="C34" s="16" t="s">
+        <v>275</v>
+      </c>
+      <c r="D34" s="16">
         <v>0</v>
       </c>
-      <c r="J15" s="20">
+      <c r="E34" s="16">
+        <v>1</v>
+      </c>
+      <c r="F34" s="16">
         <v>0</v>
       </c>
-      <c r="K15" s="20">
-        <v>10</v>
-      </c>
-      <c r="L15" s="70"/>
-      <c r="M15" s="20">
+      <c r="G34" s="16">
+        <v>0</v>
+      </c>
+      <c r="H34" s="16">
+        <v>0</v>
+      </c>
+      <c r="I34" s="16">
+        <v>0</v>
+      </c>
+      <c r="J34" s="16">
+        <v>0</v>
+      </c>
+      <c r="K34" s="16">
+        <v>0</v>
+      </c>
+      <c r="L34" s="63">
         <v>1</v>
       </c>
-    </row>
-    <row r="16" spans="1:13">
-      <c r="A16" s="20" t="s">
-        <v>178</v>
-      </c>
-      <c r="C16" s="122" t="s">
-        <v>262</v>
-      </c>
-      <c r="D16" s="122" t="s">
-        <v>263</v>
-      </c>
-      <c r="E16" s="20">
+      <c r="M34" s="16">
         <v>0</v>
       </c>
-      <c r="F16" s="20">
+    </row>
+    <row r="35" spans="1:12">
+      <c r="A35" s="58" t="s">
+        <v>276</v>
+      </c>
+      <c r="L35" s="63"/>
+    </row>
+    <row r="37" ht="15.6" spans="1:13">
+      <c r="A37" s="59" t="s">
+        <v>277</v>
+      </c>
+      <c r="C37" s="26" t="s">
+        <v>278</v>
+      </c>
+      <c r="D37" s="16">
         <v>0</v>
       </c>
-      <c r="G16" s="20">
+      <c r="E37" s="16">
         <v>0</v>
       </c>
-      <c r="H16" s="20">
+      <c r="F37" s="16">
         <v>0</v>
       </c>
-      <c r="I16" s="20">
+      <c r="G37" s="16">
         <v>0</v>
       </c>
-      <c r="J16" s="20">
+      <c r="H37" s="16">
         <v>0</v>
       </c>
-      <c r="K16" s="20">
-        <v>10</v>
-      </c>
-      <c r="L16" s="70"/>
-      <c r="M16" s="20">
+      <c r="I37" s="16">
+        <v>0</v>
+      </c>
+      <c r="J37" s="16">
+        <v>0</v>
+      </c>
+      <c r="K37" s="16">
+        <v>0</v>
+      </c>
+      <c r="L37" s="16">
         <v>1</v>
       </c>
-    </row>
-    <row r="17" spans="1:13">
-      <c r="A17" s="20" t="s">
-        <v>181</v>
-      </c>
-      <c r="C17" s="122" t="s">
-        <v>264</v>
-      </c>
-      <c r="D17" s="122" t="s">
-        <v>265</v>
-      </c>
-      <c r="E17" s="20">
+      <c r="M37" s="16">
         <v>0</v>
       </c>
-      <c r="F17" s="20">
-        <v>0</v>
-      </c>
-      <c r="G17" s="20">
-        <v>0</v>
-      </c>
-      <c r="H17" s="20">
-        <v>0</v>
-      </c>
-      <c r="I17" s="20">
-        <v>0</v>
-      </c>
-      <c r="J17" s="20">
-        <v>0</v>
-      </c>
-      <c r="K17" s="20">
-        <v>10</v>
-      </c>
-      <c r="L17" s="70"/>
-      <c r="M17" s="20">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="18" spans="12:12">
-      <c r="L18" s="70"/>
-    </row>
-    <row r="19" spans="12:12">
-      <c r="L19" s="70"/>
-    </row>
-    <row r="20" spans="1:13">
-      <c r="A20" s="58" t="s">
-        <v>266</v>
-      </c>
-      <c r="B20" s="58"/>
-      <c r="C20" s="58"/>
-      <c r="D20" s="58"/>
-      <c r="E20" s="58"/>
-      <c r="F20" s="58"/>
-      <c r="G20" s="58"/>
-      <c r="H20" s="58"/>
-      <c r="I20" s="58"/>
-      <c r="J20" s="58"/>
-      <c r="K20" s="58"/>
-      <c r="L20" s="70"/>
-      <c r="M20" s="58"/>
-    </row>
-    <row r="21" spans="1:12">
-      <c r="A21" s="20" t="s">
-        <v>223</v>
-      </c>
-      <c r="L21" s="70"/>
-    </row>
-    <row r="22" spans="1:12">
-      <c r="A22" s="20" t="s">
-        <v>267</v>
-      </c>
-      <c r="L22" s="70"/>
-    </row>
-    <row r="23" spans="1:12">
-      <c r="A23" s="20" t="s">
-        <v>228</v>
-      </c>
-      <c r="L23" s="70"/>
-    </row>
-    <row r="24" spans="1:12">
-      <c r="A24" s="20" t="s">
-        <v>268</v>
-      </c>
-      <c r="L24" s="70"/>
-    </row>
-    <row r="25" spans="12:12">
-      <c r="L25" s="70"/>
-    </row>
-    <row r="26" spans="1:13">
-      <c r="A26" s="58" t="s">
-        <v>269</v>
-      </c>
-      <c r="B26" s="58"/>
-      <c r="C26" s="58"/>
-      <c r="D26" s="58"/>
-      <c r="E26" s="58"/>
-      <c r="F26" s="58"/>
-      <c r="G26" s="58"/>
-      <c r="H26" s="58"/>
-      <c r="I26" s="58"/>
-      <c r="J26" s="58"/>
-      <c r="K26" s="58"/>
-      <c r="L26" s="70"/>
-      <c r="M26" s="58"/>
-    </row>
-    <row r="27" spans="1:12">
-      <c r="A27" s="54" t="s">
-        <v>270</v>
-      </c>
-      <c r="L27" s="70"/>
-    </row>
-    <row r="28" spans="12:12">
-      <c r="L28" s="70"/>
-    </row>
-    <row r="29" spans="1:13">
-      <c r="A29" s="58" t="s">
-        <v>271</v>
-      </c>
-      <c r="B29" s="58"/>
-      <c r="C29" s="58"/>
-      <c r="D29" s="58"/>
-      <c r="E29" s="58"/>
-      <c r="F29" s="58"/>
-      <c r="G29" s="58"/>
-      <c r="H29" s="58"/>
-      <c r="I29" s="58"/>
-      <c r="J29" s="58"/>
-      <c r="K29" s="58"/>
-      <c r="L29" s="70"/>
-      <c r="M29" s="58"/>
-    </row>
-    <row r="30" spans="1:12">
-      <c r="A30" s="20" t="s">
-        <v>272</v>
-      </c>
-      <c r="L30" s="70"/>
-    </row>
-    <row r="31" spans="1:12">
-      <c r="A31" s="20" t="s">
-        <v>273</v>
-      </c>
-      <c r="L31" s="70"/>
-    </row>
-    <row r="32" spans="12:12">
-      <c r="L32" s="70"/>
-    </row>
-    <row r="33" ht="20.4" spans="1:13">
-      <c r="A33" s="56" t="s">
-        <v>274</v>
-      </c>
-      <c r="B33" s="57"/>
-      <c r="C33" s="57"/>
-      <c r="D33" s="57"/>
-      <c r="E33" s="57"/>
-      <c r="F33" s="57"/>
-      <c r="G33" s="57"/>
-      <c r="H33" s="57"/>
-      <c r="I33" s="57"/>
-      <c r="J33" s="57"/>
-      <c r="K33" s="57"/>
-      <c r="L33" s="70"/>
-      <c r="M33" s="57"/>
-    </row>
-    <row r="34" spans="1:13">
-      <c r="A34" s="59" t="s">
-        <v>275</v>
-      </c>
-      <c r="B34" s="60"/>
-      <c r="C34" s="123" t="s">
-        <v>276</v>
-      </c>
-      <c r="D34" s="61" t="s">
-        <v>277</v>
-      </c>
-      <c r="E34" s="60">
-        <v>0</v>
-      </c>
-      <c r="F34" s="60">
-        <v>1</v>
-      </c>
-      <c r="G34" s="60">
-        <v>0</v>
-      </c>
-      <c r="H34" s="60">
-        <v>0</v>
-      </c>
-      <c r="I34" s="60">
-        <v>0</v>
-      </c>
-      <c r="J34" s="60">
-        <v>1</v>
-      </c>
-      <c r="K34" s="71" t="s">
-        <v>136</v>
-      </c>
-      <c r="L34" s="70"/>
-      <c r="M34" s="72">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="35" spans="1:13">
-      <c r="A35" s="20" t="s">
-        <v>156</v>
-      </c>
-      <c r="C35" s="62" t="s">
-        <v>278</v>
-      </c>
-      <c r="D35" s="62"/>
-      <c r="E35" s="62"/>
-      <c r="F35" s="62"/>
-      <c r="G35" s="62"/>
-      <c r="H35" s="62"/>
-      <c r="I35" s="62"/>
-      <c r="J35" s="62"/>
-      <c r="K35" s="62"/>
-      <c r="L35" s="62"/>
-      <c r="M35" s="62"/>
-    </row>
-    <row r="36" spans="1:13">
-      <c r="A36" s="20" t="s">
-        <v>160</v>
-      </c>
-      <c r="C36" s="62"/>
-      <c r="D36" s="62"/>
-      <c r="E36" s="62"/>
-      <c r="F36" s="62"/>
-      <c r="G36" s="62"/>
-      <c r="H36" s="62"/>
-      <c r="I36" s="62"/>
-      <c r="J36" s="62"/>
-      <c r="K36" s="62"/>
-      <c r="L36" s="62"/>
-      <c r="M36" s="62"/>
-    </row>
-    <row r="37" spans="1:13">
-      <c r="A37" s="20" t="s">
-        <v>210</v>
-      </c>
-      <c r="C37" s="62"/>
-      <c r="D37" s="62"/>
-      <c r="E37" s="62"/>
-      <c r="F37" s="62"/>
-      <c r="G37" s="62"/>
-      <c r="H37" s="62"/>
-      <c r="I37" s="62"/>
-      <c r="J37" s="62"/>
-      <c r="K37" s="62"/>
-      <c r="L37" s="62"/>
-      <c r="M37" s="62"/>
-    </row>
-    <row r="38" spans="1:13">
-      <c r="A38" s="20" t="s">
+    </row>
+    <row r="39" spans="1:1">
+      <c r="A39" s="16" t="s">
         <v>279</v>
       </c>
-      <c r="C38" s="62"/>
-      <c r="D38" s="62"/>
-      <c r="E38" s="62"/>
-      <c r="F38" s="62"/>
-      <c r="G38" s="62"/>
-      <c r="H38" s="62"/>
-      <c r="I38" s="62"/>
-      <c r="J38" s="62"/>
-      <c r="K38" s="62"/>
-      <c r="L38" s="62"/>
-      <c r="M38" s="62"/>
-    </row>
-    <row r="39" spans="1:13">
-      <c r="A39" s="20" t="s">
+    </row>
+    <row r="41" spans="1:1">
+      <c r="A41" s="16" t="s">
         <v>280</v>
       </c>
-      <c r="C39" s="62"/>
-      <c r="D39" s="62"/>
-      <c r="E39" s="62"/>
-      <c r="F39" s="62"/>
-      <c r="G39" s="62"/>
-      <c r="H39" s="62"/>
-      <c r="I39" s="62"/>
-      <c r="J39" s="62"/>
-      <c r="K39" s="62"/>
-      <c r="L39" s="62"/>
-      <c r="M39" s="62"/>
-    </row>
-    <row r="40" spans="1:13">
-      <c r="A40" s="20" t="s">
+    </row>
+    <row r="43" spans="1:5">
+      <c r="A43" s="8" t="s">
         <v>281</v>
       </c>
-      <c r="C40" s="62"/>
-      <c r="D40" s="62"/>
-      <c r="E40" s="62"/>
-      <c r="F40" s="62"/>
-      <c r="G40" s="62"/>
-      <c r="H40" s="62"/>
-      <c r="I40" s="62"/>
-      <c r="J40" s="62"/>
-      <c r="K40" s="62"/>
-      <c r="L40" s="62"/>
-      <c r="M40" s="62"/>
-    </row>
-    <row r="41" spans="1:13">
-      <c r="A41" s="44" t="s">
-        <v>282</v>
-      </c>
-      <c r="B41" s="20" t="s">
-        <v>283</v>
-      </c>
-      <c r="C41" s="62"/>
-      <c r="D41" s="62"/>
-      <c r="E41" s="62"/>
-      <c r="F41" s="62"/>
-      <c r="G41" s="62"/>
-      <c r="H41" s="62"/>
-      <c r="I41" s="62"/>
-      <c r="J41" s="62"/>
-      <c r="K41" s="62"/>
-      <c r="L41" s="62"/>
-      <c r="M41" s="62"/>
-    </row>
-    <row r="42" spans="1:13">
-      <c r="A42" s="20" t="s">
-        <v>284</v>
-      </c>
-      <c r="C42" s="62"/>
-      <c r="D42" s="62"/>
-      <c r="E42" s="62"/>
-      <c r="F42" s="62"/>
-      <c r="G42" s="62"/>
-      <c r="H42" s="62"/>
-      <c r="I42" s="62"/>
-      <c r="J42" s="62"/>
-      <c r="K42" s="62"/>
-      <c r="L42" s="62"/>
-      <c r="M42" s="62"/>
-    </row>
-    <row r="43" spans="1:13">
-      <c r="A43" s="20" t="s">
-        <v>151</v>
-      </c>
-      <c r="C43" s="62"/>
-      <c r="D43" s="62"/>
-      <c r="E43" s="62"/>
-      <c r="F43" s="62"/>
-      <c r="G43" s="62"/>
-      <c r="H43" s="62"/>
-      <c r="I43" s="62"/>
-      <c r="J43" s="62"/>
-      <c r="K43" s="62"/>
-      <c r="L43" s="62"/>
-      <c r="M43" s="62"/>
-    </row>
-    <row r="44" spans="1:13">
-      <c r="A44" s="20" t="s">
-        <v>285</v>
-      </c>
-      <c r="C44" s="62"/>
-      <c r="D44" s="62"/>
-      <c r="E44" s="62"/>
-      <c r="F44" s="62"/>
-      <c r="G44" s="62"/>
-      <c r="H44" s="62"/>
-      <c r="I44" s="62"/>
-      <c r="J44" s="62"/>
-      <c r="K44" s="62"/>
-      <c r="L44" s="62"/>
-      <c r="M44" s="62"/>
-    </row>
-    <row r="45" spans="1:13">
-      <c r="A45" s="20" t="s">
-        <v>286</v>
-      </c>
-      <c r="C45" s="62"/>
-      <c r="D45" s="62"/>
-      <c r="E45" s="62"/>
-      <c r="F45" s="62"/>
-      <c r="G45" s="62"/>
-      <c r="H45" s="62"/>
-      <c r="I45" s="62"/>
-      <c r="J45" s="62"/>
-      <c r="K45" s="62"/>
-      <c r="L45" s="62"/>
-      <c r="M45" s="62"/>
-    </row>
-    <row r="46" spans="1:13">
-      <c r="A46" s="20" t="s">
-        <v>139</v>
-      </c>
-      <c r="C46" s="62"/>
-      <c r="D46" s="62"/>
-      <c r="E46" s="62"/>
-      <c r="F46" s="62"/>
-      <c r="G46" s="62"/>
-      <c r="H46" s="62"/>
-      <c r="I46" s="62"/>
-      <c r="J46" s="62"/>
-      <c r="K46" s="62"/>
-      <c r="L46" s="62"/>
-      <c r="M46" s="62"/>
-    </row>
-    <row r="47" spans="1:13">
-      <c r="A47" s="20" t="s">
-        <v>143</v>
-      </c>
-      <c r="C47" s="62"/>
-      <c r="D47" s="62"/>
-      <c r="E47" s="62"/>
-      <c r="F47" s="62"/>
-      <c r="G47" s="62"/>
-      <c r="H47" s="62"/>
-      <c r="I47" s="62"/>
-      <c r="J47" s="62"/>
-      <c r="K47" s="62"/>
-      <c r="L47" s="62"/>
-      <c r="M47" s="62"/>
-    </row>
-    <row r="48" spans="1:13">
-      <c r="A48" s="20" t="s">
-        <v>147</v>
-      </c>
-      <c r="C48" s="62"/>
-      <c r="D48" s="62"/>
-      <c r="E48" s="62"/>
-      <c r="F48" s="62"/>
-      <c r="G48" s="62"/>
-      <c r="H48" s="62"/>
-      <c r="I48" s="62"/>
-      <c r="J48" s="62"/>
-      <c r="K48" s="62"/>
-      <c r="L48" s="62"/>
-      <c r="M48" s="62"/>
-    </row>
-    <row r="49" spans="1:13">
-      <c r="A49" s="20" t="s">
-        <v>287</v>
-      </c>
-      <c r="C49" s="62"/>
-      <c r="D49" s="62"/>
-      <c r="E49" s="62"/>
-      <c r="F49" s="62"/>
-      <c r="G49" s="62"/>
-      <c r="H49" s="62"/>
-      <c r="I49" s="62"/>
-      <c r="J49" s="62"/>
-      <c r="K49" s="62"/>
-      <c r="L49" s="62"/>
-      <c r="M49" s="62"/>
-    </row>
-    <row r="50" spans="1:13">
-      <c r="A50" s="20" t="s">
-        <v>288</v>
-      </c>
-      <c r="C50" s="62"/>
-      <c r="D50" s="62"/>
-      <c r="E50" s="62"/>
-      <c r="F50" s="62"/>
-      <c r="G50" s="62"/>
-      <c r="H50" s="62"/>
-      <c r="I50" s="62"/>
-      <c r="J50" s="62"/>
-      <c r="K50" s="62"/>
-      <c r="L50" s="62"/>
-      <c r="M50" s="62"/>
-    </row>
-    <row r="51" spans="1:13">
-      <c r="A51" s="20" t="s">
-        <v>289</v>
-      </c>
-      <c r="C51" s="62"/>
-      <c r="D51" s="62"/>
-      <c r="E51" s="62"/>
-      <c r="F51" s="62"/>
-      <c r="G51" s="62"/>
-      <c r="H51" s="62"/>
-      <c r="I51" s="62"/>
-      <c r="J51" s="62"/>
-      <c r="K51" s="62"/>
-      <c r="L51" s="62"/>
-      <c r="M51" s="62"/>
-    </row>
-    <row r="52" ht="20.4" spans="1:13">
-      <c r="A52" s="56" t="s">
-        <v>290</v>
-      </c>
-      <c r="B52" s="57"/>
-      <c r="C52" s="57"/>
-      <c r="D52" s="57"/>
-      <c r="E52" s="57"/>
-      <c r="F52" s="57"/>
-      <c r="G52" s="57"/>
-      <c r="H52" s="57"/>
-      <c r="I52" s="57"/>
-      <c r="J52" s="57"/>
-      <c r="K52" s="57"/>
-      <c r="L52" s="57"/>
-      <c r="M52" s="57"/>
-    </row>
-    <row r="53" ht="55.2" spans="1:13">
-      <c r="A53" s="63" t="s">
-        <v>291</v>
-      </c>
-      <c r="B53" s="64" t="s">
-        <v>292</v>
-      </c>
-      <c r="C53" s="20" t="s">
-        <v>293</v>
-      </c>
-      <c r="D53" s="20">
-        <v>0</v>
-      </c>
-      <c r="E53" s="20">
-        <v>1</v>
-      </c>
-      <c r="F53" s="20">
-        <v>0</v>
-      </c>
-      <c r="G53" s="20">
-        <v>0</v>
-      </c>
-      <c r="H53" s="20">
-        <v>0</v>
-      </c>
-      <c r="I53" s="20">
-        <v>0</v>
-      </c>
-      <c r="J53" s="20">
-        <v>0</v>
-      </c>
-      <c r="K53" s="20">
-        <v>0</v>
-      </c>
-      <c r="L53" s="70">
-        <v>1</v>
-      </c>
-      <c r="M53" s="20">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="54" spans="1:12">
-      <c r="A54" s="65" t="s">
-        <v>294</v>
-      </c>
-      <c r="L54" s="70"/>
-    </row>
-    <row r="56" ht="15.6" spans="1:13">
-      <c r="A56" s="66" t="s">
-        <v>295</v>
-      </c>
-      <c r="C56" s="32" t="s">
-        <v>296</v>
-      </c>
-      <c r="D56" s="20">
-        <v>0</v>
-      </c>
-      <c r="E56" s="20">
-        <v>0</v>
-      </c>
-      <c r="F56" s="20">
-        <v>0</v>
-      </c>
-      <c r="G56" s="20">
-        <v>0</v>
-      </c>
-      <c r="H56" s="20">
-        <v>0</v>
-      </c>
-      <c r="I56" s="20">
-        <v>0</v>
-      </c>
-      <c r="J56" s="20">
-        <v>0</v>
-      </c>
-      <c r="K56" s="20">
-        <v>0</v>
-      </c>
-      <c r="L56" s="20">
-        <v>1</v>
-      </c>
-      <c r="M56" s="20">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="58" spans="1:1">
-      <c r="A58" s="20" t="s">
-        <v>297</v>
-      </c>
-    </row>
-    <row r="60" spans="1:1">
-      <c r="A60" s="20" t="s">
-        <v>298</v>
-      </c>
-    </row>
-    <row r="62" spans="1:5">
-      <c r="A62" s="9" t="s">
-        <v>299</v>
-      </c>
-      <c r="B62" s="9"/>
-      <c r="C62" s="9"/>
-      <c r="D62" s="9"/>
-      <c r="E62" s="9"/>
-    </row>
-    <row r="63" spans="1:5">
-      <c r="A63" s="9"/>
-      <c r="B63" s="9"/>
-      <c r="C63" s="9"/>
-      <c r="D63" s="9"/>
-      <c r="E63" s="9"/>
+      <c r="B43" s="8"/>
+      <c r="C43" s="8"/>
+      <c r="D43" s="8"/>
+      <c r="E43" s="8"/>
+    </row>
+    <row r="44" spans="1:5">
+      <c r="A44" s="8"/>
+      <c r="B44" s="8"/>
+      <c r="C44" s="8"/>
+      <c r="D44" s="8"/>
+      <c r="E44" s="8"/>
     </row>
   </sheetData>
   <mergeCells count="6">
-    <mergeCell ref="L7:L34"/>
-    <mergeCell ref="L53:L54"/>
-    <mergeCell ref="A58:E59"/>
-    <mergeCell ref="A60:E61"/>
-    <mergeCell ref="C35:M51"/>
-    <mergeCell ref="A62:E63"/>
+    <mergeCell ref="L7:L24"/>
+    <mergeCell ref="L34:L35"/>
+    <mergeCell ref="A43:E44"/>
+    <mergeCell ref="A41:E42"/>
+    <mergeCell ref="A39:E40"/>
+    <mergeCell ref="C25:M32"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
@@ -7596,763 +7250,763 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="13.8"/>
   <cols>
-    <col min="1" max="1" width="8.88888888888889" style="20"/>
-    <col min="2" max="2" width="16.4444444444444" style="20" customWidth="1"/>
-    <col min="3" max="3" width="20.4444444444444" style="20" customWidth="1"/>
-    <col min="4" max="5" width="23.6666666666667" style="20" customWidth="1"/>
-    <col min="6" max="6" width="26.1111111111111" style="20" customWidth="1"/>
-    <col min="7" max="7" width="8.88888888888889" style="20"/>
-    <col min="8" max="8" width="32.4444444444444" style="20" customWidth="1"/>
-    <col min="9" max="9" width="36.2222222222222" style="20" customWidth="1"/>
-    <col min="10" max="16384" width="8.88888888888889" style="20"/>
+    <col min="1" max="1" width="8.88888888888889" style="16"/>
+    <col min="2" max="2" width="16.4444444444444" style="16" customWidth="1"/>
+    <col min="3" max="3" width="20.4444444444444" style="16" customWidth="1"/>
+    <col min="4" max="5" width="23.6666666666667" style="16" customWidth="1"/>
+    <col min="6" max="6" width="26.1111111111111" style="16" customWidth="1"/>
+    <col min="7" max="7" width="8.88888888888889" style="16"/>
+    <col min="8" max="8" width="32.4444444444444" style="16" customWidth="1"/>
+    <col min="9" max="9" width="36.2222222222222" style="16" customWidth="1"/>
+    <col min="10" max="16384" width="8.88888888888889" style="16"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8">
-      <c r="A1" s="38" t="s">
+      <c r="A1" s="31" t="s">
+        <v>282</v>
+      </c>
+      <c r="B1" s="31"/>
+      <c r="C1" s="31"/>
+      <c r="D1" s="31"/>
+      <c r="E1" s="31"/>
+      <c r="F1" s="31"/>
+      <c r="G1" s="31"/>
+      <c r="H1" s="31"/>
+    </row>
+    <row r="2" spans="1:8">
+      <c r="A2" s="31"/>
+      <c r="B2" s="31"/>
+      <c r="C2" s="31"/>
+      <c r="D2" s="31"/>
+      <c r="E2" s="31"/>
+      <c r="F2" s="31"/>
+      <c r="G2" s="31"/>
+      <c r="H2" s="31"/>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" s="16" t="s">
+        <v>283</v>
+      </c>
+      <c r="B3" s="16" t="s">
+        <v>191</v>
+      </c>
+      <c r="C3" s="16" t="s">
+        <v>284</v>
+      </c>
+      <c r="D3" s="16" t="s">
+        <v>285</v>
+      </c>
+      <c r="E3" s="16" t="s">
+        <v>286</v>
+      </c>
+      <c r="F3" s="16" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4" s="16">
+        <v>1</v>
+      </c>
+      <c r="B4" s="16" t="s">
+        <v>226</v>
+      </c>
+      <c r="C4" s="16" t="s">
+        <v>288</v>
+      </c>
+      <c r="D4" s="16" t="s">
+        <v>289</v>
+      </c>
+      <c r="E4" s="16">
+        <v>100</v>
+      </c>
+      <c r="F4" s="16" t="s">
+        <v>290</v>
+      </c>
+      <c r="G4" s="32" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="5" spans="3:7">
+      <c r="C5" s="8" t="s">
+        <v>292</v>
+      </c>
+      <c r="D5" s="16" t="s">
+        <v>293</v>
+      </c>
+      <c r="E5" s="16">
+        <v>200</v>
+      </c>
+      <c r="F5" s="16" t="s">
+        <v>294</v>
+      </c>
+      <c r="G5" s="32" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="A6" s="16">
+        <v>2</v>
+      </c>
+      <c r="B6" s="16" t="s">
+        <v>295</v>
+      </c>
+      <c r="C6" s="16" t="s">
+        <v>296</v>
+      </c>
+      <c r="D6" s="16" t="s">
+        <v>297</v>
+      </c>
+      <c r="E6" s="16">
         <v>300</v>
       </c>
-      <c r="B1" s="38"/>
-      <c r="C1" s="38"/>
-      <c r="D1" s="38"/>
-      <c r="E1" s="38"/>
-      <c r="F1" s="38"/>
-      <c r="G1" s="38"/>
-      <c r="H1" s="38"/>
-    </row>
-    <row r="2" spans="1:8">
-      <c r="A2" s="38"/>
-      <c r="B2" s="38"/>
-      <c r="C2" s="38"/>
-      <c r="D2" s="38"/>
-      <c r="E2" s="38"/>
-      <c r="F2" s="38"/>
-      <c r="G2" s="38"/>
-      <c r="H2" s="38"/>
-    </row>
-    <row r="3" spans="1:6">
-      <c r="A3" s="20" t="s">
+      <c r="F6" s="16" t="s">
+        <v>298</v>
+      </c>
+      <c r="G6" s="32" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="A7" s="16">
+        <v>3</v>
+      </c>
+      <c r="B7" s="16" t="s">
+        <v>156</v>
+      </c>
+      <c r="C7" s="16" t="s">
+        <v>299</v>
+      </c>
+      <c r="D7" s="16" t="s">
+        <v>300</v>
+      </c>
+      <c r="F7" s="16" t="s">
         <v>301</v>
       </c>
-      <c r="B3" s="20" t="s">
-        <v>191</v>
-      </c>
-      <c r="C3" s="20" t="s">
+      <c r="G7" s="32" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
+      <c r="A8" s="16">
+        <v>4</v>
+      </c>
+      <c r="B8" s="33" t="s">
         <v>302</v>
       </c>
-      <c r="D3" s="20" t="s">
+      <c r="C8" s="16" t="s">
         <v>303</v>
       </c>
-      <c r="E3" s="20" t="s">
+      <c r="F8" s="16" t="s">
         <v>304</v>
       </c>
-      <c r="F3" s="20" t="s">
+      <c r="G8" s="32" t="s">
+        <v>291</v>
+      </c>
+      <c r="H8" s="16" t="s">
         <v>305</v>
       </c>
     </row>
-    <row r="4" spans="1:7">
-      <c r="A4" s="20">
-        <v>1</v>
-      </c>
-      <c r="B4" s="20" t="s">
-        <v>226</v>
-      </c>
-      <c r="C4" s="20" t="s">
+    <row r="9" spans="1:7">
+      <c r="A9" s="16">
+        <v>5</v>
+      </c>
+      <c r="B9" s="34" t="s">
         <v>306</v>
       </c>
-      <c r="D4" s="20" t="s">
+      <c r="C9" s="16" t="s">
         <v>307</v>
       </c>
-      <c r="E4" s="20">
-        <v>100</v>
-      </c>
-      <c r="F4" s="20" t="s">
+      <c r="G9" s="32" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
+      <c r="A10" s="16">
+        <v>6</v>
+      </c>
+      <c r="B10" s="16" t="s">
+        <v>160</v>
+      </c>
+      <c r="C10" s="16" t="s">
         <v>308</v>
       </c>
-      <c r="G4" s="39" t="s">
+      <c r="D10" s="16" t="s">
         <v>309</v>
       </c>
-    </row>
-    <row r="5" spans="3:7">
-      <c r="C5" s="9" t="s">
+      <c r="F10" s="16" t="s">
         <v>310</v>
       </c>
-      <c r="D5" s="20" t="s">
-        <v>311</v>
-      </c>
-      <c r="E5" s="20">
-        <v>200</v>
-      </c>
-      <c r="F5" s="20" t="s">
-        <v>312</v>
-      </c>
-      <c r="G5" s="39" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7">
-      <c r="A6" s="20">
-        <v>2</v>
-      </c>
-      <c r="B6" s="20" t="s">
-        <v>284</v>
-      </c>
-      <c r="C6" s="20" t="s">
-        <v>313</v>
-      </c>
-      <c r="D6" s="20" t="s">
-        <v>314</v>
-      </c>
-      <c r="E6" s="20">
-        <v>300</v>
-      </c>
-      <c r="F6" s="20" t="s">
-        <v>315</v>
-      </c>
-      <c r="G6" s="39" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7">
-      <c r="A7" s="20">
-        <v>3</v>
-      </c>
-      <c r="B7" s="20" t="s">
-        <v>156</v>
-      </c>
-      <c r="C7" s="20" t="s">
-        <v>316</v>
-      </c>
-      <c r="D7" s="20" t="s">
-        <v>317</v>
-      </c>
-      <c r="F7" s="20" t="s">
-        <v>318</v>
-      </c>
-      <c r="G7" s="39" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8">
-      <c r="A8" s="20">
-        <v>4</v>
-      </c>
-      <c r="B8" s="40" t="s">
-        <v>319</v>
-      </c>
-      <c r="C8" s="20" t="s">
-        <v>320</v>
-      </c>
-      <c r="F8" s="20" t="s">
-        <v>321</v>
-      </c>
-      <c r="G8" s="39" t="s">
-        <v>309</v>
-      </c>
-      <c r="H8" s="20" t="s">
-        <v>322</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7">
-      <c r="A9" s="20">
-        <v>5</v>
-      </c>
-      <c r="B9" s="41" t="s">
-        <v>323</v>
-      </c>
-      <c r="C9" s="20" t="s">
-        <v>324</v>
-      </c>
-      <c r="G9" s="39" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7">
-      <c r="A10" s="20">
-        <v>6</v>
-      </c>
-      <c r="B10" s="20" t="s">
-        <v>160</v>
-      </c>
-      <c r="C10" s="20" t="s">
-        <v>325</v>
-      </c>
-      <c r="D10" s="20" t="s">
-        <v>326</v>
-      </c>
-      <c r="F10" s="20" t="s">
-        <v>327</v>
-      </c>
-      <c r="G10" s="39" t="s">
-        <v>309</v>
+      <c r="G10" s="32" t="s">
+        <v>291</v>
       </c>
     </row>
     <row r="11" spans="1:9">
-      <c r="A11" s="20">
+      <c r="A11" s="16">
         <v>7</v>
       </c>
       <c r="B11" s="4" t="s">
         <v>185</v>
       </c>
       <c r="C11" s="4" t="s">
+        <v>311</v>
+      </c>
+      <c r="F11" s="16" t="s">
+        <v>312</v>
+      </c>
+      <c r="G11" s="32" t="s">
+        <v>291</v>
+      </c>
+      <c r="H11" s="4" t="s">
+        <v>313</v>
+      </c>
+      <c r="I11" s="16" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="12" ht="20.4" spans="1:9">
+      <c r="A12" s="16">
+        <v>8</v>
+      </c>
+      <c r="B12" s="16" t="s">
+        <v>210</v>
+      </c>
+      <c r="C12" s="16" t="s">
+        <v>315</v>
+      </c>
+      <c r="D12" s="16" t="s">
+        <v>316</v>
+      </c>
+      <c r="F12" s="16" t="s">
+        <v>317</v>
+      </c>
+      <c r="G12" s="35" t="s">
+        <v>318</v>
+      </c>
+      <c r="H12" s="26" t="s">
+        <v>319</v>
+      </c>
+      <c r="I12" s="16" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="13" spans="2:8">
+      <c r="B13" s="16" t="s">
+        <v>321</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>322</v>
+      </c>
+      <c r="G13" s="36" t="s">
+        <v>291</v>
+      </c>
+      <c r="H13" s="16" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="14" spans="3:7">
+      <c r="C14" s="16" t="s">
+        <v>324</v>
+      </c>
+      <c r="G14" s="37"/>
+    </row>
+    <row r="15" spans="2:7">
+      <c r="B15" s="16" t="s">
+        <v>325</v>
+      </c>
+      <c r="C15" s="16" t="s">
+        <v>326</v>
+      </c>
+      <c r="D15" s="16" t="s">
+        <v>327</v>
+      </c>
+      <c r="G15" s="37"/>
+    </row>
+    <row r="16" spans="3:7">
+      <c r="C16" s="16" t="s">
         <v>328</v>
       </c>
-      <c r="F11" s="20" t="s">
+      <c r="D16" s="16" t="s">
+        <v>327</v>
+      </c>
+      <c r="G16" s="37"/>
+    </row>
+    <row r="17" ht="17.4" spans="3:7">
+      <c r="C17" s="16" t="s">
         <v>329</v>
       </c>
-      <c r="G11" s="39" t="s">
-        <v>309</v>
-      </c>
-      <c r="H11" s="4" t="s">
+      <c r="D17" s="16" t="s">
         <v>330</v>
       </c>
-      <c r="I11" s="20" t="s">
+      <c r="E17" s="16" t="s">
         <v>331</v>
       </c>
-    </row>
-    <row r="12" ht="20.4" spans="1:9">
-      <c r="A12" s="20">
-        <v>8</v>
-      </c>
-      <c r="B12" s="20" t="s">
-        <v>210</v>
-      </c>
-      <c r="C12" s="20" t="s">
+      <c r="G17" s="38" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
+      <c r="A18" s="16">
+        <v>9</v>
+      </c>
+      <c r="B18" s="16" t="s">
         <v>332</v>
       </c>
-      <c r="D12" s="20" t="s">
+      <c r="C18" s="16" t="s">
         <v>333</v>
       </c>
-      <c r="F12" s="20" t="s">
+    </row>
+    <row r="19" spans="3:7">
+      <c r="C19" s="16" t="s">
         <v>334</v>
       </c>
-      <c r="G12" s="42" t="s">
+      <c r="D19" s="16" t="s">
         <v>335</v>
       </c>
-      <c r="H12" s="32" t="s">
+      <c r="F19" s="16" t="s">
         <v>336</v>
       </c>
-      <c r="I12" s="20" t="s">
+      <c r="G19" s="32" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7">
+      <c r="A20" s="16">
+        <v>10</v>
+      </c>
+      <c r="B20" s="16" t="s">
         <v>337</v>
       </c>
-    </row>
-    <row r="13" spans="2:8">
-      <c r="B13" s="20" t="s">
+      <c r="C20" s="16" t="s">
         <v>338</v>
       </c>
-      <c r="C13" s="4" t="s">
+      <c r="D20" s="16" t="s">
         <v>339</v>
       </c>
-      <c r="G13" s="43" t="s">
-        <v>309</v>
-      </c>
-      <c r="H13" s="20" t="s">
+      <c r="F20" s="16" t="s">
         <v>340</v>
       </c>
-    </row>
-    <row r="14" spans="3:7">
-      <c r="C14" s="20" t="s">
+      <c r="G20" s="32" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8">
+      <c r="A21" s="16">
+        <v>11</v>
+      </c>
+      <c r="B21" s="16" t="s">
         <v>341</v>
       </c>
-      <c r="G14" s="44"/>
-    </row>
-    <row r="15" spans="2:7">
-      <c r="B15" s="20" t="s">
+      <c r="C21" s="16" t="s">
         <v>342</v>
       </c>
-      <c r="C15" s="20" t="s">
+      <c r="D21" s="16" t="s">
         <v>343</v>
       </c>
-      <c r="D15" s="20" t="s">
+      <c r="F21" s="16" t="s">
         <v>344</v>
       </c>
-      <c r="G15" s="44"/>
-    </row>
-    <row r="16" spans="3:7">
-      <c r="C16" s="20" t="s">
+      <c r="G21" s="32" t="s">
+        <v>291</v>
+      </c>
+      <c r="H21" s="16" t="s">
         <v>345</v>
       </c>
-      <c r="D16" s="20" t="s">
-        <v>344</v>
-      </c>
-      <c r="G16" s="44"/>
-    </row>
-    <row r="17" ht="17.4" spans="3:7">
-      <c r="C17" s="20" t="s">
+    </row>
+    <row r="22" spans="1:7">
+      <c r="A22" s="16">
+        <v>12</v>
+      </c>
+      <c r="B22" s="16" t="s">
+        <v>295</v>
+      </c>
+      <c r="C22" s="16" t="s">
         <v>346</v>
       </c>
-      <c r="D17" s="20" t="s">
+      <c r="F22" s="16" t="s">
         <v>347</v>
       </c>
-      <c r="E17" s="20" t="s">
+      <c r="G22" s="32" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7">
+      <c r="A23" s="16">
+        <v>13</v>
+      </c>
+      <c r="B23" s="16" t="s">
+        <v>151</v>
+      </c>
+      <c r="C23" s="16" t="s">
         <v>348</v>
       </c>
-      <c r="G17" s="45" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3">
-      <c r="A18" s="20">
-        <v>9</v>
-      </c>
-      <c r="B18" s="20" t="s">
-        <v>279</v>
-      </c>
-      <c r="C18" s="20" t="s">
+      <c r="G23" s="32" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="24" spans="3:7">
+      <c r="C24" s="16" t="s">
         <v>349</v>
       </c>
-    </row>
-    <row r="19" spans="3:7">
-      <c r="C19" s="20" t="s">
+      <c r="G24" s="39"/>
+    </row>
+    <row r="25" spans="1:7">
+      <c r="A25" s="16">
+        <v>14</v>
+      </c>
+      <c r="B25" s="16" t="s">
         <v>350</v>
       </c>
-      <c r="D19" s="20" t="s">
+      <c r="C25" s="16" t="s">
         <v>351</v>
       </c>
-      <c r="F19" s="20" t="s">
+      <c r="F25" s="16" t="s">
         <v>352</v>
       </c>
-      <c r="G19" s="39" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7">
-      <c r="A20" s="20">
-        <v>10</v>
-      </c>
-      <c r="B20" s="20" t="s">
-        <v>280</v>
-      </c>
-      <c r="C20" s="20" t="s">
+      <c r="G25" s="32" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7">
+      <c r="A26" s="16">
+        <v>15</v>
+      </c>
+      <c r="B26" s="16" t="s">
         <v>353</v>
       </c>
-      <c r="D20" s="20" t="s">
+      <c r="C26" s="16" t="s">
         <v>354</v>
       </c>
-      <c r="F20" s="20" t="s">
+      <c r="G26" s="32" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7">
+      <c r="A27" s="16">
+        <v>16</v>
+      </c>
+      <c r="B27" s="16" t="s">
+        <v>139</v>
+      </c>
+      <c r="C27" s="16" t="s">
         <v>355</v>
       </c>
-      <c r="G20" s="39" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8">
-      <c r="A21" s="20">
-        <v>11</v>
-      </c>
-      <c r="B21" s="20" t="s">
-        <v>281</v>
-      </c>
-      <c r="C21" s="20" t="s">
+      <c r="F27" s="16" t="s">
         <v>356</v>
       </c>
-      <c r="D21" s="20" t="s">
+      <c r="G27" s="32" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7">
+      <c r="A28" s="16">
+        <v>17</v>
+      </c>
+      <c r="B28" s="16" t="s">
+        <v>143</v>
+      </c>
+      <c r="C28" s="16" t="s">
         <v>357</v>
       </c>
-      <c r="F21" s="20" t="s">
+      <c r="F28" s="16" t="s">
         <v>358</v>
       </c>
-      <c r="G21" s="39" t="s">
-        <v>309</v>
-      </c>
-      <c r="H21" s="20" t="s">
+      <c r="G28" s="32" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7">
+      <c r="A29" s="16">
+        <v>18</v>
+      </c>
+      <c r="B29" s="16" t="s">
+        <v>147</v>
+      </c>
+      <c r="C29" s="16" t="s">
         <v>359</v>
       </c>
-    </row>
-    <row r="22" spans="1:7">
-      <c r="A22" s="20">
-        <v>12</v>
-      </c>
-      <c r="B22" s="20" t="s">
-        <v>284</v>
-      </c>
-      <c r="C22" s="20" t="s">
+      <c r="F29" s="16" t="s">
         <v>360</v>
       </c>
-      <c r="F22" s="20" t="s">
+      <c r="G29" s="32" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7">
+      <c r="A30" s="16">
+        <v>19</v>
+      </c>
+      <c r="B30" s="16" t="s">
         <v>361</v>
       </c>
-      <c r="G22" s="39" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7">
-      <c r="A23" s="20">
-        <v>13</v>
-      </c>
-      <c r="B23" s="20" t="s">
-        <v>151</v>
-      </c>
-      <c r="C23" s="20" t="s">
+      <c r="C30" s="16" t="s">
         <v>362</v>
       </c>
-      <c r="G23" s="39" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="24" spans="3:7">
-      <c r="C24" s="20" t="s">
+      <c r="F30" s="16" t="s">
         <v>363</v>
       </c>
-      <c r="G24" s="46"/>
-    </row>
-    <row r="25" spans="1:7">
-      <c r="A25" s="20">
-        <v>14</v>
-      </c>
-      <c r="B25" s="20" t="s">
-        <v>285</v>
-      </c>
-      <c r="C25" s="20" t="s">
+      <c r="G30" s="32" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7">
+      <c r="A31" s="16">
+        <v>20</v>
+      </c>
+      <c r="B31" s="33" t="s">
         <v>364</v>
       </c>
-      <c r="F25" s="20" t="s">
+      <c r="C31" s="16" t="s">
         <v>365</v>
       </c>
-      <c r="G25" s="39" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7">
-      <c r="A26" s="20">
-        <v>15</v>
-      </c>
-      <c r="B26" s="20" t="s">
-        <v>286</v>
-      </c>
-      <c r="C26" s="20" t="s">
+      <c r="D31" s="16" t="s">
         <v>366</v>
       </c>
-      <c r="G26" s="39" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7">
-      <c r="A27" s="20">
-        <v>16</v>
-      </c>
-      <c r="B27" s="20" t="s">
-        <v>139</v>
-      </c>
-      <c r="C27" s="20" t="s">
+      <c r="F31" s="16" t="s">
         <v>367</v>
       </c>
-      <c r="F27" s="20" t="s">
+      <c r="G31" s="32" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7">
+      <c r="A32" s="16">
+        <v>21</v>
+      </c>
+      <c r="B32" s="34" t="s">
         <v>368</v>
       </c>
-      <c r="G27" s="39" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7">
-      <c r="A28" s="20">
-        <v>17</v>
-      </c>
-      <c r="B28" s="20" t="s">
-        <v>143</v>
-      </c>
-      <c r="C28" s="20" t="s">
+      <c r="C32" s="16" t="s">
         <v>369</v>
       </c>
-      <c r="F28" s="20" t="s">
+      <c r="D32" s="16" t="s">
         <v>370</v>
       </c>
-      <c r="G28" s="39" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7">
-      <c r="A29" s="20">
-        <v>18</v>
-      </c>
-      <c r="B29" s="20" t="s">
-        <v>147</v>
-      </c>
-      <c r="C29" s="20" t="s">
+      <c r="F32" s="16" t="s">
         <v>371</v>
       </c>
-      <c r="F29" s="20" t="s">
+      <c r="G32" s="32" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="34" spans="2:3">
+      <c r="B34" s="40"/>
+      <c r="C34" s="40"/>
+    </row>
+    <row r="35" ht="20.4" spans="2:7">
+      <c r="B35" s="16" t="s">
+        <v>165</v>
+      </c>
+      <c r="C35" s="16" t="s">
         <v>372</v>
       </c>
-      <c r="G29" s="39" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7">
-      <c r="A30" s="20">
-        <v>19</v>
-      </c>
-      <c r="B30" s="20" t="s">
-        <v>287</v>
-      </c>
-      <c r="C30" s="20" t="s">
+      <c r="F35" s="16" t="s">
         <v>373</v>
       </c>
-      <c r="F30" s="20" t="s">
+      <c r="G35" s="35" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="36" spans="2:7">
+      <c r="B36" s="16" t="s">
         <v>374</v>
       </c>
-      <c r="G30" s="39" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7">
-      <c r="A31" s="20">
-        <v>20</v>
-      </c>
-      <c r="B31" s="40" t="s">
-        <v>288</v>
-      </c>
-      <c r="C31" s="20" t="s">
+      <c r="C36" s="16" t="s">
         <v>375</v>
       </c>
-      <c r="D31" s="20" t="s">
+      <c r="D36" s="16" t="s">
         <v>376</v>
       </c>
-      <c r="F31" s="20" t="s">
+      <c r="E36" s="16" t="s">
         <v>377</v>
       </c>
-      <c r="G31" s="39" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7">
-      <c r="A32" s="20">
-        <v>21</v>
-      </c>
-      <c r="B32" s="41" t="s">
-        <v>289</v>
-      </c>
-      <c r="C32" s="20" t="s">
+      <c r="F36" s="16" t="s">
         <v>378</v>
       </c>
-      <c r="D32" s="20" t="s">
+      <c r="G36" s="32" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8">
+      <c r="A37" s="16">
+        <v>22</v>
+      </c>
+      <c r="B37" s="39" t="s">
+        <v>273</v>
+      </c>
+      <c r="C37" s="20" t="s">
         <v>379</v>
       </c>
-      <c r="F32" s="20" t="s">
+      <c r="D37" s="20"/>
+      <c r="E37" s="20"/>
+      <c r="G37" s="32" t="s">
+        <v>291</v>
+      </c>
+      <c r="H37" s="16" t="s">
         <v>380</v>
       </c>
-      <c r="G32" s="39" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="34" spans="2:3">
-      <c r="B34" s="47"/>
-      <c r="C34" s="47"/>
-    </row>
-    <row r="35" ht="20.4" spans="2:7">
-      <c r="B35" s="20" t="s">
-        <v>165</v>
-      </c>
-      <c r="C35" s="20" t="s">
+    </row>
+    <row r="38" spans="3:8">
+      <c r="C38" s="41" t="s">
         <v>381</v>
       </c>
-      <c r="F35" s="20" t="s">
+      <c r="D38" s="42"/>
+      <c r="E38" s="42"/>
+      <c r="G38" s="32" t="s">
+        <v>291</v>
+      </c>
+      <c r="H38" s="16" t="s">
         <v>382</v>
       </c>
-      <c r="G35" s="42" t="s">
-        <v>335</v>
-      </c>
-    </row>
-    <row r="36" spans="2:7">
-      <c r="B36" s="20" t="s">
+    </row>
+    <row r="39" spans="3:6">
+      <c r="C39" s="13" t="s">
         <v>383</v>
       </c>
-      <c r="C36" s="20" t="s">
+      <c r="D39" s="13"/>
+      <c r="E39" s="13"/>
+      <c r="F39" s="13"/>
+    </row>
+    <row r="40" spans="3:6">
+      <c r="C40" s="13"/>
+      <c r="D40" s="13"/>
+      <c r="E40" s="13"/>
+      <c r="F40" s="13"/>
+    </row>
+    <row r="43" spans="1:7">
+      <c r="A43" s="16">
+        <v>23</v>
+      </c>
+      <c r="B43" s="16" t="s">
+        <v>231</v>
+      </c>
+      <c r="C43" s="16" t="s">
         <v>384</v>
       </c>
-      <c r="D36" s="20" t="s">
+      <c r="F43" s="16" t="s">
         <v>385</v>
       </c>
-      <c r="E36" s="20" t="s">
+      <c r="G43" s="32" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="44" spans="3:7">
+      <c r="C44" s="16" t="s">
         <v>386</v>
       </c>
-      <c r="F36" s="20" t="s">
+      <c r="F44" s="16" t="s">
         <v>387</v>
       </c>
-      <c r="G36" s="39" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="37" spans="1:8">
-      <c r="A37" s="20">
-        <v>22</v>
-      </c>
-      <c r="B37" s="46" t="s">
+      <c r="G44" s="32" t="s">
         <v>291</v>
       </c>
-      <c r="C37" s="25" t="s">
+    </row>
+    <row r="45" spans="2:7">
+      <c r="B45" s="43" t="s">
         <v>388</v>
       </c>
-      <c r="D37" s="25"/>
-      <c r="E37" s="25"/>
-      <c r="G37" s="39" t="s">
-        <v>309</v>
-      </c>
-      <c r="H37" s="20" t="s">
+      <c r="C45" s="43"/>
+      <c r="D45" s="43"/>
+      <c r="E45" s="43"/>
+      <c r="F45" s="43"/>
+      <c r="G45" s="32" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="46" spans="2:7">
+      <c r="B46" s="43"/>
+      <c r="C46" s="43"/>
+      <c r="D46" s="43"/>
+      <c r="E46" s="43"/>
+      <c r="F46" s="43"/>
+      <c r="G46" s="32" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="47" spans="3:7">
+      <c r="C47" s="16" t="s">
         <v>389</v>
       </c>
-    </row>
-    <row r="38" spans="3:8">
-      <c r="C38" s="48" t="s">
+      <c r="G47" s="32" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7">
+      <c r="A48" s="16">
+        <v>24</v>
+      </c>
+      <c r="B48" s="16" t="s">
         <v>390</v>
       </c>
-      <c r="D38" s="49"/>
-      <c r="E38" s="49"/>
-      <c r="G38" s="39" t="s">
-        <v>309</v>
-      </c>
-      <c r="H38" s="20" t="s">
+      <c r="C48" s="16" t="s">
         <v>391</v>
       </c>
-    </row>
-    <row r="39" spans="3:6">
-      <c r="C39" s="17" t="s">
+      <c r="F48" s="16" t="s">
         <v>392</v>
       </c>
-      <c r="D39" s="17"/>
-      <c r="E39" s="17"/>
-      <c r="F39" s="17"/>
-    </row>
-    <row r="40" spans="3:6">
-      <c r="C40" s="17"/>
-      <c r="D40" s="17"/>
-      <c r="E40" s="17"/>
-      <c r="F40" s="17"/>
-    </row>
-    <row r="43" spans="1:7">
-      <c r="A43" s="20">
-        <v>23</v>
-      </c>
-      <c r="B43" s="20" t="s">
-        <v>231</v>
-      </c>
-      <c r="C43" s="20" t="s">
+      <c r="G48" s="32" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7">
+      <c r="A49" s="16">
+        <v>25</v>
+      </c>
+      <c r="B49" s="16" t="s">
         <v>393</v>
       </c>
-      <c r="F43" s="20" t="s">
+      <c r="C49" s="16" t="s">
         <v>394</v>
       </c>
-      <c r="G43" s="39" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="44" spans="3:7">
-      <c r="C44" s="20" t="s">
+      <c r="F49" s="16" t="s">
         <v>395</v>
       </c>
-      <c r="F44" s="20" t="s">
+      <c r="G49" s="32" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8">
+      <c r="A50" s="16">
+        <v>26</v>
+      </c>
+      <c r="B50" s="16" t="s">
+        <v>173</v>
+      </c>
+      <c r="F50" s="16" t="s">
         <v>396</v>
       </c>
-      <c r="G44" s="39" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="45" spans="2:7">
-      <c r="B45" s="50" t="s">
+      <c r="G50" s="32" t="s">
+        <v>318</v>
+      </c>
+      <c r="H50" s="44" t="s">
         <v>397</v>
       </c>
-      <c r="C45" s="50"/>
-      <c r="D45" s="50"/>
-      <c r="E45" s="50"/>
-      <c r="F45" s="50"/>
-      <c r="G45" s="39" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="46" spans="2:7">
-      <c r="B46" s="50"/>
-      <c r="C46" s="50"/>
-      <c r="D46" s="50"/>
-      <c r="E46" s="50"/>
-      <c r="F46" s="50"/>
-      <c r="G46" s="39" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="47" spans="3:7">
-      <c r="C47" s="20" t="s">
+    </row>
+    <row r="51" spans="1:7">
+      <c r="A51" s="16">
+        <v>27</v>
+      </c>
+      <c r="B51" s="16" t="s">
+        <v>178</v>
+      </c>
+      <c r="F51" s="16" t="s">
         <v>398</v>
       </c>
-      <c r="G47" s="39" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="48" spans="1:7">
-      <c r="A48" s="20">
-        <v>24</v>
-      </c>
-      <c r="B48" s="20" t="s">
-        <v>253</v>
-      </c>
-      <c r="C48" s="20" t="s">
+      <c r="G51" s="32" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7">
+      <c r="A52" s="16">
+        <v>28</v>
+      </c>
+      <c r="B52" s="16" t="s">
+        <v>181</v>
+      </c>
+      <c r="F52" s="16" t="s">
         <v>399</v>
       </c>
-      <c r="F48" s="20" t="s">
-        <v>400</v>
-      </c>
-      <c r="G48" s="39" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="49" spans="1:7">
-      <c r="A49" s="20">
-        <v>25</v>
-      </c>
-      <c r="B49" s="20" t="s">
-        <v>256</v>
-      </c>
-      <c r="C49" s="20" t="s">
-        <v>401</v>
-      </c>
-      <c r="F49" s="20" t="s">
-        <v>402</v>
-      </c>
-      <c r="G49" s="39" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="50" spans="1:8">
-      <c r="A50" s="20">
-        <v>26</v>
-      </c>
-      <c r="B50" s="20" t="s">
-        <v>173</v>
-      </c>
-      <c r="F50" s="20" t="s">
-        <v>403</v>
-      </c>
-      <c r="G50" s="39" t="s">
-        <v>335</v>
-      </c>
-      <c r="H50" s="51" t="s">
-        <v>404</v>
-      </c>
-    </row>
-    <row r="51" spans="1:7">
-      <c r="A51" s="20">
-        <v>27</v>
-      </c>
-      <c r="B51" s="20" t="s">
-        <v>178</v>
-      </c>
-      <c r="F51" s="20" t="s">
-        <v>405</v>
-      </c>
-      <c r="G51" s="39" t="s">
-        <v>335</v>
-      </c>
-    </row>
-    <row r="52" spans="1:7">
-      <c r="A52" s="20">
-        <v>28</v>
-      </c>
-      <c r="B52" s="20" t="s">
-        <v>181</v>
-      </c>
-      <c r="F52" s="20" t="s">
-        <v>406</v>
-      </c>
-      <c r="G52" s="39" t="s">
-        <v>335</v>
+      <c r="G52" s="32" t="s">
+        <v>318</v>
       </c>
     </row>
   </sheetData>
@@ -8453,7 +8107,6 @@
         <v>189</v>
       </c>
       <c r="G5" s="4"/>
-      <c r="H5"/>
       <c r="I5" s="4" t="s">
         <v>190</v>
       </c>
@@ -8486,7 +8139,7 @@
       <c r="I6" s="4" t="s">
         <v>111</v>
       </c>
-      <c r="J6" s="20"/>
+      <c r="J6" s="16"/>
       <c r="K6" s="4"/>
       <c r="L6" s="4"/>
       <c r="M6" s="4"/>
@@ -8507,11 +8160,11 @@
       <c r="G7" s="7"/>
       <c r="H7" s="7"/>
       <c r="I7" s="7"/>
-      <c r="J7" s="20"/>
+      <c r="J7" s="16"/>
       <c r="K7" s="4"/>
       <c r="L7" s="4"/>
       <c r="M7" s="4"/>
-      <c r="N7" s="20"/>
+      <c r="N7" s="16"/>
     </row>
     <row r="8" customFormat="1" spans="1:14">
       <c r="A8" s="7"/>
@@ -8523,46 +8176,46 @@
       <c r="G8" s="7"/>
       <c r="H8" s="7"/>
       <c r="I8" s="7"/>
-      <c r="J8" s="20"/>
-      <c r="K8" s="26"/>
-      <c r="L8" s="9"/>
-      <c r="M8" s="9"/>
-      <c r="N8" s="20"/>
+      <c r="J8" s="16"/>
+      <c r="K8" s="21"/>
+      <c r="L8" s="8"/>
+      <c r="M8" s="8"/>
+      <c r="N8" s="16"/>
     </row>
     <row r="9" s="1" customFormat="1" spans="1:15">
       <c r="A9" s="8">
         <v>1</v>
       </c>
-      <c r="B9" s="9" t="s">
+      <c r="B9" s="8" t="s">
         <v>156</v>
       </c>
-      <c r="C9" s="9" t="s">
+      <c r="C9" s="8" t="s">
         <v>155</v>
       </c>
-      <c r="D9" s="9" t="s">
+      <c r="D9" s="8" t="s">
         <v>198</v>
       </c>
-      <c r="E9" s="10" t="s">
+      <c r="E9" s="9" t="s">
         <v>199</v>
       </c>
-      <c r="F9" s="10" t="s">
+      <c r="F9" s="9" t="s">
         <v>137</v>
       </c>
-      <c r="G9" s="119" t="s">
+      <c r="G9" s="110" t="s">
         <v>199</v>
       </c>
-      <c r="H9" s="9" t="s">
+      <c r="H9" s="8" t="s">
         <v>155</v>
       </c>
-      <c r="I9" s="26" t="s">
+      <c r="I9" s="21" t="s">
         <v>154</v>
       </c>
-      <c r="J9" s="27" t="s">
-        <v>407</v>
-      </c>
-      <c r="K9" s="28"/>
-      <c r="L9" s="29"/>
-      <c r="M9" s="29"/>
+      <c r="J9" s="22" t="s">
+        <v>400</v>
+      </c>
+      <c r="K9" s="22"/>
+      <c r="L9" s="23"/>
+      <c r="M9" s="23"/>
       <c r="N9" s="4"/>
       <c r="O9" s="4" t="s">
         <v>140</v>
@@ -8572,93 +8225,93 @@
       <c r="A10" s="8">
         <v>2</v>
       </c>
-      <c r="B10" s="9" t="s">
+      <c r="B10" s="8" t="s">
         <v>160</v>
       </c>
-      <c r="C10" s="9" t="s">
+      <c r="C10" s="8" t="s">
         <v>159</v>
       </c>
-      <c r="D10" s="9" t="s">
+      <c r="D10" s="8" t="s">
         <v>200</v>
       </c>
-      <c r="E10" s="10"/>
-      <c r="F10" s="10"/>
-      <c r="G10" s="119" t="s">
+      <c r="E10" s="9"/>
+      <c r="F10" s="9"/>
+      <c r="G10" s="110" t="s">
         <v>201</v>
       </c>
-      <c r="H10" s="9" t="s">
+      <c r="H10" s="8" t="s">
         <v>159</v>
       </c>
-      <c r="I10" s="26" t="s">
+      <c r="I10" s="21" t="s">
         <v>158</v>
       </c>
-      <c r="J10" s="28"/>
-      <c r="K10" s="28"/>
-      <c r="L10" s="29"/>
-      <c r="M10" s="29"/>
+      <c r="J10" s="22"/>
+      <c r="K10" s="22"/>
+      <c r="L10" s="23"/>
+      <c r="M10" s="23"/>
       <c r="N10" s="4"/>
       <c r="O10" s="4" t="s">
         <v>144</v>
       </c>
     </row>
     <row r="11" s="1" customFormat="1" spans="1:15">
-      <c r="A11" s="11">
+      <c r="A11" s="10">
         <v>3</v>
       </c>
-      <c r="B11" s="12" t="s">
-        <v>282</v>
-      </c>
-      <c r="C11" s="12" t="s">
-        <v>408</v>
-      </c>
-      <c r="D11" s="12" t="s">
-        <v>409</v>
-      </c>
-      <c r="E11" s="10"/>
-      <c r="F11" s="10"/>
-      <c r="G11" s="119" t="s">
-        <v>410</v>
-      </c>
-      <c r="H11" s="9"/>
-      <c r="I11" s="26"/>
-      <c r="J11" s="28"/>
-      <c r="K11" s="28"/>
-      <c r="L11" s="29"/>
-      <c r="M11" s="29"/>
-      <c r="N11" s="22"/>
+      <c r="B11" s="10" t="s">
+        <v>270</v>
+      </c>
+      <c r="C11" s="10" t="s">
+        <v>401</v>
+      </c>
+      <c r="D11" s="10" t="s">
+        <v>402</v>
+      </c>
+      <c r="E11" s="9"/>
+      <c r="F11" s="9"/>
+      <c r="G11" s="110" t="s">
+        <v>403</v>
+      </c>
+      <c r="H11" s="8"/>
+      <c r="I11" s="21"/>
+      <c r="J11" s="22"/>
+      <c r="K11" s="22"/>
+      <c r="L11" s="23"/>
+      <c r="M11" s="23"/>
+      <c r="N11" s="4"/>
       <c r="O11" s="4" t="s">
-        <v>411</v>
+        <v>404</v>
       </c>
     </row>
     <row r="12" s="1" customFormat="1" spans="1:15">
       <c r="A12" s="8">
         <v>4</v>
       </c>
-      <c r="B12" s="9" t="s">
+      <c r="B12" s="8" t="s">
         <v>151</v>
       </c>
-      <c r="C12" s="9" t="s">
+      <c r="C12" s="8" t="s">
         <v>202</v>
       </c>
-      <c r="D12" s="9" t="s">
+      <c r="D12" s="8" t="s">
         <v>203</v>
       </c>
-      <c r="E12" s="10"/>
-      <c r="F12" s="10"/>
-      <c r="G12" s="9">
+      <c r="E12" s="9"/>
+      <c r="F12" s="9"/>
+      <c r="G12" s="8">
         <v>100001</v>
       </c>
-      <c r="H12" s="9" t="s">
+      <c r="H12" s="8" t="s">
         <v>150</v>
       </c>
-      <c r="I12" s="26" t="s">
+      <c r="I12" s="21" t="s">
         <v>149</v>
       </c>
-      <c r="J12" s="28"/>
-      <c r="K12" s="28"/>
-      <c r="L12" s="29"/>
-      <c r="M12" s="29"/>
-      <c r="N12" s="22"/>
+      <c r="J12" s="22"/>
+      <c r="K12" s="22"/>
+      <c r="L12" s="23"/>
+      <c r="M12" s="23"/>
+      <c r="N12" s="4"/>
       <c r="O12" s="4" t="s">
         <v>204</v>
       </c>
@@ -8667,28 +8320,28 @@
       <c r="A13" s="8">
         <v>5</v>
       </c>
-      <c r="B13" s="9" t="s">
+      <c r="B13" s="8" t="s">
         <v>139</v>
       </c>
-      <c r="C13" s="9" t="s">
+      <c r="C13" s="8" t="s">
         <v>138</v>
       </c>
-      <c r="D13" s="9" t="s">
+      <c r="D13" s="8" t="s">
         <v>205</v>
       </c>
-      <c r="E13" s="10"/>
-      <c r="F13" s="10"/>
-      <c r="G13" s="9">
+      <c r="E13" s="9"/>
+      <c r="F13" s="9"/>
+      <c r="G13" s="8">
         <v>100100</v>
       </c>
-      <c r="H13" s="9" t="s">
+      <c r="H13" s="8" t="s">
         <v>138</v>
       </c>
-      <c r="I13" s="26"/>
-      <c r="J13" s="28"/>
-      <c r="K13" s="28"/>
-      <c r="L13" s="29"/>
-      <c r="M13" s="29"/>
+      <c r="I13" s="21"/>
+      <c r="J13" s="22"/>
+      <c r="K13" s="22"/>
+      <c r="L13" s="23"/>
+      <c r="M13" s="23"/>
       <c r="N13" s="4" t="s">
         <v>156</v>
       </c>
@@ -8700,28 +8353,28 @@
       <c r="A14" s="8">
         <v>6</v>
       </c>
-      <c r="B14" s="9" t="s">
+      <c r="B14" s="8" t="s">
         <v>143</v>
       </c>
-      <c r="C14" s="9" t="s">
+      <c r="C14" s="8" t="s">
         <v>142</v>
       </c>
-      <c r="D14" s="9" t="s">
+      <c r="D14" s="8" t="s">
         <v>206</v>
       </c>
-      <c r="E14" s="10"/>
-      <c r="F14" s="10"/>
-      <c r="G14" s="9">
+      <c r="E14" s="9"/>
+      <c r="F14" s="9"/>
+      <c r="G14" s="8">
         <v>100101</v>
       </c>
-      <c r="H14" s="9" t="s">
+      <c r="H14" s="8" t="s">
         <v>142</v>
       </c>
-      <c r="I14" s="26"/>
-      <c r="J14" s="22"/>
-      <c r="K14" s="22"/>
-      <c r="L14" s="30"/>
-      <c r="M14" s="22"/>
+      <c r="I14" s="21"/>
+      <c r="J14" s="4"/>
+      <c r="K14" s="4"/>
+      <c r="L14" s="24"/>
+      <c r="M14" s="4"/>
       <c r="N14" s="4" t="s">
         <v>160</v>
       </c>
@@ -8733,28 +8386,28 @@
       <c r="A15" s="8">
         <v>7</v>
       </c>
-      <c r="B15" s="9" t="s">
+      <c r="B15" s="8" t="s">
         <v>147</v>
       </c>
-      <c r="C15" s="9" t="s">
+      <c r="C15" s="8" t="s">
         <v>146</v>
       </c>
-      <c r="D15" s="9" t="s">
+      <c r="D15" s="8" t="s">
         <v>207</v>
       </c>
-      <c r="E15" s="10"/>
-      <c r="F15" s="10"/>
-      <c r="G15" s="9">
+      <c r="E15" s="9"/>
+      <c r="F15" s="9"/>
+      <c r="G15" s="8">
         <v>100110</v>
       </c>
-      <c r="H15" s="9" t="s">
+      <c r="H15" s="8" t="s">
         <v>146</v>
       </c>
-      <c r="I15" s="26"/>
-      <c r="J15" s="22"/>
-      <c r="K15" s="22"/>
-      <c r="L15" s="30"/>
-      <c r="M15" s="22"/>
+      <c r="I15" s="21"/>
+      <c r="J15" s="4"/>
+      <c r="K15" s="4"/>
+      <c r="L15" s="24"/>
+      <c r="M15" s="4"/>
       <c r="N15" s="4"/>
       <c r="O15" s="4"/>
     </row>
@@ -8762,28 +8415,28 @@
       <c r="A16" s="8">
         <v>8</v>
       </c>
-      <c r="B16" s="9" t="s">
+      <c r="B16" s="8" t="s">
         <v>169</v>
       </c>
-      <c r="C16" s="13" t="s">
+      <c r="C16" s="8" t="s">
         <v>168</v>
       </c>
-      <c r="D16" s="14"/>
-      <c r="E16" s="15" t="s">
+      <c r="D16" s="11"/>
+      <c r="E16" s="12" t="s">
         <v>208</v>
       </c>
-      <c r="F16" s="10"/>
-      <c r="G16" s="119" t="s">
+      <c r="F16" s="9"/>
+      <c r="G16" s="110" t="s">
         <v>201</v>
       </c>
-      <c r="H16" s="13" t="s">
+      <c r="H16" s="8" t="s">
         <v>209</v>
       </c>
-      <c r="I16" s="26"/>
-      <c r="J16" s="22"/>
-      <c r="K16" s="22"/>
-      <c r="L16" s="30"/>
-      <c r="M16" s="22"/>
+      <c r="I16" s="21"/>
+      <c r="J16" s="4"/>
+      <c r="K16" s="4"/>
+      <c r="L16" s="24"/>
+      <c r="M16" s="4"/>
       <c r="N16" s="4" t="s">
         <v>210</v>
       </c>
@@ -8803,7 +8456,6 @@
       <c r="G17" s="7"/>
       <c r="H17" s="7"/>
       <c r="I17" s="7"/>
-      <c r="J17"/>
       <c r="K17" s="4" t="s">
         <v>111</v>
       </c>
@@ -8824,11 +8476,10 @@
       <c r="G18" s="7"/>
       <c r="H18" s="7"/>
       <c r="I18" s="7"/>
-      <c r="J18"/>
-      <c r="K18" s="26" t="s">
+      <c r="K18" s="21" t="s">
         <v>137</v>
       </c>
-      <c r="L18" s="9" t="s">
+      <c r="L18" s="8" t="s">
         <v>138</v>
       </c>
       <c r="M18" s="4" t="s">
@@ -8836,29 +8487,29 @@
       </c>
     </row>
     <row r="19" s="1" customFormat="1" spans="1:13">
-      <c r="A19" s="11">
+      <c r="A19" s="10">
         <v>9</v>
       </c>
-      <c r="B19" s="12" t="s">
-        <v>272</v>
-      </c>
-      <c r="C19" s="12" t="s">
-        <v>412</v>
-      </c>
-      <c r="D19" s="16"/>
-      <c r="E19" s="124" t="s">
-        <v>413</v>
-      </c>
-      <c r="F19" s="9"/>
-      <c r="G19" s="17" t="s">
-        <v>414</v>
-      </c>
-      <c r="H19" s="9"/>
-      <c r="I19" s="26"/>
-      <c r="K19" s="26" t="s">
+      <c r="B19" s="10" t="s">
+        <v>262</v>
+      </c>
+      <c r="C19" s="10" t="s">
+        <v>405</v>
+      </c>
+      <c r="D19" s="10"/>
+      <c r="E19" s="115" t="s">
+        <v>406</v>
+      </c>
+      <c r="F19" s="8"/>
+      <c r="G19" s="13" t="s">
+        <v>407</v>
+      </c>
+      <c r="H19" s="8"/>
+      <c r="I19" s="21"/>
+      <c r="K19" s="21" t="s">
         <v>141</v>
       </c>
-      <c r="L19" s="9" t="s">
+      <c r="L19" s="8" t="s">
         <v>142</v>
       </c>
       <c r="M19" s="4" t="s">
@@ -8866,27 +8517,27 @@
       </c>
     </row>
     <row r="20" s="1" customFormat="1" ht="17.4" spans="1:13">
-      <c r="A20" s="11">
+      <c r="A20" s="10">
         <v>10</v>
       </c>
-      <c r="B20" s="12" t="s">
-        <v>273</v>
-      </c>
-      <c r="C20" s="12" t="s">
-        <v>415</v>
-      </c>
-      <c r="D20" s="18"/>
-      <c r="E20" s="124" t="s">
-        <v>416</v>
-      </c>
-      <c r="F20" s="19"/>
-      <c r="G20" s="17"/>
-      <c r="H20" s="9"/>
-      <c r="I20" s="26"/>
-      <c r="K20" s="26" t="s">
+      <c r="B20" s="10" t="s">
+        <v>263</v>
+      </c>
+      <c r="C20" s="10" t="s">
+        <v>408</v>
+      </c>
+      <c r="D20" s="14"/>
+      <c r="E20" s="115" t="s">
+        <v>409</v>
+      </c>
+      <c r="F20" s="15"/>
+      <c r="G20" s="13"/>
+      <c r="H20" s="8"/>
+      <c r="I20" s="21"/>
+      <c r="K20" s="21" t="s">
         <v>145</v>
       </c>
-      <c r="L20" s="9" t="s">
+      <c r="L20" s="8" t="s">
         <v>146</v>
       </c>
       <c r="M20" s="4" t="s">
@@ -8894,27 +8545,27 @@
       </c>
     </row>
     <row r="21" s="1" customFormat="1" ht="17.4" spans="1:13">
-      <c r="A21" s="11">
+      <c r="A21" s="10">
         <v>11</v>
       </c>
-      <c r="B21" s="12" t="s">
-        <v>417</v>
-      </c>
-      <c r="C21" s="12" t="s">
-        <v>418</v>
-      </c>
-      <c r="D21" s="16"/>
-      <c r="E21" s="124" t="s">
-        <v>419</v>
-      </c>
-      <c r="F21" s="19"/>
-      <c r="G21" s="17"/>
+      <c r="B21" s="10" t="s">
+        <v>264</v>
+      </c>
+      <c r="C21" s="10" t="s">
+        <v>410</v>
+      </c>
+      <c r="D21" s="10"/>
+      <c r="E21" s="115" t="s">
+        <v>411</v>
+      </c>
+      <c r="F21" s="15"/>
+      <c r="G21" s="13"/>
       <c r="H21" s="8"/>
       <c r="I21" s="8"/>
-      <c r="K21" s="26" t="s">
+      <c r="K21" s="21" t="s">
         <v>149</v>
       </c>
-      <c r="L21" s="9" t="s">
+      <c r="L21" s="8" t="s">
         <v>150</v>
       </c>
       <c r="M21" s="4" t="s">
@@ -8923,21 +8574,21 @@
     </row>
     <row r="22" s="1" customFormat="1" ht="17.4" spans="1:13">
       <c r="A22" s="8"/>
-      <c r="B22" s="20"/>
-      <c r="C22" s="20"/>
-      <c r="D22" s="20"/>
-      <c r="E22" s="9"/>
-      <c r="F22" s="19"/>
-      <c r="G22" s="17"/>
+      <c r="B22" s="16"/>
+      <c r="C22" s="16"/>
+      <c r="D22" s="16"/>
+      <c r="E22" s="8"/>
+      <c r="F22" s="15"/>
+      <c r="G22" s="13"/>
       <c r="H22" s="8"/>
       <c r="I22" s="8"/>
-      <c r="K22" s="26" t="s">
+      <c r="K22" s="21" t="s">
         <v>154</v>
       </c>
-      <c r="L22" s="9" t="s">
+      <c r="L22" s="8" t="s">
         <v>155</v>
       </c>
-      <c r="M22" s="9" t="s">
+      <c r="M22" s="8" t="s">
         <v>156</v>
       </c>
     </row>
@@ -8945,34 +8596,34 @@
       <c r="A23" s="8">
         <v>12</v>
       </c>
-      <c r="B23" s="20" t="s">
+      <c r="B23" s="16" t="s">
         <v>173</v>
       </c>
-      <c r="C23" s="20" t="s">
+      <c r="C23" s="16" t="s">
         <v>172</v>
       </c>
-      <c r="D23" s="20" t="s">
+      <c r="D23" s="16" t="s">
         <v>213</v>
       </c>
-      <c r="E23" s="119" t="s">
+      <c r="E23" s="110" t="s">
         <v>214</v>
       </c>
-      <c r="F23" s="9"/>
-      <c r="G23" s="17"/>
-      <c r="H23" s="9" t="s">
+      <c r="F23" s="8"/>
+      <c r="G23" s="13"/>
+      <c r="H23" s="8" t="s">
         <v>139</v>
       </c>
-      <c r="I23" s="26" t="s">
-        <v>277</v>
-      </c>
-      <c r="J23" s="20"/>
-      <c r="K23" s="26" t="s">
+      <c r="I23" s="21" t="s">
+        <v>268</v>
+      </c>
+      <c r="J23" s="16"/>
+      <c r="K23" s="21" t="s">
         <v>158</v>
       </c>
-      <c r="L23" s="9" t="s">
+      <c r="L23" s="8" t="s">
         <v>159</v>
       </c>
-      <c r="M23" s="9" t="s">
+      <c r="M23" s="8" t="s">
         <v>160</v>
       </c>
     </row>
@@ -8980,31 +8631,31 @@
       <c r="A24" s="8">
         <v>13</v>
       </c>
-      <c r="B24" s="20" t="s">
+      <c r="B24" s="16" t="s">
         <v>178</v>
       </c>
-      <c r="C24" s="20" t="s">
+      <c r="C24" s="16" t="s">
         <v>177</v>
       </c>
-      <c r="D24" s="20"/>
-      <c r="E24" s="119" t="s">
+      <c r="D24" s="16"/>
+      <c r="E24" s="110" t="s">
         <v>216</v>
       </c>
-      <c r="F24" s="9"/>
-      <c r="G24" s="17"/>
-      <c r="H24" s="9" t="s">
+      <c r="F24" s="8"/>
+      <c r="G24" s="13"/>
+      <c r="H24" s="8" t="s">
         <v>143</v>
       </c>
-      <c r="I24" s="26" t="s">
-        <v>420</v>
-      </c>
-      <c r="K24" s="26" t="s">
+      <c r="I24" s="21" t="s">
+        <v>412</v>
+      </c>
+      <c r="K24" s="21" t="s">
         <v>163</v>
       </c>
-      <c r="L24" s="9" t="s">
+      <c r="L24" s="8" t="s">
         <v>164</v>
       </c>
-      <c r="M24" s="9" t="s">
+      <c r="M24" s="8" t="s">
         <v>165</v>
       </c>
     </row>
@@ -9012,31 +8663,31 @@
       <c r="A25" s="8">
         <v>14</v>
       </c>
-      <c r="B25" s="20" t="s">
+      <c r="B25" s="16" t="s">
         <v>181</v>
       </c>
-      <c r="C25" s="20" t="s">
+      <c r="C25" s="16" t="s">
         <v>180</v>
       </c>
-      <c r="D25" s="20"/>
-      <c r="E25" s="119" t="s">
+      <c r="D25" s="16"/>
+      <c r="E25" s="110" t="s">
         <v>217</v>
       </c>
-      <c r="F25" s="9"/>
-      <c r="G25" s="17"/>
-      <c r="H25" s="9" t="s">
+      <c r="F25" s="8"/>
+      <c r="G25" s="13"/>
+      <c r="H25" s="8" t="s">
         <v>147</v>
       </c>
-      <c r="I25" s="26" t="s">
-        <v>421</v>
-      </c>
-      <c r="K25" s="26" t="s">
+      <c r="I25" s="21" t="s">
+        <v>413</v>
+      </c>
+      <c r="K25" s="21" t="s">
         <v>167</v>
       </c>
-      <c r="L25" s="9" t="s">
+      <c r="L25" s="8" t="s">
         <v>168</v>
       </c>
-      <c r="M25" s="9" t="s">
+      <c r="M25" s="8" t="s">
         <v>169</v>
       </c>
     </row>
@@ -9044,143 +8695,140 @@
       <c r="A26" s="8">
         <v>15</v>
       </c>
-      <c r="B26" s="20" t="s">
+      <c r="B26" s="16" t="s">
         <v>165</v>
       </c>
-      <c r="C26" s="20" t="s">
+      <c r="C26" s="16" t="s">
         <v>218</v>
       </c>
-      <c r="D26" s="20"/>
-      <c r="E26" s="119" t="s">
+      <c r="D26" s="16"/>
+      <c r="E26" s="110" t="s">
         <v>219</v>
       </c>
-      <c r="F26" s="9"/>
-      <c r="G26" s="17"/>
-      <c r="H26" s="21" t="s">
+      <c r="F26" s="8"/>
+      <c r="G26" s="13"/>
+      <c r="H26" s="17" t="s">
         <v>164</v>
       </c>
-      <c r="I26" s="31" t="s">
-        <v>265</v>
-      </c>
-      <c r="J26" s="32"/>
-      <c r="K26" s="33"/>
-      <c r="L26" s="34"/>
+      <c r="I26" s="25" t="s">
+        <v>259</v>
+      </c>
+      <c r="J26" s="26"/>
+      <c r="K26" s="3"/>
+      <c r="L26" s="27"/>
     </row>
     <row r="27" s="1" customFormat="1" spans="1:12">
       <c r="A27" s="8">
         <v>16</v>
       </c>
-      <c r="B27" s="20" t="s">
+      <c r="B27" s="16" t="s">
         <v>185</v>
       </c>
-      <c r="C27" s="20" t="s">
+      <c r="C27" s="16" t="s">
         <v>220</v>
       </c>
-      <c r="D27" s="20" t="s">
+      <c r="D27" s="16" t="s">
         <v>221</v>
       </c>
-      <c r="E27" s="119" t="s">
+      <c r="E27" s="110" t="s">
         <v>222</v>
       </c>
       <c r="F27" s="8"/>
-      <c r="G27" s="17"/>
-      <c r="H27" s="22"/>
-      <c r="I27" s="30"/>
-      <c r="K27" s="33"/>
-      <c r="L27" s="34"/>
+      <c r="G27" s="13"/>
+      <c r="H27" s="4"/>
+      <c r="I27" s="24"/>
+      <c r="K27" s="3"/>
+      <c r="L27" s="27"/>
     </row>
     <row r="28" customFormat="1" spans="1:12">
       <c r="A28" s="8">
         <v>17</v>
       </c>
-      <c r="B28" s="20" t="s">
+      <c r="B28" s="16" t="s">
         <v>223</v>
       </c>
-      <c r="C28" s="20" t="s">
+      <c r="C28" s="16" t="s">
         <v>224</v>
       </c>
-      <c r="D28" s="20" t="s">
+      <c r="D28" s="16" t="s">
         <v>225</v>
       </c>
-      <c r="E28" s="9">
+      <c r="E28" s="8">
         <v>100000</v>
       </c>
       <c r="F28" s="8"/>
-      <c r="G28" s="17"/>
-      <c r="H28" s="20"/>
-      <c r="I28" s="35"/>
-      <c r="J28"/>
-      <c r="K28" s="36"/>
-      <c r="L28" s="37"/>
+      <c r="G28" s="13"/>
+      <c r="H28" s="16"/>
+      <c r="I28" s="28"/>
+      <c r="K28" s="29"/>
+      <c r="L28" s="30"/>
     </row>
     <row r="29" customFormat="1" spans="1:12">
       <c r="A29" s="8">
         <v>18</v>
       </c>
-      <c r="B29" s="20" t="s">
+      <c r="B29" s="16" t="s">
         <v>226</v>
       </c>
-      <c r="C29" s="20" t="s">
+      <c r="C29" s="16" t="s">
         <v>227</v>
       </c>
-      <c r="D29" s="20"/>
-      <c r="E29" s="9">
+      <c r="D29" s="16"/>
+      <c r="E29" s="8">
         <v>100011</v>
       </c>
       <c r="F29" s="8"/>
-      <c r="G29" s="17"/>
-      <c r="H29" s="20"/>
-      <c r="I29" s="35"/>
-      <c r="J29"/>
-      <c r="K29" s="36"/>
-      <c r="L29" s="37"/>
+      <c r="G29" s="13"/>
+      <c r="H29" s="16"/>
+      <c r="I29" s="28"/>
+      <c r="K29" s="29"/>
+      <c r="L29" s="30"/>
     </row>
     <row r="30" customFormat="1" spans="1:12">
       <c r="A30" s="8">
         <v>19</v>
       </c>
-      <c r="B30" s="20" t="s">
+      <c r="B30" s="16" t="s">
         <v>228</v>
       </c>
-      <c r="C30" s="20" t="s">
+      <c r="C30" s="16" t="s">
         <v>229</v>
       </c>
-      <c r="D30" s="20" t="s">
+      <c r="D30" s="16" t="s">
         <v>230</v>
       </c>
-      <c r="E30" s="9">
+      <c r="E30" s="8">
         <v>101000</v>
       </c>
       <c r="F30" s="8"/>
-      <c r="G30" s="17"/>
-      <c r="H30" s="20"/>
-      <c r="I30" s="35"/>
-      <c r="J30"/>
-      <c r="K30" s="36"/>
-      <c r="L30" s="37"/>
+      <c r="G30" s="13"/>
+      <c r="H30" s="16"/>
+      <c r="I30" s="28"/>
+      <c r="K30" s="29"/>
+      <c r="L30" s="30"/>
     </row>
     <row r="31" customFormat="1" spans="1:9">
       <c r="A31" s="8">
         <v>20</v>
       </c>
-      <c r="B31" s="20" t="s">
+      <c r="B31" s="16" t="s">
         <v>231</v>
       </c>
-      <c r="C31" s="20" t="s">
+      <c r="C31" s="16" t="s">
         <v>232</v>
       </c>
-      <c r="D31" s="20"/>
-      <c r="E31" s="9">
+      <c r="D31" s="16"/>
+      <c r="E31" s="8">
         <v>101011</v>
       </c>
       <c r="F31" s="8"/>
-      <c r="G31" s="17"/>
-      <c r="H31" s="20"/>
-      <c r="I31" s="35"/>
+      <c r="G31" s="13"/>
+      <c r="H31" s="16"/>
+      <c r="I31" s="28"/>
     </row>
     <row r="32" customFormat="1" spans="1:9">
       <c r="A32" s="7" t="s">
-        <v>422</v>
+        <v>414</v>
       </c>
       <c r="B32" s="7"/>
       <c r="C32" s="7"/>
@@ -9203,128 +8851,128 @@
       <c r="I33" s="7"/>
     </row>
     <row r="34" customFormat="1" spans="1:9">
-      <c r="A34" s="20">
+      <c r="A34" s="16">
         <v>21</v>
       </c>
-      <c r="B34" s="20" t="s">
-        <v>291</v>
-      </c>
-      <c r="C34" s="20" t="s">
+      <c r="B34" s="16" t="s">
+        <v>273</v>
+      </c>
+      <c r="C34" s="16" t="s">
         <v>89</v>
       </c>
-      <c r="D34" s="20"/>
-      <c r="E34" s="122" t="s">
+      <c r="D34" s="16"/>
+      <c r="E34" s="113" t="s">
         <v>201</v>
       </c>
-      <c r="F34" s="20"/>
-      <c r="G34" s="20" t="s">
+      <c r="F34" s="16"/>
+      <c r="G34" s="16" t="s">
         <v>215</v>
       </c>
-      <c r="H34" s="20"/>
-      <c r="I34" s="20"/>
+      <c r="H34" s="16"/>
+      <c r="I34" s="16"/>
     </row>
     <row r="35" customFormat="1" spans="1:9">
-      <c r="A35" s="20">
+      <c r="A35" s="16">
         <v>22</v>
       </c>
-      <c r="B35" s="20" t="s">
-        <v>294</v>
-      </c>
-      <c r="C35" s="20" t="s">
-        <v>423</v>
-      </c>
-      <c r="D35" s="20"/>
-      <c r="E35" s="122" t="s">
-        <v>424</v>
-      </c>
-      <c r="F35" s="20"/>
-      <c r="G35" s="20"/>
-      <c r="H35" s="20"/>
-      <c r="I35" s="20"/>
+      <c r="B35" s="16" t="s">
+        <v>276</v>
+      </c>
+      <c r="C35" s="16" t="s">
+        <v>415</v>
+      </c>
+      <c r="D35" s="16"/>
+      <c r="E35" s="113" t="s">
+        <v>416</v>
+      </c>
+      <c r="F35" s="16"/>
+      <c r="G35" s="16"/>
+      <c r="H35" s="16"/>
+      <c r="I35" s="16"/>
     </row>
     <row r="36" customFormat="1" spans="1:9">
-      <c r="A36" s="23" t="s">
+      <c r="A36" s="18" t="s">
         <v>233</v>
       </c>
-      <c r="B36" s="23"/>
-      <c r="C36" s="23"/>
-      <c r="D36" s="23"/>
-      <c r="E36" s="23"/>
-      <c r="F36" s="23"/>
-      <c r="G36" s="23"/>
-      <c r="H36" s="23"/>
-      <c r="I36" s="23"/>
+      <c r="B36" s="18"/>
+      <c r="C36" s="18"/>
+      <c r="D36" s="18"/>
+      <c r="E36" s="18"/>
+      <c r="F36" s="18"/>
+      <c r="G36" s="18"/>
+      <c r="H36" s="18"/>
+      <c r="I36" s="18"/>
     </row>
     <row r="37" customFormat="1" spans="1:9">
-      <c r="A37" s="23"/>
-      <c r="B37" s="23"/>
-      <c r="C37" s="23"/>
-      <c r="D37" s="23"/>
-      <c r="E37" s="23"/>
-      <c r="F37" s="23"/>
-      <c r="G37" s="23"/>
-      <c r="H37" s="23"/>
-      <c r="I37" s="23"/>
+      <c r="A37" s="18"/>
+      <c r="B37" s="18"/>
+      <c r="C37" s="18"/>
+      <c r="D37" s="18"/>
+      <c r="E37" s="18"/>
+      <c r="F37" s="18"/>
+      <c r="G37" s="18"/>
+      <c r="H37" s="18"/>
+      <c r="I37" s="18"/>
     </row>
     <row r="38" customFormat="1" spans="1:9">
-      <c r="A38" s="23"/>
-      <c r="B38" s="23"/>
-      <c r="C38" s="23"/>
-      <c r="D38" s="23"/>
-      <c r="E38" s="23"/>
-      <c r="F38" s="23"/>
-      <c r="G38" s="23"/>
-      <c r="H38" s="23"/>
-      <c r="I38" s="23"/>
+      <c r="A38" s="18"/>
+      <c r="B38" s="18"/>
+      <c r="C38" s="18"/>
+      <c r="D38" s="18"/>
+      <c r="E38" s="18"/>
+      <c r="F38" s="18"/>
+      <c r="G38" s="18"/>
+      <c r="H38" s="18"/>
+      <c r="I38" s="18"/>
     </row>
     <row r="39" customFormat="1" spans="1:9">
-      <c r="A39" s="17" t="s">
-        <v>425</v>
-      </c>
-      <c r="B39" s="17"/>
-      <c r="C39" s="17"/>
-      <c r="D39" s="17"/>
-      <c r="E39" s="17"/>
-      <c r="F39" s="17"/>
-      <c r="G39" s="17"/>
-      <c r="H39" s="17"/>
-      <c r="I39" s="17"/>
+      <c r="A39" s="13" t="s">
+        <v>417</v>
+      </c>
+      <c r="B39" s="13"/>
+      <c r="C39" s="13"/>
+      <c r="D39" s="13"/>
+      <c r="E39" s="13"/>
+      <c r="F39" s="13"/>
+      <c r="G39" s="13"/>
+      <c r="H39" s="13"/>
+      <c r="I39" s="13"/>
     </row>
     <row r="40" customFormat="1" spans="1:9">
-      <c r="A40" s="17"/>
-      <c r="B40" s="17"/>
-      <c r="C40" s="17"/>
-      <c r="D40" s="17"/>
-      <c r="E40" s="17"/>
-      <c r="F40" s="17"/>
-      <c r="G40" s="17"/>
-      <c r="H40" s="17"/>
-      <c r="I40" s="17"/>
+      <c r="A40" s="13"/>
+      <c r="B40" s="13"/>
+      <c r="C40" s="13"/>
+      <c r="D40" s="13"/>
+      <c r="E40" s="13"/>
+      <c r="F40" s="13"/>
+      <c r="G40" s="13"/>
+      <c r="H40" s="13"/>
+      <c r="I40" s="13"/>
     </row>
     <row r="41" customFormat="1"/>
     <row r="42" customFormat="1" spans="1:3">
       <c r="A42" s="4" t="s">
-        <v>426</v>
+        <v>418</v>
       </c>
       <c r="B42" s="4"/>
       <c r="C42" s="4"/>
     </row>
     <row r="43" customFormat="1" spans="1:3">
-      <c r="A43" s="24" t="s">
-        <v>427</v>
-      </c>
-      <c r="B43" s="25"/>
-      <c r="C43" s="25"/>
+      <c r="A43" s="19" t="s">
+        <v>419</v>
+      </c>
+      <c r="B43" s="20"/>
+      <c r="C43" s="20"/>
     </row>
     <row r="44" customFormat="1" spans="1:3">
-      <c r="A44" s="25"/>
-      <c r="B44" s="25"/>
-      <c r="C44" s="25"/>
+      <c r="A44" s="20"/>
+      <c r="B44" s="20"/>
+      <c r="C44" s="20"/>
     </row>
     <row r="45" customFormat="1" spans="1:3">
-      <c r="A45" s="25"/>
-      <c r="B45" s="25"/>
-      <c r="C45" s="25"/>
+      <c r="A45" s="20"/>
+      <c r="B45" s="20"/>
+      <c r="C45" s="20"/>
     </row>
   </sheetData>
   <mergeCells count="19">
